--- a/dados_treino.xlsx
+++ b/dados_treino.xlsx
@@ -443,2100 +443,2100 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Muita gíria. Muitas vezes fiquei sem entender do que se tratava, o que o autor queria transmitir R tem que ficar recorrendo ao glossário</t>
+          <t>Os livros e suas capas estão ótimos. Bonitos e sem problemas. Agora o box que guarda os livros infelizmente veio rasgado :(</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Aceito bem chato de ler, no formato de e-mails e sms.  Parei no meio. Achei bem superficial, não vale a pena.</t>
+          <t>Como pode uma editora aproveitar o sucesso do Senhor dos Anéis ao longo desses anos para cobrar um preço tão abusivo em um livro? Isso é um absurdo, e infelizmente só acontece nesse país corrupto que é o Brasil. Espero que ninguém compre esse livro nesse valor, e que essa editora tenha um prejuízo bem dado.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Livro que tenta pregar mudança de pensamento e hábitos. Uma auto ajuda muito ruim. Abordagem extremamente repetitiva, cansativa e entediante.</t>
+          <t>Muito ruim, uma série de repetições desnecessárias,um insulto ao leitor que acompanhou a história. Um verdadeiro horror, não comprem, dinheiro jogado fora.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Trata-se de um livro muito superficial, limitado a um conjunto simplista de “receitinhas” pretensamente rotuladas de “hábitos”. Também não tem nada de original e nenhuma fundamentação mais científica da questão. Embora seja de assimilação fácil e rápida (não exige reflexões), não compensa o tempo que se vai despender em sua leitura. Não recomendo. Alfredo Sant’Anna Junior</t>
+          <t>Cansativo. O kindle não facilita as idas e vindas no dicionário Nadsat. O texto se perde e você tem que ficar procurando onde parou a leitura.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Achei de muito mal gosto, mentiroso, me arrependi de ter adquirido, sem pé nem cabeça, nota zero, sem conteúdo edificante.</t>
+          <t>O final decepcionante da trilogia me fez arrepender de ter perdido meu tempo gostando do primeiro e segundo livros, e criando expectativas para o terceiro.</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Não tenho muito o que dizer, porque simplesmente não gostei. Achei um livro muito ruim, chato,  maçante, monótono e cansativo.</t>
+          <t>Esperava muito mais. Achei o livro muito juvenil, o vocabulário é fraco, as poesias muito simplórias. Fiquei desapontada com a indicação recebida.</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Lino livro por causa do hype feito em cima dele. Sinceramente, não me chamou a atenção, não gostei. História fraca, nada acontece, uma vez ou outra alguém fala alguma coisa que vale a pena guardar mas só. Poderia ser muito melhor.</t>
+          <t>O livro foi classificado como novo no site e chegou em péssimo estado, totalmente amassado como se fosse um livro com valor de 3 reais.</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Com todo respeito à Rita, mas ela escreveu um diário bem pouco inspirador a respeito da sua vida. Achava que estaria no livro algumas impressões pessoais da grande cantora, mas o que li foram lembranças da infância em to tatibitate, que não condizem em nada com a carreira da grande cantora. Continuo fã da Rita cantora.</t>
+          <t>Alguns conceitos abordados no livro podem ser com sorte aplicados nas relações, mas de modo geral as coisas não fluem como o livro cita, principalmente no mundo corporativo, parece que o leitor acha que devemos ser a Madre Teresa de Calcutá, enquanto que a realidade é completamente diferente. O leitor chega ao ponto de dizer que devemos elogiar os erros alheios, parece mais papo de comunistinha socialista do que de alguém que queira realmente vencer na vida. Os exemplos abordados no livro de histórias são bem superficiais e da pra ver que na real não foi nada daquilo, sendo que muitos ali vc vê homens de posição e convicções mudarem de postura com uns elogios fúteis. Enfim o livro é bem água com açúcar e não condiz com toda essa popularidade da mídia. Se ler os livros do pupilo dele o Napolleon Hill são muito melhores. Aquele mormente que o discípulo superou muito seu mestre.</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>I cannot access the ebook. all books are unavailable and there is no place to complain or check if my kindle is ok.</t>
+          <t>O autor tenta mostrar outro lado do livro, buscando referências bibliográficas que contrariem as tradicionais. Mas as referências que o autor usa são únicas e ele quer usar como prova. Um livro radical que quer acusar os negros de serem culpados pela própria escravidão, desmerecer as invenções e artistas brasileiros, qualificando ingleses e americanos ao nível de Reis e heróis. Além do autor citar alguns radicais políticos de direita como referência. E para finalizar o livro, o autor poderia ter falado de alguma qualidade nacional, resolveu alfinetar "os comunistas". Perda de tempo.</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Tá valendo Obrigado grande abraço e obrigado abraço amigo é irmão do meu iPad início da manhã no dia do meu financiamento de um orçamento para os gigantes</t>
+          <t>I cannot access the ebook. all books are unavailable and there is no place to complain or check if my kindle is ok.</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>decepção logo quando começou a sitar kal Maxi perdi a vontade de continuar a leitura. o marxismo  e responsável pelas maiores tragédias humanitárias desde o seculo XIX. Em resumo eu quero Menos Max, mais Misse.</t>
+          <t>O livro é excelente, mas a avaliação refere-se a entrega pela transportadora Direct Express Parcel Service S/A. O local onde a DANFE foi afixada na caixa do produto apresentava MARCA DE RETIRADA DO PLÁSTICO (visto posteriormente à entrega). O pacote, em si, não foi violado. Temo pelo mau uso da DANFE, em que constam dados importantes, como nome completo, CPF e endereço do comprador.</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Comprei para presentear, então não posso avaliar como gostaria se eu não ler, entao é isso.Chato ser obrigado a escrever tudo isso!</t>
+          <t>A linguagem do livro é bastante vulgar e o assunto repetido cansativamente: bullying. Minha filha de 11 anos parou no terceiro capítulo e largou a edição que, na opinião dela, não prende a atenção. Não recomendo.</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Se você ainda não leu nenhum livro sobre a reflexão de propósito de vida, pode ser que você goste bastante desse livro. Para quem já leu outros livros, para quem já está no processo de autoconhecimento, ele acrescenta quase nada.</t>
+          <t>Me sentir enganado ao ler o livro, paguei para ler propaganda de um método que está a venda. Recomendo que retirem o livro do site, é uma vergonha ter um livro desse a disposição para venda.</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Infelizmente esse box não veio em perfeitas condições. Veio cheio de cola nas lombadas e em algumas capas também. Já solicitei a devolução do produto :( Esse box tava num preço super barato, por isso a qualidade é bem inferior. Tem um tamanho de bíblia pequena e as folhas são muito transparentes, da pra ver o texto do outro lado. Quanto ao prazo de entrega da Amazon foi excelente. Chegou super rápido em casa, pena que não veio em perfeito estado.</t>
+          <t>Péssima editora! Comprei este livro há algum tempo e resolvi ler agora. O livro tem dezenas de páginas fora de ordem. Não posso trocar porque já expirou o prazo para troca. Entrei em contato com a editora e fui ignorado. Nem respondem aos emails.  Há várias reclamações sobre este mesmo problema na internet. Aconselho a quem for comprar, que confira  todas as páginas assim que receber o livro, porque se você perder o prazo de 7 dias para troca na Amazon, não terá nenhum suporte da Leya! Atualização 24/11 Recebi um novo livro hoje. Nem esperava que a Leya fosse enviar um novo exemplar. Resolvi manter a reclamação original como um alerta pra futuros compradores. Mantenho todas  as minhas críticas com relação ao atendimento ao leitor por parte da editora. Há muito o que melhorar, entretanto, apesar da demora e da falta de contato, consegui um livro novo, sem defeito.  É uma edição nova. O livro está menor e a fonte não é tão escura como das edições anteriores. Acho que este novo formato dificulta um pouco a leitura, porque a fonte é bem pequena. Enviarei fotos da nova edição em breve.</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Simplesmente não deu para mim, parei, voltei, tentei de novo!!! Tentarei assistir o filme, pq o livro não deu mesmo!!! Achei chato toda vida, nenhum personagem (além do avô que logo morreu) me sequestrou a atenção. O Pai é chato, o garoto é chato, a cidade é chata.</t>
+          <t>Umberto Eco e esta sua obra já foram muito bem descritos pelo conjunto de resenhas aqui publicadas. Minha fala se restringirá à edição de bolso. Iniciei a releitura motivada pela revisão do autor e o acréscimo do texto "Apostilas...". Tentei, mas não consegui ir adiantes apesar do conteúdo. Folha branca, margens estreitas, espaços mais do que simples, letras miúdas. Nao há espaço para escrevermos as traduções dos trechos em latim, para interpretação das palavras mais rebuscadas e registroa das impressoes de leitura. Este texto requer interação do leitor....e a versão de bolso impede, por seu "apertamento".  Sugiro à editora (re) lançar em capa dura, papel creme, com fontes e tudo o mais que venha a deixar a leitura confortável. Obs.: na imagem inicial com o mapa da abadia suspeito que faltam dados  Ha divergência entre o desenho e a legenda.</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Possuo a versão impressa do livro "A Guerra dos Tronos" e ontem comprei o e-book em promoção na Amazon pela praticidade de ler o livro no meu tablet. Depois de baixar o livro comparei com a versão impressa e observei que algumas frases são diferentes, outras até com erros de tradução. Pensei: como é possível o mesmo livro, da mesma editora, possuir texto diferente na versão impressa e na versão digital? Então comecei a procurar as versões "gratuitas" na internet e comprovei que esse e-book vendido pela Amazon não passa de uma versão pirata que circula na internet que foi traduzida do e-book original em inglês usando algum tradutor de péssima qualidade. Com a inclusão digital no nível que estamos e a força da opinião das pessoas nas redes sociais, como uma editora tem coragem de comercializar livros digitais usando material de baixa qualidade disponibilizado gratuitamente na internet ao invés de digitalizar o próprio conteúdo, depois de toda a briga que teve no país para permitir a venda desse material pelo absurdo valor da versão impressa?</t>
+          <t>Não  é possível. Vi Nárnia agora e a Amazon  esta cobrando quase R$70,00. Senhor dos Anéis a quase R$100,00. Nada pode justificar estes valores. As obras são sem dúvida incríveis , mas os preços ço são uma afronta.</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>O livro é 10% infos úteis e 90% encheção de linguiça: traz algumas perspectivas interessantes acerca de métodos de prouditividade, mas é muita enrolação e repetição desnecessária, além de o texto apresentar qualidade bastante questionável.</t>
+          <t>depois de fazer o pedido que vi que era pocket e pelos comentários... Espero sinceramente que eu consiga cancelar. Decepcionada mesmo.</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Não gostei</t>
+          <t>Seria o ideal... E bebê,  nenê? Que mulher se deixa ser chamada assim??? E uísque 12 anos como se fosse grande coisa? A autora precisa pesquisar o que os realmente ricos e famosos bebem... até vai bem nas cenas hot mas com o tempo cansam... 10 páginas é muito né? Ah. E a famosa repetição da palavra bufo. Não é o primeiro livro em que encontro esse exagero. Como se significasse alguma coisa.... 50 páginas a menos talvez deixassem o livro mais interessante...</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Eu não compro esse livro!</t>
+          <t>Eu fiquei muito decepcionada com a autora esperava mais do livro, ela acabou com a história de Gideon e Eva nesse último volume, esperava um desfecho melhor, sabe aquele final feliz eles deixam seus medos e traumas pra trás, vão pra lua de mel, esperava os filhos nem isso teve, muito triste perdi meu tempo lendo todo seu!!</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Entrei num endereço sobre o ganho de um livro em Kindle no dia 30/3 escolho o livro e imediatamente ao fazer meu login o valor eh debitado do meu cartão! Um absurdo! Não queria comprar o livro! Solicito uma devolução imediata do valor!</t>
+          <t>Não gostei porquê a capa veio com um rasgo, o que para edição de colecionador, é péssimo. Espero que das próximas vezes que eu comprar, não venham novamente com defeitos ou algo do tipo.</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A menos que queira uma versão POCKET, não compre. Na descrição do produto não diz nada. A devolução irá custar 40 Reais para mim, ou seja, foram desonestos e me prejudicaram. No Submarino os vendedores são mais honestos, informam se a versão é POCKET ou não.</t>
+          <t>Pior livro que já li em toda a minha vida. Enrola MUITO. Fala o livro todo da tal da "comunidade miracle morning". Dava raiva antes de virar a página já, porque você sabe que na próxima ele vai dizer "entre na comunidade miraclemorning. com e veja quantas pessoas se beneficiam disso". affff Chato, chato, chato. Nem sequer 1 base científica...é tudo no "achismo". Quando estava no meio tive curiosidade de ver quais eram as referencias bibliográficas e, adivinha?? Nao tem nenhuma! Não gastem seu dinheiro. Tem muitos livros bons por aí...este aqui não vale nem quando está em promoção! Me arrependo muito de ter gasto 17,90 nele. =/</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Começou boa istoria, no meio um pouco enrolado, depois embromou no romance, dando para saber que o violão era o irmão mais novo! Mas é diferente, com um mundo novo, só por isso deve ser expandindo! Espero que o próximo seja melhor</t>
+          <t>Livro que tenta pregar mudança de pensamento e hábitos. Uma auto ajuda muito ruim. Abordagem extremamente repetitiva, cansativa e entediante.</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Pedi o livro baseado na promoção q era de graça. Não autorizo está compra. Ajustem o site de vcs para evitar tais desconfortos. Dória tem razão... e vcs não cumpriram com a palavra. Não aceito pagar R$21,00 por este livro, pois estava informando q era gratuito</t>
+          <t>Viés ideológico gritante...</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Estava com saudades de todos os personagens, mas contado assim, como teatro, perde toda a mágica. A história é incrivelmente fraca é previsível, os personagens não parecem com eles mesmos, o desfecho é sofrível. Aibda apresenta um quê de dramalhão mexicano.</t>
+          <t>Baixei a amostra e não consigo comprar a versão completa porque está indisponível. Entrei em contato com editora e fui informada que o problema está na página da loja amazon e que seria normalizado. Até o presente momento não houve mudança, já tem dois meses que estou aguardando! E aí amazon, quando será normalizado?</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Infelizmente os livros não chegaram, fiz o pedido no começo de Dezembro com entrega prevista para 28/12/2017, infelizmente não chegou feito reclamação, foi estipulado novo prazo até dia 08/01/2018 , novamente sem sucesso, feito reclamação na empresa Planeta livros a mesma disse que o responsável pela entrega era Amazon, que rebatia o contrario. Uma falta de respeito ao cliente, tive que optar pelo reembolso e vou  tentar comprar por outro site.</t>
+          <t>A superficialidade das "dicas" fogem totalmente da proposta "40 Princípios que o tornarão mais inteligente" do livro. Esperava muito mais, inclusive da escrita.</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A edição traz uma introdução que é puro spoiler. Muitos leitores estão reclamando da mesma coisa aqui. Por que não colocam essa maldita análise no final?</t>
+          <t>Livro básico, direcionado a público sem instrução Ajuda quem não tem nenhum senso de direção na vida. Achei básico e com técnicas clichês</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Uma pena. Acreditei ser uma obra para ampliar o pensamento sobre a democracia como o definitivo 'establish' da sociedade humana. Ledo engano. Mais um livro para vender munição de festim para os ingênuos. Aqueles que querem ressonar com o discurso fácil, o argumento conveniente que desconsidera valores e princípios maiores de nossa natureza. Mais um pseudo intelectual tentando trabalhar falácias ameaçadoras sem nenhum compromisso com referências reais. Não perca seu tempo.</t>
+          <t>Esse livro é cheio de afirmacoes sem embasamento; se você acrrdita em mensagens do tipo "vai a luta", "deus ajuda a quem cedo madrugada"essas coisas, pode encarar o livro.  No meu caso, buscava algo mais cientifico.</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Livro de agradável leitura, bastante esclarecedor, envolve o leitor e mostra não só ao arte racional do assunto, o autor se preocupa com a parte psicológica que envolve o dinheiro. Bom livro</t>
+          <t>Amontoado de proposições absurdas destinadas a contestar valores essenciais como direitos humanos, tolerância, respeito à diversidade, democracia, criticidade e participação política. olavo de carvalho deve zombar de cada imbecil que paga para lê-lo.</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>O livro engana bem até a metade, pois inicialmente a personagem Rachel parece ser bem interessante, e a obra mostra a mediocridade e falsa felicidads por trás  da aparente vida feliz de famílias comuns do subúrbio inglês. A narrativa, entretando, se torna um suspense comunzinho de banca de revista com uma conclusão nada crível.</t>
+          <t>Ok, tem partes picantes legais, mas grande parte do livro foi tipo, não, não tá legal. Sinceramente achei muito forçado, muito machista, muito clichê, não curti.</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A percepção do autor sobre investimento é totalmente especulativa. Muitos conselhos se assemelham a apostas.</t>
+          <t>Achei que o livro mostra apenas oque o senso comum ja sabe sobre produtividade, mas se mostra como uma grande novidade.</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Já tinha lido algumas avaliações anteriores e vi diversas reclamações nas condições do box. Antecipadamente já fiquei tensa. E infelizmente, também fui premiada: o box veio danificado. Quando a gente compra um produto, espera-se receber em perfeito estado, aí acontece isso, é como se jogasse o balde de água fria. Até porque é um presente que eu vou dar já danificado: bem indelicado. Os demais produtos, que foram livros diversos, chegaram em condições normais, sem defeitos.</t>
+          <t>&lt;a class="a-link-normal" data-hook="product-link-linked" href="/Caixa-Harry-Potter-Edição-Premium-Exclusiva-Amazon/dp/8532505708"&gt;Caixa Harry Potter - Edição Premium Exclusiva Amazon&lt;/a&gt; CUIDADO COM O ANÚNCIO, O BOX NÃO É PREMIUM!!! O meu box apesar de vir todo emplastificado ele chegou com um pouco de poeira dentro do plástico e algumas capas estavam raladas com leves ranhuras... muito estranho, parece que antes de colocar no box, na hora da fabricação os livros sofreram um pouco e foram maltratados e embalados de qualquer jeito. Eu comprei numa promoção por 140 e não recomendo comprar se estiver mais caro que isso, pois o papel é muito fino e transparente, dá medo de manusear e rasgar. Algumas capas aparentam estar mal coladas. Apenas 3 páginas separam a capa da história em si, e nada separa a última folha de história da capa de trás, então não espere conteúdo extra, sumário e etc pois o livro é somente a história e acabou. Eu esperava ser um pouco mais fiel a versão britânica, mas de igual só tem mesmo a capa, o resto é só mais uma impressão qualquer sem fazer o devido "material Premium". Fiquei decepcionado porque criei muita expectativas, e no final a qualidade é bem baixa mesmo... O único ponto positivo é só as capas que são lindas, mas por dentro é bem pobrezinho. Boa sorte a todos!</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Muito lenta a história sem alguma emoção até o meio do romance, as vezes até dá sono. História sem muita vibração.</t>
+          <t>Que livro chato, gente quase não consegui terminar de ler o livro! Fui realmente insistente. A história não casa, e cansa, parecem outros personagens, não são as mesmas pessoas do inicio do livro. Aí vc pode até defender e falar, mas eles amadureceram, puxa vida que saco, amadureceram e ficaram extremamente sacal. A história se perdeu, deveria ter terminado no terceiro livro e ponto. Fazer livros só para vender é um desrespeito com os leitores, e no caso dessa série foi exatamente isso. Eu li só para terminar, porém pulei mais da metade das páginas. A trama deste livro não é envolvente, não acrescenta nada e pior ficaram muitas pontas soltas. Não recomendo esse último livro.</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Esse é daqueles livros que você tem que se esforçar para chegar no final, não te prende na leitura! Vai e volta muito no mesmo assunto, a melhor parte é quando ele pede para você pular para seu objetivo, o que no meu caso pulou alguns capítulos!</t>
+          <t>Preciso saber se essa compra é do livro físico!!! Pq não quero digital!!! Acho que não entendi a propaganda!!:(( Desculpa msm!!! Fui no impulso!!! Se não for físico quero cancelar a compra!!!</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Preciso saber se essa compra é do livro físico!!! Pq não quero digital!!! Acho que não entendi a propaganda!!:(( Desculpa msm!!! Fui no impulso!!! Se não for físico quero cancelar a compra!!!</t>
+          <t>Possuo a versão impressa do livro "A Guerra dos Tronos" e ontem comprei o e-book em promoção na Amazon pela praticidade de ler o livro no meu tablet. Depois de baixar o livro comparei com a versão impressa e observei que algumas frases são diferentes, outras até com erros de tradução. Pensei: como é possível o mesmo livro, da mesma editora, possuir texto diferente na versão impressa e na versão digital? Então comecei a procurar as versões "gratuitas" na internet e comprovei que esse e-book vendido pela Amazon não passa de uma versão pirata que circula na internet que foi traduzida do e-book original em inglês usando algum tradutor de péssima qualidade. Com a inclusão digital no nível que estamos e a força da opinião das pessoas nas redes sociais, como uma editora tem coragem de comercializar livros digitais usando material de baixa qualidade disponibilizado gratuitamente na internet ao invés de digitalizar o próprio conteúdo, depois de toda a briga que teve no país para permitir a venda desse material pelo absurdo valor da versão impressa?</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Baixei a amostra e não consigo comprar a versão completa porque está indisponível. Entrei em contato com editora e fui informada que o problema está na página da loja amazon e que seria normalizado. Até o presente momento não houve mudança, já tem dois meses que estou aguardando! E aí amazon, quando será normalizado?</t>
+          <t>Não é o primeiro livro da Record que oxida em menos de três meses. E olha que meus livros são bem guardados e conservados. O papel da maioria das edições da Record é desse jeito, fica amarelo em pouco tempo. É triste.</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Muito confuso.</t>
+          <t>Acabei de comprar O Hobbit (versão Kindle) para ler pela primeira vez e queria reler a trilogia do Senhor dos Anéis na sequência. Chegando aqui, me deparo com esse preço absurdo. Livros que foram publicados em 1954 de um escritor que morreu em 1973 vendidos em versão digital pelo preço de um lançamento em capa dura. A intenção é não vender mesmo?</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Não atende a proposta de forma refencial e técnica. Aparenta um conjunto de dicas com menções comuns a grandes nomes. Um sucesso de mmarketing e fracasso literário</t>
+          <t>Nas primeiras páginas já temos o propósito do livro. Depois, pura repetição.</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A superficialidade das "dicas" fogem totalmente da proposta "40 Princípios que o tornarão mais inteligente" do livro. Esperava muito mais, inclusive da escrita.</t>
+          <t>pelo menos desde 2013 reclamam do abusivo preço. nada mudou. jaa ten isenção para e-book como livros impressos e tb, naada muda. que patético</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Sério, escrita pobre, história descabida e completamente machista... Não entendo como existe tanta hype com esse livro até hoje com tantos livros melhores negligenciados.</t>
+          <t>Tradução muito, muito ruim. Conteúdo faltando. Além da história ser fraca, com falhas de roteiro e continuidade. Sentido da história foi perdido.</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>História maluca e que não te leva a nada, uma viagem sem sentido.</t>
+          <t>Não estou conseguindo ver o conteúdo do livro. Como faço pra lê-lo?! Tenho iPhone. Gostaria de ler no celular mesmo!</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Extremamente insatisfeita com a amazon. Meu box veio amassado na lateral e não há opção para troca, apenas devolução e reembolso do valor. Agora está mais caro e vou ficar ou com produto danificado ou sem produto! Tentei entrar em contato pela página no facebook e não auxiliaram, e todas as páginas redirecionam apenas para devolução e reembolso.</t>
+          <t>Esperava mais. O título é muito chamativo, porém, o conteúdo deixa muito a desejar. Na minha humilde opinião, não passa de um diário. Não me agregou em nada.</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Trilogia perfeita!!!!!!!! Recomendo!!!! Melhor livro dos últimos tempos!!!! Uma viagem diante da leitura, no qual não se vê a hora passar.</t>
+          <t>historia meio fraquinha... Você já começa o livro sabendo como vai terminar, e ele não convence q o final realmente é a melhor opção. Mas vale a leitura porque vai sair filme com Emilia Clarke e Sam Clafin 😍</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Neste livro, a autora escreve uma série de versos que não têm lirismo e não pode se chamar de poesia. O livro parece mais a necessidade de fazer “literatura” similar a outras autoras que já publicaram livros similares por uma questão mercantil. Há autoras feministas muito melhores que os versos deste livro medíocre.</t>
+          <t>Esperava um livro com técnicas e  metodologias de aprendizado não uma espécie de alto ajuda em um estilo motivacional. Frustrado.</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Não li, até pq não consegui baixar. Vcs podem ajudar?? Vi que tinha comprado na fatura do cartão de crédito.</t>
+          <t>Há anos que os leitores reclamam da péssima formatação deste livro de Narloch. Por que a Amazon não providencia uma reformatação e a envia para os que já adquiriram o e-book? Incompreensível. Avaliações de dois meses atrás ainda relatam o mesmo problema. E por que os clientes continuam comprando, se têm acesso a essas críticas? Mistérios.</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Terminei de ler o livro sem saber dizer o que me acrescentou. De toda forma, para quem gosta de uma leitura fluida, com temas repetitivos, pode trazer algumas horas de distração.</t>
+          <t>Um bom livro contando bela história.Mas o formato e-book saiu pior do que a encomenda: centenas de palavras aparecem imiscuídas umas às outras no formato digital. Por exemplo, toda palavra em itálico vem grudada à sua precedente ou posterior. Urge nessa edição uma correção desses defeitos.</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Li um terço do livro. Arrastei-me para procurar algo que me prendesse à leitura. Infelizmente achei a obra extremamente nonsense. Por mais que os temas abordados sejam abertamente um protesto ao futuro que poderia se formar, a narrativa não sustentou a minha atenção. Analisando por uma perspectiva contemporânea, muitas pautas expostas não convenceram nem como ficção ou fato. Seja um clássico ou não, é um livro muito cansativo.</t>
+          <t>Não era o livro que eu queria. Na promoção não dizia que era livro de bolso. Já é a segunda vez que isso acontece com uma compra minha aqui.</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>É um daqueles livros de leitura rápida. Achei bacana os pensamentos da personagem mas história em si, esquece. Dá pra passar o tempo, mas não queiram nada muito profundo. Fiquei surpresa como o livro não vai de nada à lugar nenhum. Mas dá pra ler? Dá, distrai bem. Se eu leria de novo? Não.</t>
+          <t>No ato da minha compra na descrição do produto não constava que o mesmo era um Livro de Bolso, muito pelo contrário, as dimensões do produto eram outras. Se eu estivesse no endereço quando o produto foi entregue teria devolvido o mesmo sem pestanejar, infelizmente estava de férias e acabei perdendo o prazo de devolução. Outra observação que tenho a fazer é em relação ao zelo pelos produtos embalados, os funcionários da Amazon pesaram a mão nas minhas últimas entregas, pois praticamente todos os livros contêm leves amassados em suas bordas. Fica aqui a minha indignação com a Amazon.</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Ha tempos não lia um livro de suspense tão ruim! Achei fraco e com varias pontas soltas.A história comeca bem com uma jornalista medíocre que precisa voltar à sua cidade natal para fazer uma reportagens sobre uns crimes que andam acontecendo com criancas. Até ai tudo bem, mas começamos a perceber que a jornalista além de tudo é desequilibrada e se corta. hã? Por isso o nome do livro? Achei muito fraco! Terminei de ler pq li ouros livros da autora e para saber se  meu palpite do assassino estava correto.</t>
+          <t>Muito fraco o conteúdo.</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>O autor escreve sua experiência pessoal do que precisou passar para amadurecer na vida. Em exemplos bem repetitivos, tenta mostrar que a felicidade se encontra em valorizar o que realmente importa na vida e deixar de lado o que não importa! Alguma novidade? Não! Não há nada de novo no discurso, apesar de ter uma linguagem cotidiana e informal para se expressar, o que torna muitos trechos engraçados.</t>
+          <t>Não recebi o livro... Acredito que tenham enviado no endereço errado, gostaria que o mesmo fosse encaminhado para o meu Kindle. Aguardo breve retorno.</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Conforme outros compradores abaixo, optei por esse livro na promoção "Amamossp". Por essa promoção esse livro sairia de graça. Qual não é a surpresa que estão me cobrando equivocadamente o livro digital por R$ 21,00</t>
+          <t>Eu estava querendo reler esse livro, mas ao me deparar com o preço... É brincadeira Amazon???? Mais de R$ 100,00 num e-book???? A obra vale mil estrelas, mas eu dou uma estrela para a Amazon em virtude do preço abusivo.</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Não sei nem por onde começar. Li o original em inglês (ou seja, com certeza a culpa não foi da tradução) e fiz muito esforço pra terminar o livro, quis ler até o final porque não acreditava que um livro tão vendido e elogiado pudesse ser tão ruim. As primeiras 50 páginas são extremamente maçantes. Depois disso, as coisas não melhoram muito. A protagonista poderia facilmente entrar para a lista dos personagens mais irritantes da história da literatura. Ainda que as outras personagens femininas não sejam tão chatas, são igualmente superficiais, instáveis e obsessivas. Os homens não são melhores. Com personagens tão caricatos e um estilo tão pobre (algumas divagações de Megan são especialmente forçadas), talvez algo se salvasse com uma trama interessante, o que não acontece. Há suspense no livro sim (apesar de a identidade do assassino não ter sido grande surpresa), mas o resto é tão ruim que não compensou a minha compra (e muito menos o meu tempo).</t>
+          <t>Se não gosta de livro sobre traição, nem leia esse livro, ele trai a mocinha com metade da cidade, do primeiro dia até o último dia do relacionamento deles, depois que ela descobre, aí diz que mudou e blá blá blá, balela, mocinho fraco, influenciável e nojento, que ódio, perdi meu tempo.</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>O livro é incompleto. Acaba em 11/04/44, sendo que o diário dela foi escrito até 01/08/44. Alguém pode explicar pq não informam que é incompleto?</t>
+          <t>Horrível. Sabe aquele livro que fala, fala é n diz nada, é o caso desse. Cita exemplos q n tem nada a ver com o tema do livro, com detalhes insignificantes, cansativo, cita experiências ridículas com animais...Não era nada do q eu esperava. Me arrependi de comprar.</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Futilidade, inutilidade, desperdício de papel, tempo e dinheiro. Nem de graça queremos um livro como este. Vai perder seu tempo.</t>
+          <t>O livro é uma vergonha. O autor deturpa pesquisas academicas sérias para justificar preconceitos e falsas interpretações. Um horror metodológico e irresponsável. Ignora a historicidade de conceitos e falsifica fontes. Um delinquente intelectual que vem ajudando a formar uma geração de fascistas nas redes sociais e nas ruas.</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Fala tudo que todos já sabem, sem falar que não tem embasamento científico nenhum. Não vale a pena a leitura.</t>
+          <t>Não terminei de ler por que a história não estava me agradando e a linguagem criada para o livro confunde muito. Ao final do livro tem um glossário das palavras, mas é muito trabalhoso ver o significado de cada palavra por que são muitas. Algumas eu conseguia entender, mas a maioria acabou se perdendo, o que tornou a leitura mais cansativa ainda. Não voltaria a reler o que é uma pena, pois Laranja Mecânica é considerada um dos "pais" da distopia, gênero que adoro.</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Não li os comentários antes de começar a ler o livro, pois já li outras história da nana e gostei bastante. Consegui chegar até o meio da história, mas o protagonista não é cativante e é extremamente abusivo, estúpido, grosseiro com a mocinha, a força a um sexo bruto e conta sua vontade, o que caracteriza claramente um estupro. Não se importa nem um pouco em como ela se sente, inclusive a trai sem nem achar que é traição, nada menos do que ele merece. E a avó dele criando um monstro, ridículo criar um ser humano prepotente assim, mas entendo que essa parte seja parte do enredo. Já os estupros romantizados não consegui engolir. A nana errou a mão, o triste é que eu estava interessada mesmo no segundo livro, mas acho que não tenho nem ânimo pra lê-lo</t>
+          <t>Não havia a informação de que é um livro de bolso. Fiquei mto insatisfeita ao tomar conhecimento pela pessoa para quem os livros foram doados!</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>No início achei  interessante, a garota virgem que se apaixona por um  homem mais experiente... Depois foi ficando cansativo, as cenas são petitiivas.</t>
+          <t>Nunca tive problemas com a Amazon, e agora depois de um tempo de efetuar a compra percebi que o livro não esta em bom estado, amassado e com o "plástico" descolando. Uma surpresa nada agradável :(</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Muita enrolação pra um enredo fraquíssimo. Além de muitos jargões e palavras repetidas. Não recomendo.</t>
+          <t>O livro fala o que realmente fazemos e porque fazemos, da boas sugestões para melhorar habitos bons! Gostei do livro vou rele-lo e recomendo</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Fiquei muito curiosa para ler o livro depois de ver a sinopse. No entanto, a história é frustrante, fiquei todo o tempo de leitura esperando acontecer alguma coisa.</t>
+          <t>Não sou de desistir de livro, mas neste não teve como. O livro é muuuito ruim e cansativo. Tem uma passagem em que ele diz que na maioria dos livros, só 20% do conteúdo realmente importa - só acho que o autor realmente tentou aplicar essa teoria no próprio livro, porque MEU DEUS, é muita repetição e chatice em quase 90% do livro mesmo. Detestei.</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>O livro é ultrapassado mesmo como ficção do inicio do século passado. a linguagem é prolixa e como ficção deixa muito a desejar, principalmente comparando-se com o que temos hoje. Estou também decepcionado com a Amazon porque este livro deveria ter sido um brinde (assim foi oferecido) e no entretanto, foi cobrado junto com os outros dois livros comprados. Rubens Almeida</t>
+          <t>Eu que amo ler um bom calhamaço , sinceramente me senti traída diante de tanta expectativa sobre esse livro . Mais parece que o autor queria "encher linguiça" do que dar um bom enredo a estória . Infelizmente essa foi a minha primeira experiencia com o autor , sendo que já tenho outro livrinho dele na estante para ser consumido daqui umas semanas . Espero que essa fatídica primeira impressão passe !</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Tao ruim quanto o primeiro. Fonte não justificada e erros de português . É uma pena pq o livro é  muito bom...</t>
+          <t>Decepcionante. O livro se contradiz totalmente a partir do seu prefácio, quando utiliza a frase “Nem tente” como um marco, e propaga justamente o contrário nas páginas que seguem. Um texto de blog seria mais instrutivo.</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Não consegui chegar a metade!! Texto chato! Não prendeu minha atenção de jeito nenhum. Me enchi da Rachel. Ahei bem maçante.</t>
+          <t>Livro muito cansativo, com uma escrita muito redundante usa muitos exemplos e explora muitos detalhes desnecessários, alem de páginas apenas para referências e apendice, poderia ter 1/3 das paginas para expressar a ideia principal e mesmo assim ainda seria cansativo. Para quem trabalha com marketing e tem paciência é uma boa leitura. Para quem como eu nao faz parte desse publico, NÃO  RECOMENDO!</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>minha avalicao sobre o livro e a seguinte: e bom pra entretenimento e suscitar sua imaginacao. Se julgar o teor de modo ciritco, ha centenas de linhas,de especulacoes, sabemos que  construir uma historia  da inteligencia e complexidade  humana, baseado em  "dados" "recortes" de ciencia, e impossivel. O autor assume  posto de  "observador" , e criar uma narrativa que exclui, dados "incomodos" como a voz do pessimismo , das loucuras, perversoes, desvios,..etc o que banho de agua fria nas "linhas" evolucionistas.</t>
+          <t>O livro nao agrega nada, o que era para ser um desfecho digno do casal queridinho foi uma encheção de lingüiça sem fim! Nao precisa disso...</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>O livro é muito bom. Mas a configuração no formato Kindle ficou péssima, impacta muito na leitura. Não recomendo a compra no formato kindle.</t>
+          <t>Tenho uma edição da Martins Claret cuja tradução, ainda que objeto de polêmica, é nitidamente superior a essa. Não  fosse isso, seriam 5 estrelas .</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Bom quanto a Qualidade dos livros estão em perfeito estado, porém a caixa dos 5 livros veio danificada, com um rasgo como se alguém a tivesse tentado abrir. Como veio dentro de uma caixa de papelão a recepcionista não tinha como observar este defeito.</t>
+          <t>O BOX VEIO RASGADO, Os livros estão em perfeitos estado, são lindos, porém o box esta rasgado. É uma pena que isso aconteça ainda.</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Livro ruim, comparado com seu antecessor! A autora repete muito as palavras e não soube trabalhar as metáforas, jogando elas de uma forma estranha e sem sentido. O primeiro livro é bastante superior! Não recomendo a compra!</t>
+          <t>Não sei nem por onde começar. Li o original em inglês (ou seja, com certeza a culpa não foi da tradução) e fiz muito esforço pra terminar o livro, quis ler até o final porque não acreditava que um livro tão vendido e elogiado pudesse ser tão ruim. As primeiras 50 páginas são extremamente maçantes. Depois disso, as coisas não melhoram muito. A protagonista poderia facilmente entrar para a lista dos personagens mais irritantes da história da literatura. Ainda que as outras personagens femininas não sejam tão chatas, são igualmente superficiais, instáveis e obsessivas. Os homens não são melhores. Com personagens tão caricatos e um estilo tão pobre (algumas divagações de Megan são especialmente forçadas), talvez algo se salvasse com uma trama interessante, o que não acontece. Há suspense no livro sim (apesar de a identidade do assassino não ter sido grande surpresa), mas o resto é tão ruim que não compensou a minha compra (e muito menos o meu tempo).</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Esperava mais do livro. Não diria que é um livro ruim. Talvez, por tudo que li e ouvi deste, criei uma expectativa enorme e me senti um pouco frustada.</t>
+          <t>Atenção, cito partes do livro nessa avaliação. Diria que o livro é semelhante aqueles vídeos de internet, os quais não é possível avançar, enquanto é dito para não parar de assistir, porque vai mostrar uma grande solução para sua vida. O autor vem de uma família rica em um país desenvolvido e conclui que conseguiu crescer na vida ligando o f*da-se. Ele utiliza de filosofias pré-existentes, incluindo orientais como budistas, mastiga e dá a própria interpretação correlacionando com situações como entrevistas de televisão, situações do seu país, na maioria das vezes, experiências da sua vida. O autor faz uso de valores que ao mesmo tempo que afirma não serem regrado, são altamente baseados no "sonho americano" como objetivo. O uso de técnicas de convencimento (sofisma?) está distribuído no livro em formas como falando em regras da vida como se fossem absolutas e em seguida diz que não devem ser usadas sempre, ou chegando a conclusões indiretas que parecem surgir como "premissas" para outras conclusões. Um exemplo é a ideia de que crianças aprendem a andar mesmo caindo várias vezes, levando o autor a concluir que "a aversão a fracassos e erros é adquirida posteriormente na vida". Dessa conclusão ele vai a outras, e assim o livro segue encaixando os pensamentos para explicar porque sua vida deu certo depois de tanto "dar errado" e porque você deve ligar o f*da-se. Acontece que existem interpretações de experimentos de psicologia sugerindo o contrário, que crianças também não gostam de fracassar. Nesse sentido, ao meu ver, o autor chega a conclusões absurdas que o levam a mais conclusões sem sentido, mas que fazem sentido em sua vida americana com suporte familiar, financeiro e de não temer o futuro. Assim segue todo o livro, utilizando de lógica, emoção e conclusões "salvadoras". Talvez ele sirva melhor para a cultura e o mundo dos países desenvolvidos, ou talvez eu que seja incapaz de enxergar esse livro para uma realidade brasileira. A realidade subdesenvolvida é diferente, as história de vida das pessoas são diferentes, a cultura e, seja para usar o livro como visão de mundo ou como mudança de vida, ele lida com uma realidade muito diferente. Ainda assim, apesar do livro tratar de pensamentos de outros como se fossem do próprio autor, ele cita outros pensadores e algumas coisas produtivas para confirmar suas conclusões. Esses são trechos bons do livro. Por exemplo o trecho que fala sobre ação e inspiração é interessante. Enxugando todas as distrações, autobiografia e opiniões baseadas no cotidiano estadounidense, vindo de uma família rica, que teve suas dificuldades superadas "ligando o f*da-se", existe algum conteúdo que pode ser extraído dele. A impressão é que o autor escreveu esse livro pensando nele/pessoas semelhantes como público. Quem se identificar mais com o autor, possivelmente vai se identificar mais com o livro. Tendo então uma cultura semelhante aumentará as chances disso. Enfim, talvez tenha tido uma expectativa alta de mais sendo um best seller e ouvindo recomendação sobre o livro. Porém, para quem interessar, conheço pessoas que são leitores assíduos e gostaram do livro. Então, claro que depende do gosto e, afinal, é um best seller.  Infelizmente, esta foi minha experiência com o livro do "pastor" Mark Manson: "Ligar o foda-se (...) vai nos salvar".</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Desde que Harry Potter foi lançado escuto reclamarem da editora Rocco nos livros, ou porque o papel branco suja muito, ou as letras douradas saíam facilmente, a total inconsistência nas fontes e formatações nos livros, uns livros com sumário, outros sem, etc. Parece que o Pottermore seguiu fielmente a cartilha Rocco de como não publicar um livro, dessa vez na edição digital. Parece que pegaram o primeiro PDF que encontraram na internet e converteram com a ferramenta de e-mail da própria Amazon. A tradução tem pequenas diferenças como o original impresso (os nomes dos fundadores das casas foram mantidos no original em inglês, ao invés das traduções dos nomes que foram publicados, como Godrico Grifinória e Salazar Sonserina), o que não é de todo ruim, mas as várias palavras com erros (e.g. "chamá-la", "tocá-la" e semelhantes por diversas vezes perdem a acentuação e hífen, ficando "chamala" e "tocala"), muitas palavras que obviamente tinham sido hifenizadas num texto impresso aparecem cortadas no texto corrido, além de, em dois livros (Enigma do Príncipe e Câmara Secreta) o texto NÃO vir justificado, mas alinhado à esquerda. Simplesmente inaceitável. Ao comparar com as publicações dos livros do Pottermore em inglês, a situação fica ainda pior. Lá a formatação é absolutamente impecável, o que deveria ter sido feito também aqui. Se não fosse "de graça" com o Unlimited, teria sido realmente um dinheiro muito mal gasto. Felizmente os demais livros que li com o preço da assinatura justificaram o valor do mês.</t>
+          <t>O mínimo que você precisa saber para não ser um idiota é saber que ler esse livro tem grandes chances de tornar você um idiota.</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Livro tendencioso. Democracia não é só quando a esquerda está no poder. Aqui no Brasil a democracia estava em jogo assim como a liberdade da mídia caso o PT tivesse ganhado. PT não é direita.</t>
+          <t>Achei sem graça esse livro. Tópicos de livros ancestrais. O que eu gostei foi as frases de filósofos, isso já ajuda metade do livro para reflexão.</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Me decepcionei pois não veio marcador no livro The kiss of deception e também  o The heart of betrayol e também  não  veio marcador. Os dois primeiros livros chegaram ontem dia 31/08/17 chegaram em perfeito estado porém  sem os marcadores.</t>
+          <t>Não gostei, a capa diz mais do que o conteúdo do livro.</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Quando li a sinopse do livro esperava tratar-se de um romance de verdade, mesmo que com um final infeliz. Na verdade trata-se de uma história de amor de uma só pessoa. No final das contas, a protagonista era uma mulher envolvida com um homem egocêntrico, que amava acima de tudo a ele mesmo e não suportava a ideia de não ser mais o que foi no passado. Enquanto a protagonista fez dele o centro da vida dela e se dispôs a se sacrificar por este homem, ele se recusou a fazer o mesmo. Quando este homem a ajuda é na tentativa de fazer dela um espelho dele mesmo. O final poderia ser mais elaborado, ficou com aquela sensação de que o leitor foi alijado de participar do momento mais tratado durante toda a história. As personagens em geral são chatas e não acrescentam muito. O único mérito desta história é levantar alguns assuntos muito delicados como a eutanásia e o suicídio assistido e as dificuldades reais dos tetraplégicos, realidades que estão muito distantes da grande maioria das pessoas. Conclusão, o livro dá para passar o tempo, mas acrescentou muito pouco.</t>
+          <t>O minimo é não ler esse livro</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A edição veio de cabeça para baixo em relação as páginas, como só consegui começar a lê- lo por agora, não tinha notado o defeito. Até hoje não consegui falar com a editora para que haja a troca por uma edição correta.</t>
+          <t>o livro é bom, mas me confundi bastante, as palavras estranhas, presentes em todo o livro atrapalharam a compreensão de todo o conteúdo.</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Pensa num livro ridículo e chato. Mais alguém,passou por isso? Eu gosto muito da categoria New Adult,especialmente quando os fatos são narrados com elegância.. A propaganda em torno desse livro chamou minha atenção,tanto pela originalidade,tanto pelo romance.Que aliás,duvido muito que isso seja um romance,só se for,daquele tipo bem sombrio e destrutivo..  E infelizmente,tudo o que eu encontrei, foi uma história com potencial,que possuía todos os elementos para ser legal,porem,se perdeu em uma escrita ruim,desenvolvimento pobre e enrolado.Um dramalhão chato,protagonistas igualmente decepcionantes.E a tal elegançia na descrição  dos fatos???Não existe,e nem sei se vulgar seria a palavra adequada. A mocinha,chega a ser irritante,diante tanta choradeira e indecisão.Como uma pessoa consegue suportar tanta humilhação?E ainda por cima continuar apaixonada?Esse tipo de leitura,chega a me causar fobia rsrsr E o tal,reizinho? Um dos piores protagonistas que já li,egoísta,irritante,cheio de soberba e muito mais.Não creio que tenha passado por uma redenção,não existe concerto para esse tipo. Resumindo,ler esse livro foi um péssimo negócio.</t>
+          <t>Não serve nem para fazer uma boa fogueira porque o papel é ruim.</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Partindo do fundamentalismo cristão e de ideias conservadoras, Olavo de Carvalho pinta um mundo repleto de conspirações globais que ameaçam desde os valores morais que ele acredita e prega até suas preferências sexuais. Incutir o medo é uma constante no pensamento completamente enviesado deste senhor que já foi astrólogo, jornalista e se considera um pensador de direita, embora nunca tenha frequentado o meio acadêmico ou ter tido sua obra reconhecida por outros intelectuais.  Uma grande perda de tempo se considerarmos tantas obras de real valor para diminuir o número de idiotas no mundo.</t>
+          <t>Achei muito fraquinho... mas também é Jojo Moyes, não una Elena ferrante. O outro que li dela, a garota que vc deixou pra trás ... esse eu adorei! Foi o único!</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Quando eu li sobre as avaliações dos outros clientes achei que iria encontrar realmente um livro diferente com conteúdo e completo, mas foi totalmente ao contrário o livro é muito resumido e superficial. Não recomendo pra ninguém esse livro, se você realmente quer ler um livro completo sobre os hábitos recomendo "O Poder do Hábito".</t>
+          <t>Intediante, chato, o livro fica por dizer coisas óbivias e por isso acaba por ser irrelevante, então não o recomendo.</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Um dos livros faltam mais de 40 páginas. Ex.: Pula da pág 140 pra pág 193. Como foi um presente e a pessoa só viu quando estava lendo essa parte, perdemos o prazo de devolução.</t>
+          <t>O livro mostra somente os atos praticados pela Alemanha. O autor esquece de citar os atos praticados por Stálin, mostra uma Polônia como a paladina da bondade, não mencionando sobre o tratado de Versalhes e a sistemática expansão de território da Polônia em território Alemão.</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Escrita pobre (e tradução ruim), com personagens e diálogos superficiais. O cenário histórico, ao menos, é interessante. Muito inferior ao Pilares da Terra.</t>
+          <t>chamar isso de filosofia é brincar com a nossa inteligencia</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Francamente, é uma falta de respeito sem igual com o consumidor brasileiro. Não estou falando da Amazon, embora meu box tenha vindo com sua extremidade com um baita amassado, o que poderia ter sido evitado se embalassem com mais cuidado. Mas minha crítica é para a HarperCollins. Aparentemente essa editora não tem o menor senso do que significa controle de qualidade. O box é frágil, fácil de ceder ao peso dos livros. O primeiro volume do meu veio com o fôrro da capa mal colado, o que significa que ele ficou com umas ondulações horríveis. O volume dois veio ainda pior, pois tem PÁGINAS FALTANDO. ISSO MESMO, UM LIVRO COM PAGINAS EM BRANCO ONDE DEVERIA HAVER A CONTINUIDADE DA ESTÓRIA. Somente o volume 3 e 4 se salvaram isso porque não fiz uma inspeção mais minuciosa. Poderia falar também de páginas amaçadas e falhas na questão gráfica, mas não quero estender mais esse comentário. Moral da história, estou devolvendo meu box pra Amazon, pegarei meu dinheiro de volta e com ele talvez eu compre as versões em capa dura de bolso da Zahar, que além de ter uma qualidade impecável e um trabalho gráfico e tradução primorosos ainda me dá o gostinho de apreciar ilustrações originais da época e por um preço mais do que justo pelo que é oferecido.</t>
+          <t>Na orelha do livro, afirma que é melhor que os Cinquentas Tons de Cinza, se fosse, eu diria. mas o que se vê é uma imitação caricata dos Cinquentas, a autora nem escondeu isso. Uma leitura cansativa, principalmente pela personagem ser muito imatura e desagradável, apesar dos 40 anos. Nada, absolutamente nada comparada a maturidade da Anastasia que tem apenas 21 anos. Repassei o livro para ouvir a opinião de outra pessoa e, infelizmente, foi a mesma. Devolvi o livro para o Sebo. Eu não gostei e não recomendo, esta é a minha opinião.</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Livro apenas comenta sobre o que é leitura rápida. Realmente decepcionante. Gostaria de obter meu dinheiro de volta. Não comprem!</t>
+          <t>Apesar de ler várias avaliações positivas aqui, eu não gostei do livro, infelizmente após pesquisar sobre a vida do autor(o que devia ter feito antes)  vi que ele não passa de um "charlatão". Me chamou atenção pelo nome do livro mas não achei o conteúdo bom e sinceramente eu não gosto de ler autores que passam uma imagem mas vivem outra coisa. Me arrependi da compra e irei efetuar a troca. Quanto a Amazon foram ótimos! Indico o Milagre da manhã diário pra quem busca um novo estilo de vida.</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Ótimo livro, porém veio bem danificado. Páginas dobradas e disformes além da capa amassada. Péssima editora, deixa a desejar na qualidade dos livros.</t>
+          <t>O meu produto veio com defeito: a capa está descolada, e algumas páginas estão grudadas. Vi apenas hoje porque entreguei de presente para minha irmã, ela abriu e me mostrou.</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Achei que o livro deu mais ênfase ao sexo do que realmente ao romance. Maiana foi uma personagem que não usa sua aparência para conseguir o que deseja, é forte e sua paciência de aturar sua mãe e irma que só a desprezam já ganhou pontos comigo. Arthur é um homem cheio de si que se acha o dono do mundo, mimado e arrogante, alem de não acredita no amor e só usa as mulheres para seu bel prazer, tratando-as como objetos . So cheguei a ler o livro  A Redenção de um Cafajeste porque me apaixonei pelo personagem do Mahteus em Redenção e Submissão, esse livro sim me encantou, pensei que seria o mesmo com o primeiro mais me enganei.</t>
+          <t>É  um livro só de exemplos, os exemplos são repetitivos, leitura pesada, entediante. É muito marketing para os americanos. Autor fez a junção de pesquisas somente .</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Minha avaliação negativa não vai para a obra de Tolkien e sim para a qualidade do livro,nas avaliações de clientes alguém afirma que o livro tem folhas amareladas e se baseando nessa informação que eu até então achava confiável comprei o livro sem nem pensar duas vezes,para minha surpresa hoje recebi o livro com folhas brancas! de péssima qualidade quase transparentes agora imagine alguém míope lendo um livro com folhas brancas e uma fonte pequena eu tenho a sensação de estar lendo uma bula de remédio ,no entanto quando contatei a amazon sobre o meu problema eles foram muito atenciosos e prestativos me deram toda uma assistência e indicaram meios de resolver meu caso,infelizmente nenhuma das soluções me pareceu totalmente adequada e me geraria mais transtornos e perda de um tempo que eu não tenho mas o atendimento que recebi da amazon foi extremamente respeitoso,eu sugiro que a amazon coloque essa informação sobre a qualidade,cor das paginas e etc (que pelo menos pra mim é crucial na hora de comprar um livro) na descrição dos recursos dos livros físicos ou que implemente uma opção de perguntar directamente a ela esses e outros detalhes antes de realizar a compra.</t>
+          <t>A personagem principal parece sofrer de uma espécie de mania de cuidar do outro e não olhar para si, personagens como os pais do falecido suicida mudam repentinamente de personalidade, muito irreal</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>As dicas são boas, mas nada de novo, na verdade, são bem óbvias. Acredito que a maior parte das pessoas já as conhecem. No meu ponto de vista é um livro fraco, comprei mesmo pelo título.</t>
+          <t>Muito ruim, paginas extremamente finas, quase transparentes, letra miúda (parece mais uma bíblia). Apesar de bem barato, o produto final decepciona!</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Não gostei... apenas alguns conceitos são validos. O livro de Produtividade do David Allen muito melhor, pois apresenta como fazer em etapas com exemplos.</t>
+          <t>Sou fã da série Harry Potter. Tenho a coleção e já  mas este último livro... francamente, é péssimo. Acredito que a escritora é do tipo "escritora de um livro só".</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Veio amassado nas pontas</t>
+          <t>Meu ponto de vista sobre o ultimo livro, fiquei bem decepcionada os outros livros eram mais rico em conteúdo, você se envolvia na historia, ficou muitas lacunas abertas oque aconteceu com a mae de Gideon , o livro de Corinne foi publicado?, oque aconteceu com Anne?, sem falar que o as coisas estavam bem menos apimentada. Enfim ficou tantas lacunas abertas que dava pra escrever outro livro.</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>autor confunde tecnicas de coaching com religiao pregando para influenciar os desesperados por ajuda, a ponto de reproduziir textos religiosos conhecidos dizendo q foi ele q escreveu. uma verdadeira mentira. uma pena as pessoas se permitirem essa lavagem cerebral.</t>
+          <t>Li um terço do livro. Arrastei-me para procurar algo que me prendesse à leitura. Infelizmente achei a obra extremamente nonsense. Por mais que os temas abordados sejam abertamente um protesto ao futuro que poderia se formar, a narrativa não sustentou a minha atenção. Analisando por uma perspectiva contemporânea, muitas pautas expostas não convenceram nem como ficção ou fato. Seja um clássico ou não, é um livro muito cansativo.</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Se soubesse não teria comprado. É bom pra aprender. O cara foi editor da revista Superinteressante! A revistinha mais cientificamente sensacionalista q existe. E ainda escreveu na Veja. Vi historiadores brasileiros, respeitados, descendo a lenha nesse livro. Amazon coloca na prateleira de Ficção Científica.</t>
+          <t>Péssimo</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Não gosto de ler livros divulgados por famosos sem histórico de leitura. Não gosto de literatura que cai no gosto das massas, principalmente da literatura que segue uma tendência de um grupo específico e que traz a reboque uma malta que jamais abriu as páginas de literatura de verdade. E este livro ruim e panfletário de Atwood não foge a regra. Atwood cria uma situação que nunca aconteceu, mas tenta divulgá-la como algo que já existe. De todas as distopias literárias famosas, as sociedades totalitárias foram criadas justamente por pessoas que pensavam como as feministas radicais de hoje, ou seja, pessoas que entendem que suas interpretações da realidade são irrefutáveis. Já li uma entrevista da autora e ela diz não pensar assim, ela entende que nem tudo que as feministas pensam seja correto. No entanto, o movimento feminista do século xxi utiliza a obra fraca de Atwood para atacar seu inimigos invisíveis. Ataque que é facilitado pela facilidade de manipular uma meninada sem cultura livresca e que está sempre disposta a seguir movimentos populares.</t>
+          <t>Versão digital está desorganizada. Eu estava lendo o livro a mais de 4 horas empolgado quando muitas coisas pararam de fazer sentido. Então vi que o capítulo 11 estava antes do capítulo 10, perdi até a graça de ler.</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Não consegui enxergar os personagens, as atitudes não condizem com o que passamos a apreciar e reconhecer nos 7 livros originais da série</t>
+          <t>... Mas a configuração das páginas é PÉSSIMA. Prejudica muito a leitura. Uma pena que tenha havido um descaso tão grande na hora de configurar esse livro para o kindle.</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Na época que estourou eu paguei 105 na edição especial, por que motivo pagaria 99 em uma edição ebook sem cor e desenho algum? Preço abusivo, espero que ninguém o compre!</t>
+          <t>Quatro páginas coladas mal cortadas, e sobre saindo o livro, e com orelha, FLOP. Justo o que queria mais ler, triste.</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Este livro foi doado em uma promoção da Amazon brasileira que doava um livro se respondesse a um questionário. A minha surpresa é que cobraram e bem caro pelo serviço. Nunca mais compro nada na Amazon brasileira. Não é confiável</t>
+          <t>decepção logo quando começou a sitar kal Maxi perdi a vontade de continuar a leitura. o marxismo  e responsável pelas maiores tragédias humanitárias desde o seculo XIX. Em resumo eu quero Menos Max, mais Misse.</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Quer bancar o diferente e só consegue ser preconceituoso. Oportunidade perdida de abordar de um jeito diferente a nossa história.</t>
+          <t>O livro é ótimo, oque estou indignado é que paguei $49,41 no kindler, e o livro normal na Saraiva,Americana, e Submarino custa $39,90. Assim é desanimador comprar !!!  Grato</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>O ÓDIO É UMA VONTADE : Vontade de ajudar prender apenas um bandido e deixar outros soltos , vontade de  ser acadêmico e escrever livros para iludidos sem mesmo frequentar uma FACULDADE ou UNIVERSIDADE , pois é fácil a arte de  iludir.</t>
+          <t>Gostei do acabamento do livro, porém podia ser em paginas amareladas, o livro tem uma gama de palavras em outra língua, e o glossário fica na parte de trás, logo fica uma leitura não muito dinâmica</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>livro com linguagem muito rebuscada, o que complica um pouco o entendimento. Fala basicamente de física. Esperava mais, me decepcionou um pouco</t>
+          <t>Para quem gosta de poemas simples, esse é o livro ideal! A autora nos faz refletir sobre alguns elementos comuns na vida das mulheres de um jeito bem leve</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Eu fiquei muito decepcionada com a autora esperava mais do livro, ela acabou com a história de Gideon e Eva nesse último volume, esperava um desfecho melhor, sabe aquele final feliz eles deixam seus medos e traumas pra trás, vão pra lua de mel, esperava os filhos nem isso teve, muito triste perdi meu tempo lendo todo seu!!</t>
+          <t>O livro é excelente no primeiro terço, porém, a partir desde ponto vai ficando cansativo. Creio que a parte evolutiva é bastante interessante, ao passo que a análise do hominídeo em sociedade é desnecessária.</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Comprei este livro para minha amiga, ela o escolheu. Só que comprei errado na minha conta. Fui lê-lo, já que o avia baixado no meu Kindle. Mas a história é muito ruim, como a protagonista se deixa vender. Que baixa auto estima. Que homem mais arrogante este Heitor. Que história absurda, para os dias de hoje e que "heroína"  sem amor próprio, submissa. Nem um pouco inteligente.</t>
+          <t>Estilo cansativo, pesquisas mal feitas, ele já não escreve bem mesmo mas se superou.Não consegui terminar o livro e se vc. é um leitor medianamente exigente também não vai conseguir.</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Incrível e misterioso, logo, logo vou ler o segundo volume. É um livro muito bom , aqui em casa tem gente na fila querendo ler. Mas eu fui a primeira.</t>
+          <t>Extremamente superficial o livro é carregado de sofismas e platitudes. Análises descontextualizadas em uma linguagem pobre beirando a desonestidade intelectual.</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Pessoal, vocês poderiam ajustar a fonte para justificada? Após a alteração aumento as estrelas! (Nada contra a série, acho a excelente a história)</t>
+          <t>Desde que Harry Potter foi lançado escuto reclamarem da editora Rocco nos livros, ou porque o papel branco suja muito, ou as letras douradas saíam facilmente, a total inconsistência nas fontes e formatações nos livros, uns livros com sumário, outros sem, etc. Parece que o Pottermore seguiu fielmente a cartilha Rocco de como não publicar um livro, dessa vez na edição digital. Parece que pegaram o primeiro PDF que encontraram na internet e converteram com a ferramenta de e-mail da própria Amazon. A tradução tem pequenas diferenças como o original impresso (os nomes dos fundadores das casas foram mantidos no original em inglês, ao invés das traduções dos nomes que foram publicados, como Godrico Grifinória e Salazar Sonserina), o que não é de todo ruim, mas as várias palavras com erros (e.g. "chamá-la", "tocá-la" e semelhantes por diversas vezes perdem a acentuação e hífen, ficando "chamala" e "tocala"), muitas palavras que obviamente tinham sido hifenizadas num texto impresso aparecem cortadas no texto corrido, além de, em dois livros (Enigma do Príncipe e Câmara Secreta) o texto NÃO vir justificado, mas alinhado à esquerda. Simplesmente inaceitável. Ao comparar com as publicações dos livros do Pottermore em inglês, a situação fica ainda pior. Lá a formatação é absolutamente impecável, o que deveria ter sido feito também aqui. Se não fosse "de graça" com o Unlimited, teria sido realmente um dinheiro muito mal gasto. Felizmente os demais livros que li com o preço da assinatura justificaram o valor do mês.</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Felipe neto xingou todos os Youtubers que fizeram livros "sem conteúdo" mas hoje capitaliza num livro que mais se assemelha aos gibis da turma da Mônica! Maurício de Souza que me perdoe!</t>
+          <t>Não recebi o livro . Não sei o motivo. Foi feito tudo como orientado. Estou com muito receio de realizar nova compra</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Minha experiência com ebook foi frustrante... no Kindle o livro não tem cor agradável, o que desestimula a leitura. Parece uma xerox.</t>
+          <t>Não sei como as pessoas conseguiram gostar de um livro sem graça como esse... Me desculpe quem gostou, mas achei sem graça pra caramba!</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Esperei mais desse livro não a hora de ver o final dessa história que me fascinou a autora conseguiu desrtruir o seu próprio trabalho que decepção .</t>
+          <t>O conteúdo do livro é excepcionalmente excelente. Entretanto, ao receber o livro vi que o mesmo está com a capa querendo deteriorar, além de alguns amassos na capa. Solicitei a compra de um livro novo, mas nestas condições ficou duvidosa.</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Sucumbi às inúmeras indicações deste livro e não poderia estar mais arrependida. Gente, que livro ruim! Impossível defender um parágrafo sequer dessa estória. O enredo é tosco demais, a narrativa é lenta de dar sono e o romance entre Tanlim e Feyre convence tão pouco que nem precisava estar ali. Não acreditem nas resenhas que dizem: “o começo é lento mesmo, mas da metade pra frente fica sensacional”. Ele é irritantemente ruim da primeira à última página!</t>
+          <t>Voltado especificamente aos USA. Um tanto repetitivo para nós brasileiros.</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Esse preço não existe, não tem o menor cabimento. É melhor assistir novela mesmo. Qual a desculpa da editora, pra vender o livro por esse preço?</t>
+          <t>Paguei para embrulho de presente, e veio sem embrulho, é uma micharia mas vocês não cumpriram com acordo</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Se pudesse dar menos que uma estrela eu daria. Sério, o que foi isso? Eu já não era muito fã da série, mas uma vez que li o primeiro livro me obriguei a ler os outros. Poderia ter parado no terceiro, quiçá no segundo. Escrever algo que não diz nada com nada, cheio de pontas soltas é um desrespeito com o leitor. O dinheiro que gastei com um livro sem graça e frustrante eu compraria 3 nacionais da melhor qualidade. Por isso mesmo estou devolvendo e não recomendo.</t>
+          <t>Mais uma coletânea de artigos de jornal escritos por um autor que tem pretensões tremendas de ser um filósofo, mas que notoriamente comete erros espantosos, generalizações primárias e distorções absurdas. Os preguiçosos mentais têm em Olavo um grande mestre, pois com difamações em cursos on line ele os desencoraja de ler os autores progressistas que contradizem suas ideias imanentistas, gerando um pensamento único requentado do macartismo da Guerra-Fria.</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>O começo do livro é bastante interessante, qundo tudo finalmente parece fazer sengido e muits das perguntas dos eitores são respondidas. Mas o encanto pela trilogia acabou depois de ler o início de Convergente. Me decepcionou muito! A história merecia um livro final menos monótono.</t>
+          <t>Achei bem fraco e muito religioso para o tema ao qual se propõe...  Desanima a leitura</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A história fica num vai e vem irritante. Mas é uma fórmula. Muitos gostam disso; a mim não agrada muito. No meu caso, não empolgou.</t>
+          <t>Eu estava disposto a comprar este livro, mas sem um posicionamento oficial da Amazon quanto às denúncias indicando que este e-book é uma versão "pirata", que sequer foi traduzida pelo Jorge Candeias, não se pode fazer nada. Não estou disposto a jogar meu dinheiro fora em um material de baixa qualidade. Me decepciona a possibilidade de isto estar acontecendo na loja da Amazon aqui no Brasil. Está parecendo descuido, descaso, falta de seriedade com os consumidores brasileiros.</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Produto AINDA não entregue dentro do prazo, total descontentamento</t>
+          <t>Aversão para ler no Kindle está mais cara? Eu investi nesse aparelho, achando que os livros digitais sairiam mais em conta. Por isso que o brasileiro lê muito pouco. Quando consegue usar parte do dinheiro que ganha, no intuito de adquirir um pouco mais de conhecimento, acaba tendo esse tipo de decepção. Mas respondam-me: o que justifica esse preço? Tá saindo mais caro que o papel, os pixels na tela? ATUALIZAÇÃO Ontem, dia 26 de setembro, o preço desse livro estava quase R$ 37,00. Hoje, dia 27, depois do meu comentário acima, está R$ 34,7, o mesmo preço da versão impressa. Continua injustificado esse valor. Espero por uma resposta, porque isso é sério e cabe uma denuncia. Obrigado.</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Tão emocionante quanto o primeiro volume. Dando continuidade aos acontecimentos mundiais através das famílias que já conhecemos com os mais jovens agora, adultos</t>
+          <t>Se desse pra devolver eu devolvia, nao é por eu nao pensar igual ao autor, mas achei uma coletanea muito cansativa e repetitiva. Vai ser um tijolo abandonado aqui em casa.</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A estoria de amor entre duas pessoas psicologicamente pertubadas e sexualmente descompensadas. O unico ponto positivo e que eles conseguem fazer sexo sem a dependencia de brinquedos esquisitos. Porem, o excesso de disposicao dos personagens chega a irritar, sem contar na inseguranca da protagonista. Nao recomendo.</t>
+          <t>Não li, até pq não consegui baixar. Vcs podem ajudar?? Vi que tinha comprado na fatura do cartão de crédito.</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>o texto inteirinho são só e-mails, talvez agrade pessoas jovens. A leitura é cansativa, extremamente superficial. O preço é alto e não vale a pena.</t>
+          <t>O livro tem um tamanho entre o tamanho padrão e um livro de bolso. Não há esta informação no site. Não achei correto, gosto de livros tamanho padrão devido ao tamanho da letra.</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Livro com uma história rasa e previsível. E embora seja um livro com uma leitura que flui bem, não é bem escrito.</t>
+          <t>fui ler achando que tinha criticas profundas e que era realmente um intelectual, mas parece uma criança birrenta que só sabe criar teoria da conspiração e xingar e falar sem profundidade sobre temas, indico pra quem adora senso comum.</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Primeira vez que uso esta página e a decepção tá sendo total. Duplicaram meu pedido 😤 e tentei cancelar um deles e adivinhem só? Impossível! Ainda que eles afirmam que temos a possibilidade de remover intens ou cancelar o pedido inteiro, essa opção não existe. Ahhh! e o número de atenção ao cliente oferecido na página da amazon? Simplesmente não existe. Decepção total! Primeira e última vez que uso esta página pra comprar. Não recomendo pra ninguém!</t>
+          <t>Foi meu primeiro contato literário com o autor e achei o livro bastante superficial. Não acrescentou muita informação nova.</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Pelo amor de Deus!!!! que preço é este......só mesmo no Brasil; e é porque livro ainda é imune de impostos.....</t>
+          <t>O livro é excelente! No entanto, a tradução tem vários erros bem grosseiros, que prejudicam bastante a leitura.</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Um título impactante, mas o conteúdo nem tanto. O autor chegar a ser bem redundante em vários capítulos, com temas evasivos e, pouca coerência, ou seja, corrobora o que outros escritores já disseram. Enfim, não gostei da forma de abordagem do autor, por vezes o achei infantil.</t>
+          <t>Princípios verdadeiros, mas discutidos de forma superficial e um tanto sensacionalista. O autor cita a si mesmo em todo o livro. Subjacente tem uma conotação religiosa, parecendo antes proselitismo e pregação moral.</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>O autor se descreve como o deus do coaching, fazendo referências as suas horas de trabalho e ao seu programa o tempo todo. Faz propaganda do seu programa de coaching mais do que deveria. Não é um livro que o prenda a sua atenção. Muito simples, não de uma boa maneira.</t>
+          <t>minha avalicao sobre o livro e a seguinte: e bom pra entretenimento e suscitar sua imaginacao. Se julgar o teor de modo ciritco, ha centenas de linhas,de especulacoes, sabemos que  construir uma historia  da inteligencia e complexidade  humana, baseado em  "dados" "recortes" de ciencia, e impossivel. O autor assume  posto de  "observador" , e criar uma narrativa que exclui, dados "incomodos" como a voz do pessimismo , das loucuras, perversoes, desvios,..etc o que banho de agua fria nas "linhas" evolucionistas.</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>O livro oferece ferramentas para melhorias na qualidade de  vida das pessoas. São várias as reflexões, porém como livro de autojuda, não muda muito a forma de abordar o assunto.</t>
+          <t>Este livro resume o Felipe Neto: contradição. Depois que perdeu o posto de maior youtuber do Brasil, este rapaz apela para qualquer coisa - desde consiga likes e inscritos no seu canal. Cadê aquele rapaz que tinha e expressava sua opinião? Hoje tá pintando cabelo por like. Obviamente, um livro desnecessário, pois a trajetória dele pode ser vista de graça, basta acessar o canal que o deixou famoso e assistir aos vídeos de críticas às modinhas teens. Estas que hoje ele próprio faz parte. Vale ressaltar que a trajetória em questão deve ser bm curta, pois o livro tem 64 páginas, conforme detalhado neste site; e aposto que utilizaram uma fonte enorme para dar mais volume à obra. A editora do livro errou feio por não ter lançado o livro com capa alternativa, com várias cores de cabelo. Assim, eles aumentariam as vendas, que é o que eles realmente querem lançando esse tipo de material.</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Sinceramente esta história não me cativou. Achei um pouco arrastada e sem graça.</t>
+          <t>Muita gente que comprou esse box reclamou que chegou com algum defeito. Achei que o meu viria em perfeito estado, mas não veio. É bem provável que estava na promoção somente os estragados. Nunca mais compro na Amazon.</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Paguei para embrulho de presente, e veio sem embrulho, é uma micharia mas vocês não cumpriram com acordo</t>
+          <t>Não tenho muito o que dizer, porque simplesmente não gostei. Achei um livro muito ruim, chato,  maçante, monótono e cansativo.</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Pessoal, eu nunca fiz avaliação de livro nenhum, mas esse mereceu. Eu pensei que o livro fosse muito bom por causa do tanto de avaliações boas que ele teve, mas o autor enrola demais. Ele fica mais que a metade do livro falando da vida dele e dizendo que O Milagre do Amanhã é a resposta, que O Milagre do amanhã é a solução, que ele sabe o que pode ser bom para você e que isso revolucionou a vida dele. Ele fica nisso e continua nisso por um longo tempo, parece aquelas propagandas chatas de televisão.  Ele enrola tanto que no final das contas a pessoa fica cansada demais de todos os métodos que ele tenta mostrar. Ah e ele corta toda hora o raciocínio falando que você deve entrar no site para pegar as complementações das ideias que ele apresenta.  É mais fácil ver uma resenha do livro do que comprar.</t>
+          <t>Veio amassado nas pontas</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Esse livro veio com o mesmo problema que o outro, umas páginas com manchas de tinta. Nada gritante, mas incômodo. A capa dele veio numa tonalidade mais clara que as outras. Não tenho certeza se foi erro de impressão ou se as edições novas estão vindo assim mesmo. Esse livro foi decisivo para que eu não compre mais livros às cegas em lojas digitais.</t>
+          <t>Quanto à forma, a editora produziu uma obra bem acabada; entretanto, a matéria do livro de Carnegie é uma palhaçada, não vale 5 reais: autoajuda mascarada - se quer saber como se relacionar, estude Etica (moral Kantiana), não uma autoajuda massa de manobra carente de qualquer fundamento racional.</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Por se tratar do autor de Caixa de Pássaros, eu imaginava uma estória muito mais interessante que mtos elogiam o autor pelo seu primeiro sucesso, porém não é isso que encontramos em Uma Casa No Fundo de Um Lago, é um estória sem enredo, sem cenário, sem uma trama, um livro que não prende, não assusta, não há nem um pouco de detalhe, não causa nenhum sentimento. Único sentimento que eu tive era de desperdício por perder meu tempo e meu dinheiro com um livro desse. Infelizmente eu apostei alguma esperança nele o que me fez seguir até o fim com muito esforço, porque não aguentava mais vê-lo na minha frente.</t>
+          <t>Francamente, é uma falta de respeito sem igual com o consumidor brasileiro. Não estou falando da Amazon, embora meu box tenha vindo com sua extremidade com um baita amassado, o que poderia ter sido evitado se embalassem com mais cuidado. Mas minha crítica é para a HarperCollins. Aparentemente essa editora não tem o menor senso do que significa controle de qualidade. O box é frágil, fácil de ceder ao peso dos livros. O primeiro volume do meu veio com o fôrro da capa mal colado, o que significa que ele ficou com umas ondulações horríveis. O volume dois veio ainda pior, pois tem PÁGINAS FALTANDO. ISSO MESMO, UM LIVRO COM PAGINAS EM BRANCO ONDE DEVERIA HAVER A CONTINUIDADE DA ESTÓRIA. Somente o volume 3 e 4 se salvaram isso porque não fiz uma inspeção mais minuciosa. Poderia falar também de páginas amaçadas e falhas na questão gráfica, mas não quero estender mais esse comentário. Moral da história, estou devolvendo meu box pra Amazon, pegarei meu dinheiro de volta e com ele talvez eu compre as versões em capa dura de bolso da Zahar, que além de ter uma qualidade impecável e um trabalho gráfico e tradução primorosos ainda me dá o gostinho de apreciar ilustrações originais da época e por um preço mais do que justo pelo que é oferecido.</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Eu entendi a proposta do livro. Creio que pode ser tocante para algumas pessoas, mas eu tive certo receio em me abrir para esse toque. Talvez não seja o momento. Talvez a beleza do livro esteja em contemplar a partir de uma certa ótica, e eu não achei esse ângulo certo. Ainda.</t>
+          <t>Pessoal, eu nunca fiz avaliação de livro nenhum, mas esse mereceu. Eu pensei que o livro fosse muito bom por causa do tanto de avaliações boas que ele teve, mas o autor enrola demais. Ele fica mais que a metade do livro falando da vida dele e dizendo que O Milagre do Amanhã é a resposta, que O Milagre do amanhã é a solução, que ele sabe o que pode ser bom para você e que isso revolucionou a vida dele. Ele fica nisso e continua nisso por um longo tempo, parece aquelas propagandas chatas de televisão.  Ele enrola tanto que no final das contas a pessoa fica cansada demais de todos os métodos que ele tenta mostrar. Ah e ele corta toda hora o raciocínio falando que você deve entrar no site para pegar as complementações das ideias que ele apresenta.  É mais fácil ver uma resenha do livro do que comprar.</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Estava tentando há dias continuar lendo sem que ficasse com um sono incontrolável. Não entendi muito no começo. Quando aparecem cenas dela tendo relações sexuais com um homem parei de ler, excluí e comprei outro livro. Não sei qual o perfil de pessoas que gostaria de ler esse livro.</t>
+          <t>Meu box veio com a lateral descolando, apresentando bolhas de ar por conta do descolamento. Mas fora isso o box é lindo!</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>meu box chegou com alguma bolhas nas capas de alguns livros, e a orelha de um dos livros, está bem surrada.</t>
+          <t>É exatamente a mesma história de Garota Exemplar. Não empolga muito, ainda mais se for lido em sequência. Não consegui nem terminar.</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Esperava mais do livro... Achei que o livro tinha tudo para engrenar numa história de aventura e amor mais emocionante. Dei 2 estrelas porque em alguns pontos, o livro nos faz refletir e tentar entender um pouco sobre as pessoas que tem TOC, como elas pensam, o que elas passam, porém a história se perdeu e não gostei do desenrolar.</t>
+          <t>O livro é apenas uma motivação, muito superficial. Quem quer melhorar a velocidade de leitura vai precisar escolher outro livro, esse não servirá.</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Tendencioso, pensamentos de extrema-direita, classifica todas as minorias como vitimismos e coloca toda culpa no PTismo/lulismo/comunismo... grande ignorância ler esse autor e perigoso à aqueles brasileiros que já flertar com tais preconceitos, irão os ter reafirmados.</t>
+          <t>Produto AINDA não entregue dentro do prazo, total descontentamento</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Com a popularização dos e-book houve uma falsa ideia de baratear o preço das obras digitais, visto que, a grande maioria dos livros a venda aqui encontram-se mais caros do que sua versão em papel. Ledo engano em pensar que eu substituiria meus livros tradicionais por e-book, continuarei comprando meus livros e usufruindo os e-book de até 12 reais, que julgo um preço justo.</t>
+          <t>Bom não digo que é a pior história do mundo, longe de mim fazer tal julgamento. Mas não gostei das personagens, da história, no começo me prendi ao livro e fui devorando-o, mas era uma leitura cansativa e chata, e as cenas finais são mal elaboradas, somos levados a um clímax muito sem graça.</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Uma leitura muito arrastada, muitas vezes tive a sensação de já ter lido a mesma coisa no livro outras vezes. Recomendo só pra quem gosta da premissa mesmo, de fato.</t>
+          <t>Não consigo baixar livro para ler.Não consigo adicionar o livro a minha biblioteca. Já tentei de várias maneiras e não consegui fazer.</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Não consigo ler .... Está muito confuso este site. Não consigo contato com ninguém para ajuda. Complicado o Amazon. Espero conseguir ler ou o estorno.</t>
+          <t>Achei esse livro um pouco marqueteiro demais... Esperava bem mais dele</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Não consegui terminar a leitura. Achei superficial e infantil. Nem a abordagem sobre o TOC conseguiu prender a atenção. Não recomendo.</t>
+          <t>Os o que se sabem idiotas devem ter se sentido atraídos pelo  título: "Tudo o que vc precisa saber para não ser um idiota." Eu, de fato, não me senti atraída. Estudei muito ao longo da vida para realmente não ser uma idiota, e não temo esse tipo de coisa. Imbecis coletivos são esses que nunca se ocuparam da história ou do pensamento social acerca do seu país e acham que poderiam se livrar da sua ignorância lendo um Idiota oportunista, tal como é o homem a quem entregaram as rédeas de sua nação.  Lamentáveis a imbecilidade e a manipulação midiática, que sofre boa parte da sociedade brasileira. Tentam falar sobre marxismo, ideologia, utopia e cultura sem terem noção do conceito aberto por cada uma dessas expressões. Conselho: Estudem! E não se fiem em escritos fáceis e engraçadinhos de jornalistas e astrólogos oportunistas. Filósofo? Vcs ainda não sabem o que é isso. Estudem de verdade para saber! E não desprezem a escola ou a universidade, como faz o "mito" e seus idiotas.</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Estou abismada que existem já avaliações negativas a mais de um ano em relação ao preço deste ebook e mais abismada ainda dele não ter baixado o preço. Adquiri recentemente o meu kindle e estou muito feliz com ele e fiquei entusiasmada de adquirir O Senhor dos Anéis no formato ebook, mas quando me deparei com este preço desisti na hora. Apenas queria saber que lógica há em vender este livro no formato digital neste preço estratosférico? Bom, será que alguém esta pagando por isto? Francamente.</t>
+          <t>Não consigo ler .... Está muito confuso este site. Não consigo contato com ninguém para ajuda. Complicado o Amazon. Espero conseguir ler ou o estorno.</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Não gostei do livro, é quase um pastor falando. Tinha muitas expectativas sobre ele, pois pensei que fosse semelhante ao livro O Poder do Hábito.</t>
+          <t>Baixei uma amostra e achei interessante , e devo admirar como escritor teve coragem e falta de consideração com o leitor ao apresentar um serviço tão porco de formatação. Sabem qdo comprarei o livro todo? Nunca</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A proposta do livro é legal, a ideia num geral é legal, mas não é bem desenvolvido e se perde nas ideias apresentadas, foge de sequências de pensamento... Não prende a atenção do leitor, porque é tudo muito previsível... Não recomendo, por mais que tenham pessoas dizendo que o livro é bom, confiei nessas avaliações para comprar a minha cópia, mas não gostei.</t>
+          <t>Talvez a tradução antiga tivesse um pouco mais de charme e musicalidade, o que conferia uma certa elegância ao livro. Sinto que isso infelizmente não foi mantido nessa edição do eBook.</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Ao contrário do primeiro livro (Homo Sapiens), que é excelente, Homo Deus é uma porcaria. Começa com muita repetição do primeiro, em seguida diz o que acha que vai acontecer no futuro e inicia looooongas exposições e argumentações para provar que está certo. O autor se aproveita da popularidade do livro anterior para escrever qualquer coisa e vender fácil.  Decepcionante!</t>
+          <t>Comprei para minha sobrinha ler, contudo, eu precisei ler antes para saber se seria viável, mas percebi que joguei dinheiro fora (ainda bem que era promoção). Meus Deus, como essa garota escreve mal! O livro trata de historietas fracas e vazias, sem pé nem cabeça, parecem ser escritas por uma garota de oito anos! Nada do que a "autora" escreve tem fundamento (nem pra ficção serve), é muito ruim, sem noção nenhuma do que escreve, ... lamentável. Só marquei "uma estrela" de pontuação pelo gasto que tiveram com o papel. Aliás, se eu fosse a 'autora' jamais teria colocado minha foto na capa, seria melhor o anonimato.</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Pior livro que já li em toda a minha vida. Enrola MUITO. Fala o livro todo da tal da "comunidade miracle morning". Dava raiva antes de virar a página já, porque você sabe que na próxima ele vai dizer "entre na comunidade miraclemorning. com e veja quantas pessoas se beneficiam disso". affff Chato, chato, chato. Nem sequer 1 base científica...é tudo no "achismo". Quando estava no meio tive curiosidade de ver quais eram as referencias bibliográficas e, adivinha?? Nao tem nenhuma! Não gastem seu dinheiro. Tem muitos livros bons por aí...este aqui não vale nem quando está em promoção! Me arrependo muito de ter gasto 17,90 nele. =/</t>
+          <t>O e-book possui erro de formatação de capítulos. Entre os capítulos "Theon" e "Daenerys" (posição 4158) não possui identificação de um novo capítulo. O conteúdo do texto pode levar a uma má interpretação do conteúdo, já que por coincidência, o texto faz menção à um local ou personagem. Espero que o erro seja corrigido.</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A obra é excelente. O que me chateou foi o box ter vindo amassado e o livro Paraíso também. As gravuras junto com os textos também não me agradou ficando elas muito pequenas. O livreto a parte não é lá grandes coisas mas ajuda a melhorar o box.  Um box com esse tipo de literatura poderiam ter um pouco mais de cuidado.</t>
+          <t>Chato, parado. Uma grande decepção. Comecei a ler várias vezes, não conseguiu me prender em nenhum momento. Só no final é que li de uma tacada só , pra ver se me surpreendia...</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>O livro Veio mal lavrado e com as pontas dos livros amassados</t>
+          <t>Quando vi tantas avaliações corri para ler. Mas que livro chato. Tudo bem que tinha um aviso sobre cenas de sexo e linguagem chula. Mas deveria dizer que isso é em 90% da história sem deixar realmente um enredo bom acontecer. Sexo, sexo e sexo. Isso se resume a esse livro. A história ultrapassa o clichê. Na verdade nem tem história só sexo que parece ter sido retirado dos livros anteriores dela e colocado nesse mudando o nome dos personagens. Falta inovação. A escrita da autora é boa se não fosse mais do mesmo seria um livro bom.</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A premissa é questionável e a receita é o óbvio! Mais um texto água com açúcar! Não gostei do que Lu!</t>
+          <t>Paguei para embrulho de presente, e veio sem embrulho, é uma micharia mas vocês não cumpriram com acordo</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Me recusei a ler o livro todo. Estupro violência sexual é a forma como interpreto o primeiro sexo do casal. Acho um absurdo este tipo de cena e penso em meninas jovens lendo e achando que é normal. Não recomendo.</t>
+          <t>Pela porcaria que é, de graça é caro! Não me dei ao trabalho de ler, pois pelos comentários de quem leu, as críticas feitas, e o pouco conhecimento de história que tenho, percebi que trata-se de uma deturpação mesquinha. Para quem não conhece a história do Brasil e quer conhecê-la de forma minimamente séria, aconselho que escolha algum autor menos bisonho. Para quem quer fazer piadinhas na roda de amigos que gostam de falar sem razão, pode ser que encontre neste ... (sem definição) um repositório de besteiras mais ou menos útil, alguma passagem boba que sirva de inspiração para alguma piada idiota. Aos tolos, bom proveito!</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Ainda aguardando baixar o preço. Absolutamente abusivo. Não só a amazon como outras livrarias aumentaram o preço deste livro ultimamente. Ainda no aguardo do preço justo.</t>
+          <t>Não gostei. São várias histórias desconectadas e muito chatas, além de aparecerem vários erros de português. Essa é minha avaliação.</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A edição está meio confusa e mal diagramada. Arrependi-me de adquiri-la e acredito que há opções melhores da mesma obra.</t>
+          <t>Parece mais o trabalho de um garoto de escola primária querendo impressionar o professor. Fraco, mal elaborado, não informa nada, mostra-se a léguas da promessa do título.</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>O livro tem muitas coisas boas sobre o assunto em questão. Bem práticos até... É verdade que há um pouco de autopromoção quando o autor fala do seu método (CIS) que criou, mas acho até, que isso combina com o Livro.  Porém, o autor, que parece ser uma excelente pessoa, muitas vezes se comporta como um pastor. Tudo bem, cada um com sua crença. Respeito isso, mas não recomendo a leitura para agnósticos, céticos ou ateus. O autor menciona, ou a deus, ou a passagens bíblicas 45 vezes (sim, eu contei). Esse detalhe incomoda bastante, além de interromper a linha de pensamento do leitor. Lerei o livro (em partes) de novo, pois grifei apenas aquilo que tem aplicação na minha realidade, no mundo "material".</t>
+          <t>Livro com uma história rasa e previsível. E embora seja um livro com uma leitura que flui bem, não é bem escrito.</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>O livro é escrito por um dos mais reacionários jornalistas brasileiros, com o objetivo claro de enaltecer todos os personagens históricos com posicionamento de direita e desmoralizar os personagens que possuem pensamento de esquerda. O livro tem um ótimo título e uma capa muito bem feita, o que nos leva a ler. Porém, a medida que foi prosseguindo a leitura, comecei a perceber o seu forte conteúdo ideológico desfaçado e procurei pesquisar quem era o autor, para entender o seu objetivo. O livro não é baseado em fontes confiáveis e apenas "pinça" fatos não comprovados para confirmar teses muito questionáveis. Não percam o seu tempo com este lixo!!!</t>
+          <t>recebi o livro ontem, ok ! entrega rápida. porém não recebi desconto na promoção marco10. só comprei por causa dessa promoção. o q faço agora ? r$12,90 do livro, mais r$7,90 de frete. paguei r$20,80. Gostaria de saber pq não ganhei desconto ?</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Pessoal, achei péssimo esse livro. Terminei de ler quase vomitando de esforço pra concluir de tão ruim. A leitura é péssima, a história muito chata. Não recomendo a ninguém, saiam dessa. Foi a primeira distopia que li e estou com o pé atrás de ler outras duas que já havia comprado para o Kindle. Bom, e isso é boa sorte para os aventureiros.</t>
+          <t>Este volume consiste num arrazoado de quinta categoria, autoajuda da pior qualidade, com a pretensão de se apresentar como filosofia. Tristes tempos estes em que vivemos, em que um medíocre de ideias vazias acaba por fazer tanto sucesso. Tempos estranhos, muito estranhos.</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Desculpe Amazon mas não existe justificativa para o alto preço  deste e-book. Livro maravilhoso a um preço  exploratório. Infelizmente  este vou deixar aí na estante virtual.</t>
+          <t>FiZ a compra errada, era pra comprar o livro e acabei comprando esse kindle, Quero cancelar a compra do Kindle o segredo da mente milionária. Obrigada Karla</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A edição traz uma introdução que é puro spoiler. Muitos leitores estão reclamando da mesma coisa aqui. Por que não colocam essa maldita análise no final?</t>
+          <t>Tive problemas com relaçao a data de entrega,mandei 2 emails para o vendendor so me responderam no ultimo email e sua resposta nao me ajudou em nada com esse problema,entretanto o produto chegou em excelente estado</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Fiz de tudo para configurar o kindle e concluí que o problema é do ibook. Não importa o tamanho da letra, a separação das letras no final das linhas fica completamente errada, tipo indepe-ndente. Isso não acontece com os outros livros que comprei. É muito ruim ler assim.</t>
+          <t>A entrega foi no prazo, porém a edição é muito mal feita. As páginas e a impressão são desalinhadas. Além disso a lombada está com cola.</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Habilidosa forma de tratar a boa luta entre o bem e o mal, destacando a virtude e esperança nas boas ações humanas, sejam jovens ou adultas. Boa e divertida leitura!</t>
+          <t>Comecei a leitura hoje e estou abismado com a tradução. Sinto mesmo que estou lendo algo traduzido por um computador. Recomendo a compra em inglês.</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>O conteúdo do livro em si é bom (as técnicas e assuntos que ele aborda são, de fato, muito importantes). Entretanto, o livro tem uma abordagem de auto ajuda, com generalizações sem sentido, usando aquela abordagem prescritiva que promete 100% de sucesso a todos que seguirem as "dicas mágicas e infalíveis" do livro, simplificando demasiadamente o assunto. O livro é mal escrito também, confuso em algumas partes, e a todo momento você não sabe se o autor está falando de algo academicamente comprovado, se existem estudos práticos, se é opinião/experiência pessoal, ou se tem a ver com a fé dele (sim, existem várias opiniões religiosas inseridas junto ao texto). Enfim, ruim! Não dou nota 1 porque, apesar de mal escrito, o que o livro prescreve, de fato, é algo que funciona muito bem na imensa maioria dos casos e o brasileiro médio viveria muito melhor se seguisse as dicas.</t>
+          <t>Lani Queiroz escreve bem, gosto muito da escrita dela, li todas as séries anteriores... mas este, apesar de bem escrito, enredo muito lento, chato, discorrendo os pensamentos dos personagens longamente a mesma coisa... para esta estória, não precisava o livro ter tantas páginas...li até o final porque já sou fã da autora, mas parei muito e pulei muitas partes... o sexo apesar de quente, também não tem muita variação... não entendo uma classificação tão boa se tem situações que facilmente poderiam ter sido um "copia e cola" de outros livros, citaria um de outra escritora com tranquilidade aqui... mas enfim, achei necessário escrever esta avaliação porque gosto da escritora, mas neste livro, infelizmente penso que se perdeu.</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A "obra" é uma fraude completa. O autor é um astrólogo que se diz filósofo e é reconhecidamente um embusteiro e foi, de forma reiterada, desmascarado por acadêmicos. A obra contém uma série de chavões que podem ser lidos em parachoques de caminhões.</t>
+          <t>Livro muito repetitivo. Achei bastante cansativo, terminei de ler na marra, e só terminei, porque tenho o hábito de nunca abandonar um livro sem finalizar. E olha q nesse me vi tentada a abrir exceção, e abandonar o fim. O primeiro Homo Sapiens eu gostei, esse odiei. Teorias já vistas em todos os filmes de ficção científica.</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A responsabilidade da Amazon é fazer promoção com o produto ruim, que é a péssima edição deste livro,  ao invés de desistir de vende-la. Quero ver é dar um desconto desses nas versões melhores.</t>
+          <t>A edição traz uma introdução que é puro spoiler. Muitos leitores estão reclamando da mesma coisa aqui. Por que não colocam essa maldita análise no final?</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A entrega foi rápida e sem dano de entrega, porem não tem como rastrear(isso é um erro da empresa que faz entrega e não permite rastreamento). O item chegou com defeito na caixa que faz parte de tudo, e isso me desapontou. Como é um presente, não abri a caixa ainda para ver se ha mais defeitos e nem tenho tempo de troca-lo(já que não ha nenhuma forma de reclamar para uma troca rápida, apenas devolver o produto). Vou ter que entregar o presente assim e aguardar o que acham(espero que não tenha outros defeitos), mas fiquei muito desapontado pois o produto esta danificado dentro do plastico, não foi um erro de entrega, ele simplesmente já veio assim.  Falta um controle de qualidade no envio para que nem saia de la um produto com defeito e alguma forma de contato rápido com a empresa para casos de produtos danificados.</t>
+          <t>Na época que estourou eu paguei 105 na edição especial, por que motivo pagaria 99 em uma edição ebook sem cor e desenho algum? Preço abusivo, espero que ninguém o compre!</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Não gostei da história. Me esforcei bastante, mas foi só na segunda metade do livro que surgiram elementos com alguma originalidade. Todo o resto me pareceu uma grande imitação de filmes e livros que retratam crianças lidando com o luto e em busca de aventuras. A edição da DarkSide é primordial. Um dos livros mais bonitos (fisicamente) que já tive!</t>
+          <t>Um tanto ruim e sem inaginacao como a trilogia que gerou esse livro. Nao entendo como essa trilogia gerou ate um filme( que nao assisti, claro, uma vez que li os livros</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Tinha tuuuudo para ser um livro incrível! Pensem na situação, o bofe te chama pra sair, e vocês vão para um lago, chegando lá descobrem uma casa abaixo dele, e essa casa é toda mobilizada e nada nela flutua, ela é fixada no fundo desse lago. É uma baita aventura, certo? O casal (sorry, já esqueci o nome) ficam vidrados nessa casa, e passam dias e dias no rio explorando o lugar. Vendo as roupas, os móveis, até uma piscina (sim, tem uma piscina dentro do rio). Quando começa o suspense, confesso que dá até uma arrepiada onde o sol não bate, mas não passa muito disso, apesar de ser um livro curto, chega um momento que não rola nada de incrível mais, e quando parece que vai pra frente... Fica um lenga-lenga chato novamente. Apesar dos pesares, ficamos curiosos para o fim da história... Eu queria saber qual era daquela casa, se eles iam morar lá, se eles iam morrer naquela casa, alguma bagaça ia ter que acontecer... Maaaaas, no final eu fiquei com uma puta cara de paisagem e pensei "que final merda!!"... Enfim, tinha tudo pra ser bom, mas foi tudo uma merda. Nota: 1.5/5</t>
+          <t>Parece um texto que foi rascunhado e vertido para formato de interpretação em cinema. Repetitivo, personalidade dos personagens distorcidas e pobres. Soluções simplistas para as interações pessoais.</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A caixa veio  em um  péssimo estado, parte de baixo rasgada além de alguns amassados. Os livros são muito pequenos e sensíveis, folhas brancas que atrapalham a leitura e também não vieram em um estado muito bom, parecia que estava comprando um livro usado.   Não recomendo a compra, só não devolvo pois paguei um preço muito baixo em uma promoção e teria que pagar pelo frete, vai ficar encalhado na minha estante recomendo muito mais comprar os 5 livros originais que se encontram em promoção em diversos sites pelo mesmo valor.</t>
+          <t>Não consegui enxergar os personagens, as atitudes não condizem com o que passamos a apreciar e reconhecer nos 7 livros originais da série</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Comprei o livro mas ele nao vai para a biblioteca. Um absurdo isso. espero solucao para meu problema. Agora tento novamente e fala que ja comprei.</t>
+          <t>O conteúdo do livro é excelente, sem dúvidas. A única reclamação que tenho é em relação ao papel, que tá mais pra um papel higiênico... Mas minha reclamação em si não é à Leya, e sim à amazon que me enviou um livro cheio de rasgos e amassado. Inaceitável para um livro de coleção... compro com a amazon faz 3 anos e é a primeira vez que me decepciono com um pedido.</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>O que um livro desse acrescenta ao conhecimento de um jovem? Nada. E o pior é que há quem compre...</t>
+          <t>Estava muito empolgada com 90% do livro. As coisas começaram a ficar absurdas a partir daí e em determinado momento eu chequei na internet para ver se determinada cena realmente existia no livro ou se eu tinha baixado o livro errado, uma fan fic ou algo assim (infelizmente o livro realmente contém a tal cena, totalmente desnecessária e sem sentido). As coisas ficam tão surreais que você deixa de ter medo e o que estava empolgante só deixa você com vontade de terminar logo, já que você já chegou até ali mesmo.</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Chato, parado. Uma grande decepção. Comecei a ler várias vezes, não conseguiu me prender em nenhum momento. Só no final é que li de uma tacada só , pra ver se me surpreendia...</t>
+          <t>Nem consegui terminar (juro que tentei!). Achei os diálogos vazios, sobretudo a forma como a doença da menina era encarada. Talvez um público mais adolescente possa curtir :(</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Não comprem pela amazom.com.br. Ele enviaram um LIVRO, pela transportadora e não pelos correios. Primeiro a transportadora diz que não encontrou ninguém em minha casa e depois(na terceira) disse que não localizou o endereço. Ora, como não tinha ninguém casa se não encontraram minha casa. Só para deixar claro, nos dias e horários que alegados tinha gente em minha casa sim. Agora, a Amazon quer me reembolsar e não entregar o livro, sendo que ele está bem mais caro agora, e aí o que faço? Pago mais caro em outro lugar? Que vergonha!</t>
+          <t>Tao ruim que nao consegui terminar de ler. Preferi parar e ficar com a boa recordacao do livro anterior do que estragar tudo com essa historia arrastada.</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Está em minhas mãos a Comédia publicada pela Clássicos Jackson em dois volumes, data de 1949. Fiquei feliz ao descobrir que a tradução de Xavier Pinheiro foi novamente editada. No entanto, ao observar os comentários e o número de páginas, descubro, para a minha surpresa, que a nova edição tem pouco mais de quinhentas páginas. Ora, os dois tomos de 1949 juntos somam quase oitocentas páginas, ou seja, os comentários foram deixados fora da nova edição? Cada canto tem, no mínimo, duas páginas de comentários, em letras bem pequenas. Caso fosse feita uma edição adequada, corrigindo o tamanho da letra, com gravuras inseridas na obra com tamanho adequado, espaçamento, penso que se chegariam a mil páginas. Não vou comprar essa nova edição, continuarei com a minha, de 1949, velha, mas com conteúdo integral.</t>
+          <t>Sem dúvida esse é o pior livro que já li, não passa de um conjunto de cliches baratos, um misto de dramalhão com livro de auto ajuda.</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Olá! Abaixo, cópia da mensagem enviada à Editora L&amp;amp;PM (responsável pelo lançamento do SAPIENS no Brasil) e refere-se exclusivamente à versão Kindle. "Estou lendo (e adorando!) o SAPIENS, de Yuval Noah Harari. No entanto, como estou utilizando o Kindle para fazê-lo, estou sendo obrigado a enfrentar um problema enorme: a divisão silábica aleatória!! Pela primeira vez num livro em português me deparei com esse aparente defeito na conversão do livro para o formato da Amazon. Falo isso porque não é o primeiro título em português que leio nesse formato e posso atestar que isso nunca me aconteceu antes. Fico então obrigado a conviver com bizarrices do tipo "mul-heres", "cer-imônias", "sac-rifício", "partic-ular", "mod-erno", "de-sconhecidos" e muito, muito mais!... :-( Detalhe: alterando o tamanho da fonte não resolve o problema, apenas o desloca para outros pontos do texto. Em inglês isso não é uma surpresa pois não há regra quanto a isso. O que posso notar, porém, é que tanto em inglês quanto em português os livros que li até agora no Kindle evitavam ao máximo a separação silábica através de uma simples edição da página, de acordo com o tamanho da fonte utilizado no momento. A separação se dá apenas eventualmente. Infelizmente o mesmo não ocorre agora com o SAPIENS: a divisão é constante e, em inúmeros e irritantes casos, completamente errada! Na realidade, o prazer da leitura vai sendo minado pelo desprazer dessa lamentável falha, chegando quase a comprometê-lo por completo. Pergunta: teria havido algum problema na conversão desse específico livro para a versão Kindle? Estaria ocorrendo algum conflito de versões, já que recentemente tivemos um update do Kindle? Alguém mais trouxe o mesmo problema até vocês? Informo que estou encaminhando a mesma mensagem para a Amazon, caso a origem do defeito aqui relatado seja de competência daquela empresa. No mais, parabéns por editar no Brasil um livro tão especial. Atenciosamente subscrevo-me, na esperança de ter alguma solução para este lamentável contratempo. Nelson Meirelles"</t>
+          <t>Sou muito influenciada digitalmente, então cedi ao hype da autora e comprei o livro. É bonitinho, as ilustrações são legais, mas não entendi os ânimos exacerbados sobre a obra. Poesia de Instagram, e não falo isso com entonação positiva. É rápida, leviana e descartável. Alguns poucos poemas se salvam e são um sopro de boa escrita no meio de diversas páginas desperdiçadas por poesias curtas de três linhas e que não dizem a que vieram.</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Livro muito velho, nao está em estado de conservação. Partes do livro estavam saindo. insatisfeita. Não recomendo. nao recomendo. nao recomendo.</t>
+          <t>Comprei por se tratar de uma edicao de luxo....o que nao e o caso..paguei  quase R$ 80,00 . A edicao normal custa menos de de R$ 40,00. Gato por Lebre</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Achei sem graça esse livro. Tópicos de livros ancestrais. O que eu gostei foi as frases de filósofos, isso já ajuda metade do livro para reflexão.</t>
+          <t>O box veio em péssimo estado, com cola aparente nas bordas e vários amassados. Fiquei extremamente decepcionada pela aparência dos livros.</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>é mais sobre a vida da autora do que finanças, que cai entre nós fugiu muito da minha realidade talvez por isso gostei menos ainda. Enfim parece que eu estava assistindo um video do tedtalk para levantar minha autoestima. O canal dela tem mais conteúdo do que o livro.</t>
+          <t>O autor se descreve como o deus do coaching, fazendo referências as suas horas de trabalho e ao seu programa o tempo todo. Faz propaganda do seu programa de coaching mais do que deveria. Não é um livro que o prenda a sua atenção. Muito simples, não de uma boa maneira.</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>O pior livro do autor que ja li, chato, enrolado, personagens e dialogos desnecessarios poderia ter somente 300 paginas, e um dos piores finais que ja li, fica a pergunta aonde esta a obra prima?</t>
+          <t>O box Premium é lindo, porém a caixa veio rasgada, fiquei com desgosto e quero trocar apenas esse box. Os outros livros vieram de forma adequada.</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Conseguir ler um pouco do livro, e nesse pouco se vê outros ângulos de "verdades" históricas ao qual estudamos na escola, e muitas concepções sobre a America latina foram mudadas após o livro. Mas, como disse, consegui ler um pouco, a diagramação está tão ruim, bagunçada, disforme, que foi, ao menos no meu caso, continuar a leitura. Pior que o livro se encontra "perdido", meses e a loja não corrige o problema, o que teoricamente é muito fácil de se fazer, bastava uma atualização. Minha única estrela não é referente ao conteúdo do livro e sim sobre este problema relatado, e é dado no intuito de que a loja veja e corrija o problema.</t>
+          <t>Apesar do autor se dominar "o homem que impactou mais de 20 milhões de pessoas", é um livro superficial, as obras do Paulo Vieira são uma compilação de teorias psicológicas e sociológicas diluídas em estratégias de marketing fortíssimas. Para leigos pode ser um livro muito interessante, mas para estudiosos e profissionais é um livro raso, comercial e que parece querer promover o Método CIS.</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Concordo com os outros comentários, livro bem fraco, somente informação óbvia, além de cada ferramenta não passar de uma página, fora que há pouca citação dos Gênios.</t>
+          <t>Pelo menos no Livro 1 - A guerra dos tronos, a tradução lembra muito o português de Portugal. Expressões estranhas na nossa língua e uma versão diferente daquela apresentada no livro 1 vendido individualmente. Tentei contatar a editora, mas fui ignorado. Péssimo relacionamento com o cliente. A Amazon, obviamente, não tem responsabilidade sobre a qualidade duvidosa do produto da editora Leya.</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Comprei o livro baseado  na qtd de avaliações acima da média. Resultado: Decepção total. Livro cheio de clichês e dicas mais rasas que frases motivacionais no facebook. Não vale a pena a leitura.</t>
+          <t>Eu também cheguei a entrar na página para comprar o livro em questão! Porém com avaliações como estas desisti da compra! Acho um absurdo uma empresa como a AMAZON estar ENVOLVIDA COM PIRATARIA ou mesmo comercializando um material incorreto, fraudulento e por sua vez DESRESPEITANDO O CONSUMIDOR! ABSURDO!</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>O livro exibe umas poucas técnicas de maneira reduzida.  Creio que poderiam ser colocados pequenos exemplos para treinamento em uma quantidade que o leitor pudesse avaliar e treinar a tecnica, certificando assim o método.</t>
+          <t>Veio com um problema na imagem da capa e vendo as outras críticas isso parece ocorrer com frequência. Não o recomendo para ninguém.</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Estou arrependido por ter comprado esse livro no formato digital. Gostaria de trocá-lo pelo formato em papel, pois várias partes importantes do livro não são legíveis, como o índice, as referências, etc</t>
+          <t>Achei o livro um suspense interessante, que me prendeu do começo ao fim. Recomendo, apesar de desejar outro final mais justo.</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>O nome do livro e seu plot twist são as grandes sacadas. Quando terminamos o livro, percebemos que quem sabe o mínimo para não ser idiota, jamais leria Olavo de Carvalho. Ou seja, esse livro atinge exatamente o público correto. Nem Kotler pensaria em uma jogada de marketing tão genial. Apenas pessoas que não sabem o mínimo para não serem idiotas é que compram o livro. Quando terminei de ler o livro e percebi isso, achei genial! GENIAL! Se você cogita ler este livro, compre-o agora, pois esse livro foi feito para você  =)</t>
+          <t>Muito tendencioso, pela opinião lamentavel do autor em varios assuntos tratados (por exemplo, afirma que os portugueses ajudaram a preservar as florestas e que os indios eram os grandes devastadores....????) Esperava encontrar curiosidades interessantes sobre a historia do Brasil, pois sabemos que não foi exatamente como retratada nos livros escolares, mas vi principalmente piadas de mau gosto.</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Comprem Os Miseráveis, de Victor Hugo, editado pela COSAC NAIFY, tradução impecável. Vale muito mais a pena. Não julgue um livro apenas pela capa. O mesmo vale para Crime e Castigo, da Martin Claret. Este último, indico pela editora 34.</t>
+          <t>Me mostrou a não confiar mais nos best sellers</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Desde o título ao conteúdo, esse livro é pretensioso e arrogante. Parece mais uma imatura tese de mestrado, colecionando dados bibliográficos encaminhados para uma concepção preconceituosa e sem nenhuma sabedoria.</t>
+          <t>Estava relendo a saga mas não pude terminar pois o quinto livro (A ordem da fênix) estava indisponível, os anteriores e o ultimo estao disponíveis. Como isso aconteceu com um livro virtual?</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Todo enredo acaba no primeiro livro, o pouco de suspense restante, com as poucas perguntas por responder poderiam ter sido concluídos em um livro só. O que faz os outros 2 livros (insurgente e convergente), desnecessários, e encheção de linguica, respondendo perguntas que nem eram tão importantes assim, além de tentar fazer um final surpresa e falhar nisso, deixando ele só deprimente. Muito triste porque o primeiro livro tem um ótimo passo, enredo e etc.</t>
+          <t>horrivel, doído, de uma tristeza palpavel, me fez sentir muito mal, nao creio que vou ler outro livro dela nunca mais.</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Eu sempre ouvir falar muito bem dessa escritora. Tavez eu não tenha captado o estilo da autora, mas o fato é que detestei este livro. Só não dei a nota mínima porque a escrita é razoável - tem coisas piores por aí! Eu adoro uma boa estória pra passar o tempo, mas o fato é que essa leitura é bastante cheia de clichês - o que me entediou bastante. Alguns podem até achar o tema depressivo - uma garota que trabalha para um cara tetraplégico e que ambos descobrem um novo sentido para a vida -, mas não necessariamente deveria ser. Eu sou uma das que achou o livro bem depressivo (e veja que adorei "a culpa é das estrelas"). Em resumo, este livro pode ser pra você, uma pessoa bastante sensível e que gosta de livros que te façam chorar.</t>
+          <t>Acabo de ver a trilogia impressa por 54,90. Amazon está sendo ridícula com esse preço. Pensava seriamente em comprar a edição Kindle, mas vou ficar com os que tenho mesmo. Inviável.</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Não consigo ler .... Está muito confuso este site. Não consigo contato com ninguém para ajuda. Complicado o Amazon. Espero conseguir ler ou o estorno.</t>
+          <t>HORRIVEL.... não dei conta de ler tudo... não consigo entender como uma mulher aceita esse tipo de situação e ter tantas fãs... seria por conta do jatinho, carros... e todos os outros bens materiais???</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>O box veio em péssimo estado, com cola aparente nas bordas e vários amassados. Fiquei extremamente decepcionada pela aparência dos livros.</t>
+          <t>Nunca vi alguem escrever tantos dados errados e ter tanto sucesso. A começar dizendo que a humanidade tinha uma vida mais confortavel quando era coletora, cuja qualidade piorou com a agricultura. Ou, manipulando trechos da Biblia para forçar uma conclusão. Desonesto este autor</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>O que esse pessoal têm na cabeça? Os "videntes" vêem ameaça a "democracia" em qualquer coisa que não seja exatamente como os mimados com "nível superior" ouviram dos seus "professores"... é triste o abismo educacional vivido no Brasil, e imaginar que isso está ocorrendo nos EUA também</t>
+          <t>O box veio rasgado e não gostei porque parece descaso com o que eu comprei, as extremidades toda machucada. Não gostei do estado que chegou, mas os livros são bonitos</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Decepcionante. O livro se contradiz totalmente a partir do seu prefácio, quando utiliza a frase “Nem tente” como um marco, e propaga justamente o contrário nas páginas que seguem. Um texto de blog seria mais instrutivo.</t>
+          <t>Livro muito velho, nao está em estado de conservação. Partes do livro estavam saindo. insatisfeita. Não recomendo. nao recomendo. nao recomendo.</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>... Mas a configuração das páginas é PÉSSIMA. Prejudica muito a leitura. Uma pena que tenha havido um descaso tão grande na hora de configurar esse livro para o kindle.</t>
+          <t>Infelizmente um dos piores livros que eu já li. A escrita é imatura, assim como sua autora. Contém  histórias totalmente confusas sobre a vida da kéfera, sem pé nem cabeça, sem cronologia e organização. A autora cria padrões sobre homens e mulheres totalmente sem fundamento e fala como se tivesse uma graaaaande experiência de vida. Como se entendesse muito de relacionametos nos seus poucos 22 anos. Infeliz ideia quando decidiu escrever um livro.</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>O autor coloca alguns pontos interessantes para reflexão mas achei o livro fraco e sempre buscando divulgar um método de coaching do autor. Os exemplos como pessoas que aumentam sua receita com simples ações tambem me parecem fantasiosas em um contexto como o nosso no Brasil. Resumindo, eu esperava muito mais do livro</t>
+          <t>Muito difícil a leitura deste livro, acredito que seja para um leitor acostumado a este tema, não terminei ainda, mas chego lá !</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Se desse pra devolver eu devolvia, nao é por eu nao pensar igual ao autor, mas achei uma coletanea muito cansativa e repetitiva. Vai ser um tijolo abandonado aqui em casa.</t>
+          <t>Veio amassado nas pontas</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Texto não acadêmico sem nenhum embasamento histórico escrito por um não historiador. Seu preço está de acordo com a (baixa) qualidade</t>
+          <t>Incapaz de conviver com ideias diferentes na academia brasileira, resolveu estudar filosofia sozinho. Essa sua incapacidade, no entanto, é algo que marca toda a sua trajetória de vida, se traduzindo em uma profunda intolerância a qualquer pensamento divergente do seu. Não sou Petista, nem comunista e nada disso, mas tem muita coisa melhor para ler.</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Como o livro se concentra na política americana das duas últimas décadas, eu esperava que - pelo menos - apresentasse uma análise das disputas internas dentro dos dois grandes partidos dos Estados Unidos e uma discussão da relação destas duas agremiações com a sociedade que fosse melhor do que eu posso fazer, ou que apresentasse novas e instigantes. Não faz isso e gasta energia à toa numa tentativa de comparar Hugo Chávez com a política americana que peca pela superficialidade e pelos lugares comuns que não se espera encontrar num trabalho acadêmico. Muito ruim!</t>
+          <t>Sou fã do canal, estava na primeira sessão da peça "Deixa eu te contar" e esperava muito mais desse livro. Histórias de 6 anos de idade sem pé nem cabeça nada interessantes. No final da pra perceber o enchimento de linguiça, fora a gramatura das páginas e as fotos que tomavam duas páginas inteira. Continuo sendo fã da Kéh, mas o livro não é bom. :/</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Minha sobrinha pediu de aniversário, mas vou acabar tendo que comprar outra coisa, é uma verdadeira porcaria. Parece uma revista de banca daquelas sem a mínima qualidade.</t>
+          <t>Fiquei satisfeita com a velocidade da entrega e o valor do frete, porém eu comprei esse produto como presente de aniversário, paguei pelo cartão de presente e embrulho e ele vei embalado de maneira normal. A Caixa do Box chegou danificada e rasgada nas laterais, assim como o primeiro volume estava com uma orelha gigante na contracapa, como se houvesse sido dobrada de maneira proposital, havia cola na lombada do volume 3 e o volume 5 estava com as laterais das capas amaçadas. Ou seja, os produtos chegaram seriamente danificados. Estou muito desapontada com isso, com a falta de respeito com o cliente, se você paga por um produto e serviço deseja que ele chega em excelentes condições a sua mão. Eu iria fazer a devolução mas a pessoa a quem eu presenteei muito tranquilamente aceito o produto danificado.</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Livro óbvio demais</t>
+          <t>O ÓDIO É UMA VONTADE : Vontade de ajudar prender apenas um bandido e deixar outros soltos , vontade de  ser acadêmico e escrever livros para iludidos sem mesmo frequentar uma FACULDADE ou UNIVERSIDADE , pois é fácil a arte de  iludir.</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>O livro é incrível e queria reler... Mas o valor cobrado no Brasil pra um Ebook é patético e abusivo. HOJE, $13.98 (quase 1/4 desse valor se for convertido em real) na loja americana. NADA justifica esse valor exceto querer super faturar. A tradução já existe a milênios... Vergonha alheia e decepção pela Amazon. Só isso q sinto.</t>
+          <t>O texto do livro no celular é exibido em duas colunas, dificultando a leitura. Entrei em contato procurando solução e não obtive.</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Tive contato com "a obra" de Olavo de Carvalho quando eu tinha lá meus 15 anos. Por algumas semanas achei interessante pois tinha o propósito de desvelar verdades e conspirações. Passadas as semanas com meus olhos afiados para caçar comunistas, analisei seus indícios, busquei referências paralelas, e me dei conta de que ele é um lunático. Desde então, toda vez que vejo alguém dizer que gosta de Olavo de Carvalho, já encaro a pessoa como, no mínimo, uma analfabeta funcional. Recentemente um youtuber, filósofo formado, com as devidas técnicas de investigação filosófica, fez um vídeo de leitura e análise de lógica textual desse livro. Conclusão: Não há um parágrafo desse livro que não se utiliza de falácias. No vídeo também são elencados de maneira técnica os tipos de falácia utilizados. Link:https://youtu.be/EjQ9kVVuW0Y</t>
+          <t>Comprei no lançamento o livro e mais completo, essa segunda edição tem paginas a menos... em comparação ao outro faltou conteúdo.</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Confesso que pelas avaliações eu esperava mais,não que o livro não é bom. O problema é as semelhanças com os livros anteriores que eu li da autora,menina virgem,com homem mais velho,arrogante, prepotente,milionário,que usa as mulheres e não se envolve e como em um passa de mágica se apaixona. Eu em varios momentos vi o Leon(Príncipe da vingança se não me engano) senti também que as personalidades dos irmãos são parecidas com as dos príncipes Di Castellani,posso estar enganada pois foi só um prelúdio deles. O livro meio que romantiza o estupro,ao meu ver de forma velada,pois o autor do ato é o personagem principal e como tal precisa ser amado no final. Porém pra mim quando uma pessoa fala não é a a outra continua,caracteriza-se forçado, "a mais ela estava afim" a partir do momento que ela disse não é não e ela que arque com suas indecisões. Ele é egoísta, frio,manipulador,insensível,grosso,um babaca de marca maior e como um milagre ele se torna um cara incrível e maravilhoso e isso me incomoda muito e é meio oque aconteceu no outros livros que eu li dela. Se você gosta de histórias que o cara não presta e ela é muito boa e bacana,que não tem motivos nenhum pra se apaixonar mas mesmo assim se apaixona,essa é pra você. E ainda tem a tal da dívida,porque em momento nenhum ela reclamou de ser pagamento do pai,não precisou de nem de ameaça(tipo seu pai vai preso,salva seu pai)ela foi por livre e espontânea vontade,reclamado que isso era de outro século,mais foi.</t>
+          <t>O livro é nota 10, mas o preço que a Amazon está cobrando do ebook é nota 0. Por essa e outras razões que os livros digitais no Brasil ainda não engrenaram como poderiam.</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Este livro pode ser interessante para as pessoas que não se interessem na realidade da ciência. Este livro não esta bem referenciado (coisa muito estranha, sendo de um autor dessa fama). Em fim, me arrependo de ter comprado.</t>
+          <t>O que um livro desse acrescenta ao conhecimento de um jovem? Nada. E o pior é que há quem compre...</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Assim como todos os livro da Série, não curti. Aliás, ainda acho que foi o pior de todos, pois repetiu tudo o que já havia sido lido. Não trouxe nenhuma informação a mais. É a mesma história, só que com a visão do personagem. Não recomendo.</t>
+          <t>Pra mim isso nem pode ser chamado de livro. A garota não tem idade suficiente pra poder contar alguma coisa interessante e útil, já basta seu canal infantil com vídeos bobos.</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Pena que a introdução dessa edição conta quem é o assassino da história, pule essa parte, que editor coloca isso no começo?</t>
+          <t>Jorge Candeiras é o tradutor da versão portuguesa do livro e não da versão brasileira, mas a Amazon vender no Brasil um texto com português de Portugal e não avisar é desrespeito.</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Péssimo</t>
+          <t>Conceitos interessantes, mas a forma de apresentação é muito ruim.</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Li baseada em uma recomendação do Bill Gates e me ferrei. Não percebi o que ele percebeu. A descrição dos pensamentos obsessivos da personagem principal talvez explique em parte o que agradou a ele, parecem muito verossímeis. Mas são a única verosimilhança da história. Se vc gosta das obras do John Green, é pra vc. Eu achei chatíssimo.</t>
+          <t>Boa noite. Qd minha leitura chegou no quinto livro percebi que havia muitas páginas repetidas cortando a história. Estou chateada e espero uma solução!</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Livro muito repetitivo. Achei bastante cansativo, terminei de ler na marra, e só terminei, porque tenho o hábito de nunca abandonar um livro sem finalizar. E olha q nesse me vi tentada a abrir exceção, e abandonar o fim. O primeiro Homo Sapiens eu gostei, esse odiei. Teorias já vistas em todos os filmes de ficção científica.</t>
+          <t>História maluca e que não te leva a nada, uma viagem sem sentido.</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Nao ensina a revelar seu potencial em nada somente te diz que vc que nunca se adptou ao estilo de aprendizado comum que foi ensinado erroneamente . muita teoria e nenhuma dica aproveitosa</t>
+          <t>Comprei um box do Harry Potter e um do Percy Jackson em maio. Ambos chegaram nos prazos estipulados. Demorei a abrir o box de HP, ao começar a ler o segundo livro reparo que faltam ao menos 3 capítulos do livro. Fico muito decepcionado com esse tipo de situação e espero que aja algum tipo de ação da Amazon quanto a isso. Serei obrigado a conferir todos os livros e seus respectivos capítulos para ter certeza se há mais erros. Gosto muito do site e espero que tomem uma posição sobre isso.</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>O autor é fraquíssimo e escreve de maneira muito apelativa, em uma vã tentativa de robustecer suas falácias.</t>
+          <t>Fiz a solicitação com embrulho para presente e bilhete e não chegou dessa forma! Extremamente decepcionada. Paguei por isso! Gostaria de retorno sobre o ocorrido!</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A tradução é mal feita...o tradutor parece não entender nada de guerra e a sua terminologia ....em várias ocasiões a tradução não tem nada a ver com que está escrito... O dicionário é fraco...muitas vezes não possui tradução nem explicação de determinadas palavras Quanto ao conteudo do livre...chama atenção o quanto o regime nazista foi cruel, especialmente o SS....seu ódio dos judéus...e a crueldade dos japoneses com seus prisioneiros e populações locais</t>
+          <t>Esperava muito mais deste livro. Achei cansativa e repetitiva o enredo. O mistério, consegui decifrar logo de começo. Eu msm n recomendaria.</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Achei que o livro mostra apenas oque o senso comum ja sabe sobre produtividade, mas se mostra como uma grande novidade.</t>
+          <t>Minha primeira experiência de compras com a Amazon foi péssima! Comprei o item para presentear e me atentei à data limite de chegada para que conseguisse entregá-lo na data correta. Os livros não chegaram na data e o que é pior, a transportadora atualizou o status para entregue, dois dias antes da data limite muito provavelmente para não perder a pontuação! Até entendo que essa época o fluxo de entregas aumentam, mas considero falta de respeito ao consumidor "omitir" o real status de entrega ao produto. Infelizmente todos os comentários positivos que ouvi da Amazon, para mim não se concretizaram e eu provavelmente não voltarei a comprar!</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A caixa veio estragada, queria deixar ela a mostra como produto decorativo, agora não poderei mais! Muito obrigada pelo pessimo produto</t>
+          <t>Nossa, que livro ruim. Muito mais muito prolixo e chato. No começo parece ser interessante mas depois torna-se uma coisa extremamente chata.</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>No ato da minha compra na descrição do produto não constava que o mesmo era um Livro de Bolso, muito pelo contrário, as dimensões do produto eram outras. Se eu estivesse no endereço quando o produto foi entregue teria devolvido o mesmo sem pestanejar, infelizmente estava de férias e acabei perdendo o prazo de devolução. Outra observação que tenho a fazer é em relação ao zelo pelos produtos embalados, os funcionários da Amazon pesaram a mão nas minhas últimas entregas, pois praticamente todos os livros contêm leves amassados em suas bordas. Fica aqui a minha indignação com a Amazon.</t>
+          <t>A estória podia ter fim no primeiro livro, desnecessário esse segundo, não sei o que acontece com essas meninas que se intitula autoras de não desapegar dos livros e fazer 1,2 e até o três falando dos mesmos personagens AFF 🙄 para mim são pessoas sem imaginação para a construção de um novo livro. Nao evolui parece que desapegar do livro é a morte. Lamentavel  e ainda um terceiro onde terá muito sexo e pouca estória.</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>Ainda vou ler.</t>
+          <t>Tendencioso, pensamentos de extrema-direita, classifica todas as minorias como vitimismos e coloca toda culpa no PTismo/lulismo/comunismo... grande ignorância ler esse autor e perigoso à aqueles brasileiros que já flertar com tais preconceitos, irão os ter reafirmados.</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A caixa do box veio rasgada e amaçada; página do livro cálice de fogo, uma folha veio amaçada ... .</t>
+          <t>Não comprem pela amazom.com.br. Ele enviaram um LIVRO, pela transportadora e não pelos correios. Primeiro a transportadora diz que não encontrou ninguém em minha casa e depois(na terceira) disse que não localizou o endereço. Ora, como não tinha ninguém casa se não encontraram minha casa. Só para deixar claro, nos dias e horários que alegados tinha gente em minha casa sim. Agora, a Amazon quer me reembolsar e não entregar o livro, sendo que ele está bem mais caro agora, e aí o que faço? Pago mais caro em outro lugar? Que vergonha!</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Meu box veio com a lateral descolando, apresentando bolhas de ar por conta do descolamento. Mas fora isso o box é lindo!</t>
+          <t>Poxa comprei o livro em janeiro agora eles nao estão desponibilizando pra mim. Agora vou ter que comprar de novo sacanagem né gente😣</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>Comprei achando que era vantagem, pelo preço atrativo. Minha filha quando abriu um dos livros, a primeira vez, as folhas se soltaram. Eu tenho um livro da coleção Harry Potter, que comprei a mais de 8 anos e está em perfeito estado de conservação. Não entendi a baixíssima qualidade desse produto.</t>
+          <t>Parece que o autor não leu o próprio livro!! 🙄</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A melhor edição de A Divina Comédia é da Itatiaia, com a magistral tradução de Cristiano Martins(considerada a melhor em português), uma edição com inúmeras notas de rodapé, contextualizando o leitor na época em que o livro foi escrito, falando sobre personalidades da época mencionadas no livro,  as teorias de conspiração, apresentando todo o painel político e da sociedade de costumes da época, e como se fosse pouco, o tradutor ainda fez um minucioso estudo sobre todas as teorias de cosmologia e religiosas apresentadas, um trabalho monumental que merece aplausos, isso sem falar nas ilustrações incríveis do Gustave Doré, que muitas vezes ocupam páginas inteiras. Para quem se interessa em ter livro bonitinho na estante compre essa edição, quem quer conteúdo procure a da Itatiaia, não vão se arrepender. Esse box é pura estética, com tradução acessível.</t>
+          <t>A menos que queira uma versão POCKET, não compre. Na descrição do produto não diz nada. A devolução irá custar 40 Reais para mim, ou seja, foram desonestos e me prejudicaram. No Submarino os vendedores são mais honestos, informam se a versão é POCKET ou não.</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>Péssimo. Qualidade horrível do papel, tamanho de letra quase ilegível e sem nenhuma ilustração. NÃO COMPRE. Fiquei decepcionado, especialmente porque pelo preço parecia que o produto seria minimamente aceitável.</t>
+          <t>Ainda aguardando baixar o preço. Absolutamente abusivo. Não só a amazon como outras livrarias aumentaram o preço deste livro ultimamente. Ainda no aguardo do preço justo.</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>Livros e caixa vieram danificados. Parte externa dos livros (dobras) vieram com cola. Caixa amassada e rasgada. Ainda vou ter o trabalho de ir ao correio e pagar para devolver o produto. Dizem que reembolsam o frete depois. Veremos! Seguem as fotos!</t>
+          <t>Trata-se de um livro muito superficial, limitado a um conjunto simplista de “receitinhas” pretensamente rotuladas de “hábitos”. Também não tem nada de original e nenhuma fundamentação mais científica da questão. Embora seja de assimilação fácil e rápida (não exige reflexões), não compensa o tempo que se vai despender em sua leitura. Não recomendo. Alfredo Sant’Anna Junior</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>HORRIVEL.... não dei conta de ler tudo... não consigo entender como uma mulher aceita esse tipo de situação e ter tantas fãs... seria por conta do jatinho, carros... e todos os outros bens materiais???</t>
+          <t>Não atendeu minhas expectativas, como estava na lista dos livros mais vendidos e as avaliações ótimas, resolvi comprar. A principio o autor promete um livro de autoajuda diferente dos demais, algo que não concordei. De fato é interessante alguns pontos em que ele aborda e nos faz pensar quando um problema deve realmente ser um problema, entretanto ao decorrer do livro sinto a leitura repetitiva e cansativa o que me fez parar a leitura um pouco mais da metade do livro.</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>Apesar de ser um indivíduo da espécie Homo sapiens, o autor deste livro não é um ser humano com sabedoria.</t>
+          <t>Esperava bem mais desse livro! A história é muito previsível, além de parecer com outros livros como A Seleção e Sombra e Ossos. Parece que a autora misturou esses dois enredos anteriores para criar A Rainha Vermelha! Não recomendo</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>O livro é ótimo, mas quando vi que o livro físico na própria Amazon é mais barato que o e-book me senti enganado.</t>
+          <t>Fique atento na compra. Ainda está com problema no download, conforme já reportado há um mês por um outro usuário.</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>Chegou meu livro. Vocês não poderiam mas DEVERIAM avisar que ESSA DROGA é edição ECONÔMICA. Não vou nem me dar ao trabalho de dar pra alguém VOU JOGAR FORA ESSA PORCARIA.</t>
+          <t>infelizmente veio com a caixa toda detonada, o box veio amassado e com uma das laterais rasgada quase saindo, os livros vieram com um pouco de cola na parte superior e ao puxar rasgaram o box e para piorar o quinto livro veio com umas oito páginas em branco. Pior experiencia.</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>O livro é incrível, porém fiquei bastante chateada com a qualidade do produto, chegou em péssimo estado!</t>
+          <t>CLARO QUE AS ESTRELAS NÃO SÃO PAR A OBRA, MAS PARA A AMAZON NO QUESITO PROTEÇÃO DO PRODUTO, O LIVRO VEIO COM UM LADO DA CAPA AMASSADO. DECEPÇÃO</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>Sem dúvida esse é o pior livro que já li, não passa de um conjunto de cliches baratos, um misto de dramalhão com livro de auto ajuda.</t>
+          <t>Considerei que este livro não conseguiu atender as expectativas no contexto de interpretação dos fatos históricos. O autor tece bem o andamento histórico, mas com abordagem muito superficial.</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>Não consegui passar da metade. É bem sem graça. Dá a impressão que a autora quis embarcar no sucesso do livro anterior que virou filme, para criar uma continuação da estória, o que ficou monótono e desajeitado. Acho difícil entender como está na lista dos mais vendidos. O livro é repleto de diálogos cansativos em linguagem básica, bem bobinha. Enfim, não convence.</t>
+          <t>Este livro tem uma narrativa confusa, contraditória. Não há embasamento científico. Trata-se de teorias defendidas pelo autor. Parei de ler , quando me dei conta que era perda de tempo.</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>Desnecessário comentar. Não percam tempo. Nível bem primário. Só li para avaliar se há alguma coisa inteligente no setor. Ainda estão engatinhando.</t>
+          <t>Nem me anima escrever sobre este livro. É simples: o livro não presta. É muito ruim. Dito isso, você deve saber que o livro é um sucesso, vendeu milhões e virou filme. Mas não presta. O livro tem seis personagens principais e dois acessórios. A trama é óbvia, esse é um livro de ‘quem matou?’. Quem matou Megan? é o resumo do enredo. Há o casal Megan e Scott, o casal Tom e Anna, que mora na mesma rua do primeiro casal, existe Rachel, ex-esposa de Tom e que passa de trem, todos os dias, por trás das casas desse pessoal citado. Há, ainda, o psiquiatra de Megan, Kamal. Rachel imagina que Megan e Scott formam um casal idílico. A separação de Tom ainda é dolorida, dois anos depois de ter acontecido, ô mulher besta e sofredora. Rachel é uma chata, alcoólatra e gorda. Megan é ninfomaníaca e trepa com Tom e Kamal, além do marido, claro. Megan é morta. Quem matou? Ora, ora. Logo nos primeiros capítulos, anotei no meu caderno de anotações o nome do assassino. Além de ser um péssimo livro, completamente clichê, os personagens são todos parecidos e ‘falam’ da mesma forma. Dona Paula não quis ter o trabalho nem de diversificar a fala dos personagens. Por exemplo, Anna e Rachel dizem estar com o coração prestes a explodir, em momentos diferentes da trama. Na semelhança entre os personagens, Scott é violento e ciumento. Tom é violento, ciumento e mentiroso. Megan é frustrada, submissa e não trabalha. Anna é frustrada, submissa e não trabalha, cuida do bebê. Rachel é uma bêbada, frustrada, apanhava do ex-marido, submissa e perdeu o emprego por causa da bebida. Perdi meu tempo lendo as quatrocentas páginas dessa ‘coisa’. Pelo menos, o livro foi ‘de grátis’ no Kindle Unlimited e a escrita de Dona Paula é tão chã que terminei o livro em poucas horas.</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>O livro é muito repetitivo no começo, o que torna o restante da leitura um pouco cansativa , mas tem boas dicas de aplicações do método 80/20.</t>
+          <t>Tá na hora da empresa acordar! É possível comprar a versão física do volume único de Senhor do Aneis por R$ 140,00! Com esse preço, não dá!</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>Uma promoção onde daria de graça o livro digital para ser lido na verdade me cobrou equivocadamente R$ 21,00. Entrei o contato para pedir o meu estorno e nunca mais comprarei neste site pelo desconforto oportunista que está me causando.</t>
+          <t>meu box chegou com alguma bolhas nas capas de alguns livros, e a orelha de um dos livros, está bem surrada.</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>Minha avaliação é zero. Comprei o livro achando que era físico, depois tentei cancelar o virtual pra comprar o físico e não consegui. Em lugar nenhum aparece uma opção de devolver ou cancelar a compra. Já debitaram em minha conta e não veio o download pra que eu pudesse baixar o livro. E também não me estornaram o valor. Esta é Minha primeira e última compra neste site.</t>
+          <t>Muitos e muitos rodeios contando detalhes minuciosos dos pensamentos, manias e medos de uma menina com problemas. Um esboço de um thriller que se perde pouco antes da metade do livro de forma decepcionante. Definitivamente este livro está bem aquém da qualidade que o autor entregou nos seus demais livros. O título é completamente desconexo com a história. Só não dei 1 estrela pq algumas raras observações proporcionaram momentos de reflexão.</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>Nossa... mesmo pulando páginas e páginas o livro é cansativo. Estou tão cansada que não vou escrever mais nada, não recomendo!&amp;amp;</t>
+          <t>Bem fraco. Achei muito forçada a ligação com o primeiro livro, que já não é lá muito bom. Muito novelesco!</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>Que sistema horrível de vocês. EU NÃO COMPREI NADA. EU SÓ CLIQUE PRA VER MELHOR. EU queria esses livros FÍSICOS E. Não ebook. Eu só queria ver. Cancele essa comprar. Obrigada Stela Maris.</t>
+          <t>Não há justificativa para o preço absurdo deste ebook, se bobear você acha mais barato o livro impresso do que essa versão digital. Uma pena, gostaria muito de ter o ebook.</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>O final decepcionante da trilogia me fez arrepender de ter perdido meu tempo gostando do primeiro e segundo livros, e criando expectativas para o terceiro.</t>
+          <t>SE ARREPENDIMENTO MATASSE ESTAVA MORTO, (AMO LER E APRENDER, PROCURO COMPRAR E LER PELO MENOS UM LIVRO POR MÊS), GASTEI DINHEIRO ATOA, QUE LIVRO RUIM, PRESTA UM DESSERVIÇO PARA O INTELECTO DE UMA PESSOA, O AUTOR ESCREVE, ESCREVE, LÁ NO FINAL ELE DIZ QUE SÃO APENAS DEDUÇÕES E QUE NÃO SE PODE AFIRMAR NADA. NÃO CONSEGUIR IDENTIFICAR NENHUMA NOVIDADE EM UM LIVRO DE MAIS DE 400 PÁGINAS.  AMAZON.COM DEVOLVE MEU DINHEIRO OU ME DÁ A OPORTUNIDADE DE DEVOLVER O LIVRO OU ESCOLHER OUTRO, POR FAVOR!!!!!!! ESSE AQUI NÃO QUERO NEM COLOCAR NA MINHA ESTANTE, NÃO QUERO GUARDAR NA MINHA CASA.</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>É tão ruim quanto o canal dele.</t>
+          <t>Não vale a pena, é uma ofensa aos Potterfanaticos! De verdade, personagens fracos, em nada lembram os originais, parece que usaram poção polussuco em figurantes que fingem serem personagens.</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>Em diversas partes do livro o autor compara a Bolsa a um cassino e a uma mesa de pôquer. Ao seguir os axiomas, é muito provável que o especulador quebre a cara. Por outro lado, são oferecidas importantes lições sobre a psicologia dos operadores, principalmente o efeito manada.  Os axiomas serão úteis para quem fizer o contrário do que foi proposto.</t>
+          <t>A caixa veio rasgada. como fazia mais de sete dias que havia comprado e não havia aberto fiquei no prejuízo. Triste.</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>Muito narrativo, não prende atenção, tive aprendizados não posso negar, mas foi muito difícil prestar atenção nas histórias narrativas sendo que meu fico era aprender os segredos.</t>
+          <t>Leitura decepcionante. Basicamente um romance adolescente com pitadinhas minúsculas de suspense. Esperava mais pois já ouvi elogios ao autor. Final sem graça.</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>Escolhi o livro por acreditar no tema e indicação de uma amiga que segue o que ele propõe. Minha crítica maior é ao modo ostensivamente egoísta que ele foi escrito. Se é um livro de auto-ajuda, ok, já li muitos bons, sensíveis. Mas tudo leva a crer que se você quer mudar de vida, aproveitar melhor seu tempo, seria para ser vitorioso, rico, poderosamente um profissional tal...eu não me pauto pela minha profissão somente e meu interesse genuíno na técnica seria para ajudar a equilibrar todas tarefas que gostaria de fazer, unindo bem-estar emocional/físico e a sensação de dever cumprido. Portanto, achei agressivo o foco no sucesso - algo que pode ser subliminar - e ao mesmo tempo o excesso de citações de livros de possíveis amigos do autor, me dando a impressão de uma panelinha parecida com o que se vê atualmente na internet, onde todo mundo é o "bonzão" em alguma coisa, baixe meu e-book que eu vou te mostrar passo-a-passo...Ainda devo reler o livro e anotar algumas coisas, mas a sensação é que o caminho que explorarei sozinho vale mais, haja visto que todo o livro volta ele pra um cadastro em um site, certamente algo que eu não pedi e nem quis quando adquiri o livro. Talvez eu tenha vindo com muita expectativa, mas não creio.</t>
+          <t>Realmente tem de ser um para gastar tanto dinheiro num livro dessa qualidade...um apanhado de repetições e clichês de um filósoso que nem é filósofo de verdade...</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>historia meio fraquinha... Você já começa o livro sabendo como vai terminar, e ele não convence q o final realmente é a melhor opção. Mas vale a leitura porque vai sair filme com Emilia Clarke e Sam Clafin 😍</t>
+          <t>Promoção do Black Friday, que na verdade não era. Preço inclusive reduziu, além de estar acima de outros sites como submarino. Não tinha a info de que era pocket. Chegou com a embalagem rasgada. Burocracia para retorno e nenhum tipo de compensação pelos transtornos.</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>Comprei meu The kiss of decepcion aqui na Amazon e veio com duas páginas rasgadas além de uma página faltando. Quero saber se a empresa irá ao menos me enviar outra edição.</t>
+          <t>Querem que seus filhos se desenvolvam? ENTÃO NÃO COMPRE ESSA PORCARIA. O AUTOR, é péssimo, o conteúdo não é relevante. Deêm livros de verdade aos seus filhos.</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>Considero um livro escrito para idiotas. Pésssimo. Tive o prazer de queimá-lo.</t>
+          <t>O primeiro livro foi tão bem escrita , com o desfecho fantástico! Ai aparece esse , uma continuação contando a historia da Lou tão sem graça. Desnecessário ter escrito a continuação.</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>Pra mim isso nem pode ser chamado de livro. A garota não tem idade suficiente pra poder contar alguma coisa interessante e útil, já basta seu canal infantil com vídeos bobos.</t>
+          <t>Incrível e misterioso, logo, logo vou ler o segundo volume. É um livro muito bom , aqui em casa tem gente na fila querendo ler. Mas eu fui a primeira.</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>Comprovou aquilo que eu já previa, ou seja, que não havia mesmo conteúdo para um terceiro livro. Nada de novo na narrativa, apenas mais do mesmo. O primeiro livro da trilogia foi inovador, o segundo complementou o primeiro, porém já sem tanta novidade e o terceiro, pelo menos para mim, foi um verdadeiro fiasco. Só li por curiosidade, por ter lido os 2 anteriores e realmente não gostei. O final até que prendeu um pouco a minha atenção, porém 95% do livro não.</t>
+          <t>comprei livro e recebi uma amostra digital que me fez cancelar a compra. Haverá quem se identifique, não está na lista dos mais vendidos a toa. É bom saber do que se trata: reflexões de uma mulher sobre os próprios sentimentos; nada que extrapole para uma experiência mais universal ou mais profunda. As ideias giram todas em volta da frustração em não acertar com um homem, auto vitimizaçao e a eterna preocupação de que não estão lhe prestando a devida atenção ( fingi gozar e você nem percebeu, etecetera ) a autora parece ter sido estuprada, o tema do estupro volta sempre, assim como o problema em se relacionar com o pai. Autocentrada e superficial é um livro que só deve interessar quem se identifique com a cabeça dessa moça; como disse, não toca nenhuma corda que extrapole para o universal.</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>Apesar do enorme apreço que tenho por Mário S. Cortella, acredito que ele tenha sido pouco visionário ao escrever este livro. O livro mostra uma realidade unilateral dentro das empresas.</t>
+          <t>Favor corrigir a formatação do livro pois está péssimo para ler, não sendo possível ler na forma que está . portanto espero que a amzon corrija este livro que parece ser brilhante .</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>Muito longo, descrições repetitivas, acontecimentos improváveis e fortuitos, vai e volta na visão dos personagens muitas vezes desnecessario, repete trama de outras histórias.</t>
+          <t>Tudo que poderia falar de uma boa análise da Guerra do Paraguai e do surgimento do samba foi suplantado por um discurso superficial e rasteiro, da metade do livro em diante, parece um manifesto anticomunista. Sua defesa incondicional ao Golpe de 1964 foi algo desmedido e que, a meu ver, perdeu toda a relevância de uma pesquisa que virou pura retórica.</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>Eu li muitos comentários aqui reclamando da versão para Kindle que era muito ruim, com má formatação. Eu já peguei livros com ma formatação então não me senti incomodado com isso e comprei. O problema é que ele realmente é mau formatado de forma que impossibilita a leitura. De verdade! Você não consegue ter uma boa leitura de tantas palavras jogadas na tela de qualquer maneira, textos alocados em regiões da tela que não fazem o menor sentido e que parecem tentar te impedir de fazer a leitura de tão mau posicionados. Eu não recomendo a compra desse livro na versão para Kindle, ela é uma ofensa pra quem gasta dinheiro pensando que vai conseguir ler.</t>
+          <t>As dicas são boas, mas nada de novo, na verdade, são bem óbvias. Acredito que a maior parte das pessoas já as conhecem. No meu ponto de vista é um livro fraco, comprei mesmo pelo título.</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>Baixei uma amostra e achei interessante , e devo admirar como escritor teve coragem e falta de consideração com o leitor ao apresentar um serviço tão porco de formatação. Sabem qdo comprarei o livro todo? Nunca</t>
+          <t>É um livro baseado no fator motivacional e em um apanhado de técnicas um tanto desconexas. Há livros e autores muito melhores: Anthony Robbins, Paul Mackenna etc. Entre os brasileiros estão o Augusto Cury, o Shinyashiki e o próprio Lair Ribeiro. Um tanto confuso e desconexo, o autor é muito prolixo em sua escrita, talvez para justificar as intermináveis 256 páginas que, em uma linguagem mais concisa, objetiva e menos cansativa, passaria a mesma mensagem em menos de 100. Além disso é exagerado nas promessas que faz. Perde fácil para seus concorrentes.</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>Livro superficial, escrito para impressionar os leitores ignaros que apreciam uma leitura sensacionalista. Mistura fatos reais e inverdades. Não recomendo.</t>
+          <t>Comprei imaginando um guia moderno para Investir, mas pelo contrário é um "Clássico" , nada contra os clássicos mas o autor escreveu esse livro há muito tempo atrás.....</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>Adquiri a "edição comemorativa", na verdade uma edição econômica extremamente mal feita (4a. edição, 2015). Papel de baixa gramatura, péssima encadernação, as folhas estão desalinhadas, há cola na lombada e a fonte utilizada... bem,  a fonte utlizada é um total desrespeito ao leitor. Muito pequena, torna a leitura um esforço! Ao colocar esse produto no mercado a Editora Leya comete abuso, um desrespeito aos leitores e à obra em si. Lamentável, vergonhoso!</t>
+          <t>É um ótimo livro para quem é, e deseja ser um analfabeto político. É, também, perfeito para pessoas cheias de achismos como aquelas que chamam liberais de fascistas! Péssimo.</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>Eu também cheguei a entrar na página para comprar o livro em questão! Porém com avaliações como estas desisti da compra! Acho um absurdo uma empresa como a AMAZON estar ENVOLVIDA COM PIRATARIA ou mesmo comercializando um material incorreto, fraudulento e por sua vez DESRESPEITANDO O CONSUMIDOR! ABSURDO!</t>
+          <t>O diário de Anne Frank trata-se de uma farsa, uma obra de ficção, quem pretende ler o livro tem que ter isso em mente. "Depois que os falsificadores confessadamente admitiram que o famigerado "diário" nada mais é do que uma monumental impostura, alterada, deturpada e manipulada para transformar-se num dos grandes "best-sellers" mundiais, cabe aos nossos prefeitos, vereadores, deputados estaduais, federais e todos os responsáveis pelas áreas da educação, partirem para a ação, fazendo a única coisa cabível diante de tanta falsidade e infâmia: retirar o nome desta impostura da infinidade de praças, ruas, largos, teatros, colégios e outras instituições espalhadas por todo o país e pelo mundo. Há mais de uma década o catedrático francês, professor da Universidade de Lyon, Robert Faurisson, dissecou e desmascarou, científica e impiedosamente a impostura do chamado "diário" de Anne Frank. Usando a frieza da técnica investigativa, inerente a todo autêntico pesquisador histórico, Faurisson provou, através de infindáveis evidências, a manipulação na elaboração dos famosos "diários", além de desnudar o grande e fabulosamente rendoso negócio em que se transformou esta falsificação histórica. Um exemplo: só em direitos autorais, o pai da infeliz menina ( que morreu de tifo, enquanto seu -- saudável e milionário -- pai foi hospitalizado em Auschwitz e sobreviveu) recebe somas em todas as escolas! A estória desta publicação está repleta de brigas e demandas, entre o pai, o tio, os editores, o compilador, o "escritor fantasma", etc, todos de olho no filão interminável que representa a posse de seus direitos autorais." (...)</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>Lani escreve muito bem,não posso negar. Tem um talento maravilhoso, mais infelizmente não tem surpresa nos livros dela. É sempre a mesma história, mocinha se ferrando e homem arrogante se redimindo. Você já sabe como vai ser o livro todo, acho isso chato. Tem que ter surpresas, novas histórias. Parece que estou lendo os príncipes do Castelli novamento. Tudo sempre a mesma coisa. Mesmo assim está de parabéns.</t>
+          <t>Eu esperava um livro mais profundo pelas altas avaliações e comentários em geral, porém achei um livro muito raso, parece q você está lendo o diário do autor. O livro passa uma boa mensagem, porém para quem já leu vários livros de autoajuda, vai achar esse livro muito superficial.</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>A obra de Arthur Conan Doyale é simplesmente excepcional, está edição esta impecável. Recebi a encomenda antes do prazo previsto porém a caixa Box onde os livros vem está com a lateral totalmente amaçada um descuido que poderia ter sido evitado com uma melhor embalagem. Sempre compro livros no Amazon, porém desta vez fiquei decepcionada.</t>
+          <t>Compreendo o atraso enorme de quase duas semanas por causa da greve dos caminhoneiros, mas isso não justifica depois de tudo isso o livro chegar com a capa amassada e duas folhas amassadas. Sinceramente esperava mais.</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>Péssimo livro. Ao mesmo tempo que tenta vangloriar a raça humana equiparando-a a um deus, o autor demonstra o quão imperfeitos somos ao tecer comentários desrespeitosos e desnecessários, notadamente sobre o Cristianismo e a Igreja Católica, o que foge inclusive do escopo alegadamente científico do material. Ao contrário, trata-se, a meu sentir de inegável material (ainda que de forma sutil e muito bem mascarada) com viés ideológico (como tantos outros) que visa implantar a barbárie e uma era de fruição irresponsável e sem compromissos morais na esteira da absurda teoria de Marcuse e seus seguidores e que em nada contribui, efetivamente, para o progresso efetivo da sociedade humana. Ao apontar que praticamente tudo na história da humanidade não passaria de mitos ou invenções desse "homo" superior, o autor tenta usar a ciência de forma covarde e leviana para justificar suas crenças pessoais que não passam apenas de mitos para mim, afinal, posso acreditar em suas afirmações ou não, ou será que em algum momento desse livro ele trouxe alguma prova irrefutável da inexistência de Deus? Claro que não.</t>
+          <t>Não gostei, achei bem diferente do que esperava, e as poesias são fortes e negativas, não falam sobre amor, sobre a vida de um jeito bom, fala de uma forma dolorosa e assustadora</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>É um clássico, mas achei desnecessário vários trechos estarem em latim. Uma língua que muito pouca gente conhece e acho que devo ter perdido um pouco da trama. Não há necessidade ter tantos trechos em latim.</t>
+          <t>Não acompanho o youtube, talvez seja a falta dessa referência o quê me impediu de gostar desse livro. A linguagem é daquelas "miga, vamos bater papo" e realmente não gostei. Sem contar nas mil referências às habilidades econômicas da autora, que "economiza desde os 7 anos de idade". Achei um livro bastante cansativo e aborrecido.</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>Você fica o tempo inteiro esperando o livro começar e quando se da conta está na última página e nada aconteceu. Mais do mesmo ou seja NADA!!!</t>
+          <t>Eu amei o primeiro livro "Como eu era antes de você" e comprei o "Depois de você" ainda na pré-venda de tão ansiosa que estava. Achei esse livro super sem graça e previsível. A Lou conseguiu ir para o fundo do poço, mesmo com tudo que o Will deixou para ela. Ela poderia ter uma vida maravilhosa, mas acabou trabalhando num bar, sendo humilhada no serviço. A autora não tinha nada para inventar e apareceu uma filha do Will de um caso antigo. Achei  essa parte nada a ver, depois de tudo que ele passou, aí aparece a menina atrás do pai?!? E como era de se esperar, a Lou se apaixona por outro cara e aí vivem feliz para sempre. Não achei nada de emocionante nesse livre, nada comprado ao primeiro livro que amei.</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>Ganhei na compra do Kindle. Não é estilo de livro que gosto</t>
+          <t>Começou boa istoria, no meio um pouco enrolado, depois embromou no romance, dando para saber que o violão era o irmão mais novo! Mas é diferente, com um mundo novo, só por isso deve ser expandindo! Espero que o próximo seja melhor</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>Bom livro e história envolvente. Porém, o leitor terá que conviver com uma péssima edição, há diversos erros de português, mapas em baixa resolução, formatação desigual com mudança do tipo de letra dentro do capítulo, capítulos inseridos dentro de outros.</t>
+          <t>Escolhi esta classificação pois achei o livro muito fraco e esperava uma coisa completamente diferente pelas recomendações que recebi. É isso</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>Atenção, cito partes do livro nessa avaliação. Diria que o livro é semelhante aqueles vídeos de internet, os quais não é possível avançar, enquanto é dito para não parar de assistir, porque vai mostrar uma grande solução para sua vida. O autor vem de uma família rica em um país desenvolvido e conclui que conseguiu crescer na vida ligando o f*da-se. Ele utiliza de filosofias pré-existentes, incluindo orientais como budistas, mastiga e dá a própria interpretação correlacionando com situações como entrevistas de televisão, situações do seu país, na maioria das vezes, experiências da sua vida. O autor faz uso de valores que ao mesmo tempo que afirma não serem regrado, são altamente baseados no "sonho americano" como objetivo. O uso de técnicas de convencimento (sofisma?) está distribuído no livro em formas como falando em regras da vida como se fossem absolutas e em seguida diz que não devem ser usadas sempre, ou chegando a conclusões indiretas que parecem surgir como "premissas" para outras conclusões. Um exemplo é a ideia de que crianças aprendem a andar mesmo caindo várias vezes, levando o autor a concluir que "a aversão a fracassos e erros é adquirida posteriormente na vida". Dessa conclusão ele vai a outras, e assim o livro segue encaixando os pensamentos para explicar porque sua vida deu certo depois de tanto "dar errado" e porque você deve ligar o f*da-se. Acontece que existem interpretações de experimentos de psicologia sugerindo o contrário, que crianças também não gostam de fracassar. Nesse sentido, ao meu ver, o autor chega a conclusões absurdas que o levam a mais conclusões sem sentido, mas que fazem sentido em sua vida americana com suporte familiar, financeiro e de não temer o futuro. Assim segue todo o livro, utilizando de lógica, emoção e conclusões "salvadoras". Talvez ele sirva melhor para a cultura e o mundo dos países desenvolvidos, ou talvez eu que seja incapaz de enxergar esse livro para uma realidade brasileira. A realidade subdesenvolvida é diferente, as história de vida das pessoas são diferentes, a cultura e, seja para usar o livro como visão de mundo ou como mudança de vida, ele lida com uma realidade muito diferente. Ainda assim, apesar do livro tratar de pensamentos de outros como se fossem do próprio autor, ele cita outros pensadores e algumas coisas produtivas para confirmar suas conclusões. Esses são trechos bons do livro. Por exemplo o trecho que fala sobre ação e inspiração é interessante. Enxugando todas as distrações, autobiografia e opiniões baseadas no cotidiano estadounidense, vindo de uma família rica, que teve suas dificuldades superadas "ligando o f*da-se", existe algum conteúdo que pode ser extraído dele. A impressão é que o autor escreveu esse livro pensando nele/pessoas semelhantes como público. Quem se identificar mais com o autor, possivelmente vai se identificar mais com o livro. Tendo então uma cultura semelhante aumentará as chances disso. Enfim, talvez tenha tido uma expectativa alta de mais sendo um best seller e ouvindo recomendação sobre o livro. Porém, para quem interessar, conheço pessoas que são leitores assíduos e gostaram do livro. Então, claro que depende do gosto e, afinal, é um best seller.  Infelizmente, esta foi minha experiência com o livro do "pastor" Mark Manson: "Ligar o foda-se (...) vai nos salvar".</t>
+          <t>Apesar de não ter concluído o livro, posso afirmar que pelo menos até metade do livro a história não evolui.... achei muito fraco por se tratar de um livro de terror, pois é muito enfadonho e cansativo.... pelo menos até o ponto que li, não vi sequer um fiapo de ação, nem de suspense e nem tampouco de terror... totalmente decepcionada...</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>O box é bonito, mas a qualidade do material dos livros é bem baixa. Folhas finas , fica a sombra das letras da página de trás , que atrapalha a leitura.Capa também é fina. Se você liga pra qualidade não recomendo, mas se liga mais pro preço vale a pena.</t>
+          <t>O pedido veio rápido, os livros são maravilhosos, porém o box veio em péssimas condições. Parece que caiu água nele, e estufou todo o material, como mostram as imagens. As pontas estão destruídas, com certeza caiu no chão em algum momento. Estou frustrada com a minha primeira aquisição na Amazon.</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>Olavo é um fanático religioso que encontrou público farto para ler sua pseudo-obra. Uma destilação de senso comum com mesclas de ódio, preconceito e discurso autoritário. Triste.</t>
+          <t>Comprei este livro para minha amiga, ela o escolheu. Só que comprei errado na minha conta. Fui lê-lo, já que o avia baixado no meu Kindle. Mas a história é muito ruim, como a protagonista se deixa vender. Que baixa auto estima. Que homem mais arrogante este Heitor. Que história absurda, para os dias de hoje e que "heroína"  sem amor próprio, submissa. Nem um pouco inteligente.</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>Versão digital está desorganizada. Eu estava lendo o livro a mais de 4 horas empolgado quando muitas coisas pararam de fazer sentido. Então vi que o capítulo 11 estava antes do capítulo 10, perdi até a graça de ler.</t>
+          <t>estou aguardando posição para resolver o meu problema, o livro é para uma criança que esta doente no hospital e fez aniversario nest eultimo domingo.</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>Apresenta-se como um livro de auto-ajuda mas quando você começar a ler vai ver que se trata de um livro sobre a história do hábito. Assemelha-se mais a um livro didático de faculdade. Penso que se o objetivo era trazer a técnica para incorporar determinado hábito a nossa vida o livro poderia ser reduzido em até 75%. A não ser que você seja um entusiasta que queria saber os primórdios do assunto, não recomendo.</t>
+          <t>Entrei num endereço sobre o ganho de um livro em Kindle no dia 30/3 escolho o livro e imediatamente ao fazer meu login o valor eh debitado do meu cartão! Um absurdo! Não queria comprar o livro! Solicito uma devolução imediata do valor!</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>Esse livro do Cortella é muito previsível e superficial, chegando quase a ser uma cópia de outras publicações clássicas nessa área da análise comportamental. Os hábitos que Cortella cita ao longo do livro são comportamentos que já são citados pela nossa avó. Outro  problema do livro é o fato de o autor fazer muitas conexões com pensamentos e filosofias de cunho socialista e esquerdista, acabando por ser extremamente parcial.</t>
+          <t>Primeiramente meu pedido nem veio,Mas me reembolsaram.</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>Para mim, parece ser uma fanfiction (muito) mal escrita. Infelizmente me deixei levar pelo nome, quando na verdade a autora dos livros de Harry Potter originais nem mesmo tocou ma história deste, apenas aprovou-o. Os novos personagens são mal apresentados e pouco desenvolvidos, a história é contraditória com os livros originais e peca horrivelmente com a memória dos personagens já existentes. Além disso, me soou como preguiçoso o jeito com o qual o autor Jack Thorne, ao invés de criar um enredo original (SPOILER), se apoia no enredo de Cálice de Fogo e também em outros acontecimentos da série original. Decepcionante.</t>
+          <t>O autor parece mais um missionário do que escritor. Usa de depoimentos para convencer aos leitores que seu método da certo... usa de rasos argumentos, nenhuma prova científica como referência a estudos etc. Péssimo autor. Já tentei ler outro livro dele e acontece a mesma coisa. Infelizmente gastei dinheiro e tempo com essa leitura nada produtiva.</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>Queria entender o porque não chegou ainda esse livro em minha casa. Fui até o correio daqui pra ver a estava lá mas eles disseram que a entrega de vocês não usam o correio da minha cidade, é algo próprio de vocês. Comprei esse livro a tempos, mas nada dele chegar. Obrigada</t>
+          <t>Livro imaturo demais, a kefera se acha uma experiente de vida, mas não sabe nem escrever algo que tenha nexo, fala tanta bobagem que chega dar pena</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>Comprei um box do Harry Potter e um do Percy Jackson em maio. Ambos chegaram nos prazos estipulados. Demorei a abrir o box de HP, ao começar a ler o segundo livro reparo que faltam ao menos 3 capítulos do livro. Fico muito decepcionado com esse tipo de situação e espero que aja algum tipo de ação da Amazon quanto a isso. Serei obrigado a conferir todos os livros e seus respectivos capítulos para ter certeza se há mais erros. Gosto muito do site e espero que tomem uma posição sobre isso.</t>
+          <t>a caixa veio rasgada e amassada, gostaria de uma caixa nova se possivel!! mas os livros estão em otimo estado.</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>A mensagem do livro da pra entender em 1 página, o resto é tudo enrolação e repetição desnecessária. Não comprem, procure na wikipedia o principio de Paretto que é o mesmo que ler esse livro, que não consegui nem passar das primeiras paginas.</t>
+          <t>Apesar de não influenciar no conteúdo do livro, não é esteticamente legal. Deveriam ter mais cuidado e conferir a qualidade antes de enviar qualquer produto.</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>O livro foi classificado como novo no site e chegou em péssimo estado, totalmente amassado como se fosse um livro com valor de 3 reais.</t>
+          <t>O livro não traz nenhuma novidade ou parte que mereça destaque, cai apenas no senso comum e no óbvio. É dispensável na sua estante</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>Logo nos primeiros capítulos é possível observar a doutrinação esquerdista do livro, mal disfarçada entre obviedades típicas de livros de autoajuda (nada contra, mas não acrescenta muito para quem espera algo da leitura além de um passatempo). Essa doutrinação parte de premissas falsas comumente usadas para justificar ideias socialistas, que não deram certo em lugar algum no mundo ao serem postas em prática.</t>
+          <t>Ganhei este livro de presente e foi com tristeza que terminei a leitura. Quanto tempo perdido! Livro fraquíssimo que subestima a inteligência do público jovem. O personagem principal é extremamente fraco e o final é rocambolesco e inverossímil. Não vale a pena o dinheiro e muito menos o seu tempo.</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>Veio amassado nas pontas</t>
+          <t>Decidi ler o livro por conta do filme. Imaginei que como o filme foi ótimo assumi que o livro seria fantástico... Tolo engano. Leitura muito chata, descrições extremamente cansativas de repleto de diálogos enfadonho. Não consegui terminar o livro... abandonei antes da metade. Definitivamente não recomendo.</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>Nao gostei, nem da formatacao nem do conteudo UM livro fraco. Esperava mais.Nao valeu o gasto.Nao recomendaria.PErcebi uma tendencia bem grande em defesa da direita no Brasil</t>
+          <t>Sim.adorei o livro Vou continuar a comprar o resto da coleção Muito emocionante esta saga.Melhor di que a minisserie da tv</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>É  um livro só de exemplos, os exemplos são repetitivos, leitura pesada, entediante. É muito marketing para os americanos. Autor fez a junção de pesquisas somente .</t>
+          <t>Comprei o livro baseado  na qtd de avaliações acima da média. Resultado: Decepção total. Livro cheio de clichês e dicas mais rasas que frases motivacionais no facebook. Não vale a pena a leitura.</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>Muito chato. Até parece que se eu fizer tudo aquilo estarei rico e feliz....</t>
+          <t>Terminei de ler o livro sem saber dizer o que me acrescentou. De toda forma, para quem gosta de uma leitura fluida, com temas repetitivos, pode trazer algumas horas de distração.</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>O livro é muito chato, enrola muito. Apesar de conter algumas dicas que podem funcionar, o livro caberia perfeitamente em 10% das suas páginas.</t>
+          <t>Num mosteiro italiano em 1300, ocorreram algumas mortes misteriosas e um ex inquisidor começa a investigar as ocorrências. Há muito mistério envolvendo a biblioteca e suas obras, cujo acesso é feito apenas por um monge bibliotecário. Quando o investigador acessa a biblioteca, descobre que ela é feita na forma de um labirinto e com diversos artifícios para complicar seu uso, como espelhos que deformam a imagem, incensos que geram alucinações e passagens de vento que geram ruídos macabros. O livro tem longas citações em latim, que não são traduzidas e, além disto, há muitas digressões filosóficas que não agregam interesse e nem valor a estória. As relações entre os monges e o modo com o mistério é apresentado não prendem a atenção do leitor. Entediante.</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>Nada de interessante, muito fraco a unica coisa que achei razoável foi, leia sem parar, não fique retornando a leitura, pois assim será mais compreender o texto lido. Um livro inteiro para dizer isto, hora faça-me o favor.</t>
+          <t>Delírios paranoicos para pessoas idiotas. Se é um livro para não ser um idiota automaticamente é para idiotas. O autor deve ficar dando risada, pois tantos idiotas compram esse livro!</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>O livro tem um otimo comeco intrigante, que te cativa. Mas é ladeira abaixo... O final é completamente decepcionante, as pistaa ao longo da leitura jamais dao a entender o real plot. Sinceramente, o livro é uma introducao a serie, mas que poderia ser resumido em um capitulo, flashbacks ou mesmo lancado apos, como uma "prequeal".</t>
+          <t>Leonardo DaVinci foi um artista revolucionário. Nenhuma dúvida quanto a isso. Mas o autor consegue transformar sua história numa chatice repetitiva que não empolga além dos dois primeiros capítulos. Ao optar por se debruçar nas páginas dos cadernos de Leonardo, Issacson escolhe informações muitas vezes absolutamente irrelevantes que parecem estar ali não para dar uma ideia de quem o artista era, mas apenas para encher páginas e repetir informações que em muitos casos já foram dadas em momentos anteriores do livro. Além disso, as análises minuciosas de muitas das obras de Leonardo acabam ficando desinteressantes - talvez porque eu não seja um grande conhecedor de arte - e também muitas vezes chatas, fazendo com que a leitura se arraste. Desconfio que o próprio Leonardo, assim como eu, teria largado o livro pela metade e procurado algo mais interessante para ler.</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>O livro fala de um contexto bastante interessante, porém de maneira muito superficial... Poderia ter enriquecido com exemplos de como exercitar cada um dos pirncipios...</t>
+          <t>Infelizmente esse box não veio em perfeitas condições. Veio cheio de cola nas lombadas e em algumas capas também. Já solicitei a devolução do produto :( Esse box tava num preço super barato, por isso a qualidade é bem inferior. Tem um tamanho de bíblia pequena e as folhas são muito transparentes, da pra ver o texto do outro lado. Quanto ao prazo de entrega da Amazon foi excelente. Chegou super rápido em casa, pena que não veio em perfeito estado.</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>para esse pessoal qualquer chama de orgulho a pátria vai se transformar na volta de algum ditador ,isso demonstra a banalização de termos como '' fascista '' nazista'' etc que vemos ser usadas diariamente nos dias de hoje para todos que discordadão da opinião do establishment , e a forma com que o livro é super recomendado por essas entidades só demonstra isso com mais força.</t>
+          <t>Livro tendencioso. Democracia não é só quando a esquerda está no poder. Aqui no Brasil a democracia estava em jogo assim como a liberdade da mídia caso o PT tivesse ganhado. PT não é direita.</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>É basicamente uma dessas auto-ajudas requentadas da melhor qualidade. Ao ler, você fica com aquela vibe positiva que você ficaria lendo qualquer outro livro de auto-ajuda mas o autor é extremamente redundante com o merchandising do site dele. É como se o livro fosse um panfleto que você pega na rua e lá está o endereço do site pra você ir (eu não fui). Mas enfim, o livro dá sim algumas boas ideias para melhorar a produtividade mas certamente não vale o preço que se paga por ele.</t>
+          <t>Porque não estão vendendo a versão em e-book kindle do volume 1 e do restante da série? Qual a dificuldade?</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>Fiquei indignado ao saber que a edição digital está diferente da versão impressa, conforme informado pelo leitor Ricardo. Como consequência, devolvi o e-book com a solicitação da devolução do quantia paga. LAMENTÁVEL.</t>
+          <t>Fiquei muito na dúvida se postaria ou não algo sobre esse livro, porque eu não queria propagar opinião “negativa” de um livro escrito por mulher. Mas, por outro lado, deixar de comentá-lo seria hipocrisia da minha parte, pois estaria apenas com medo do que as pessoas vão pensar de mim. Sendo assim, deixei o medo de lado e escolhi optar por deixar registrada a minha opinião sobre a obra. É fato que a autora conseguiu deixar bastante claras as suas opiniões usando uma pequena frase. Ela consegue deixar um nó na garganta do leitor, incomoda, dói e te faz pensar: essa menina passou mesmo por tudo isso? Essa pergunta acontece porque parece tão real, tão cru o modo como ela fala das coisas do coração, corpo e alma. Eu fiquei preocupada com ela em vários momentos, sério. A Rupi Kaur é uma poetisa da geração instapoesia. Bom, foi exatamente por esse motivo que eu não gostei do livro. E tudo bem! Não sou menos feminista por causa disso, eu apenas gosto de outros jeitos de poesia. Porém, apesar de não curtir muito a instapoesia, não sou estúpida de achar esse um livro sem relevância. Eu super acho incrível saber que de um modo simples e rápido as pessoas de qualquer parte do mundo têm a oportunidade de conhecer assuntos como empoderamento feminino, amor, violência contra mulher e autoestima. Tudo isso é valioso para o momento histórico-social que as mulheres estão enfrentando. (Clube Nem Tudo é Ficção)</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>Ilegível, mal formatada, comparem com a versão impressa da Editora 34 e chorem... Infelizmente nenhuma tradução decente está disponível em formato digital. É uma lástima, uma pena que a Editora 34 não nos ajuda.</t>
+          <t>Livro sem nenhuma coisa de diferente. Autor bastante jovem e do "auto de sua experiência "aos 30 anos quer descobrir o segredo da vida. Totalmente dispensável o livro</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>O que significa best seller? Algo que vendeu muito, só isso! Não implica necessáriamente qualidade. Um bom marketing é suficiente para tornar qualquer besteirol um best seller. Este livro não passa de mais um entretenimento, como ler Admirável Mundo Novo. Cheio de falácias e contradições, apela ao científico para sustentar posições questionáveis. Para quem busca conhecimento, é uma perda de tempo ler opiniões pessoais de um autor frustrado com o mundo.</t>
+          <t>Conseguir ler um pouco do livro, e nesse pouco se vê outros ângulos de "verdades" históricas ao qual estudamos na escola, e muitas concepções sobre a America latina foram mudadas após o livro. Mas, como disse, consegui ler um pouco, a diagramação está tão ruim, bagunçada, disforme, que foi, ao menos no meu caso, continuar a leitura. Pior que o livro se encontra "perdido", meses e a loja não corrige o problema, o que teoricamente é muito fácil de se fazer, bastava uma atualização. Minha única estrela não é referente ao conteúdo do livro e sim sobre este problema relatado, e é dado no intuito de que a loja veja e corrija o problema.</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>Apesar de alguns insights bacanas, o livro é bem fraco e superficial, usa metáforas baseadas na bíblia, deus e etc, o que eu acho bem limitante, parte de pressupostos meio falaciosos, parece meio direcionado para o público "família cristã de classe média". Se quiser algo mais substancial, indico os livros do Anthony Robbins sobre PNL, já dá pra formar uma boa base sobre o assunto.</t>
+          <t>O livro não possui nenhum exercício ou método que realmente auxilie na leitura dinâmica. O valor é baixo, mas não vale nem esse tanto.</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>O box veio rasgado e não gostei porque parece descaso com o que eu comprei, as extremidades toda machucada. Não gostei do estado que chegou, mas os livros são bonitos</t>
+          <t>Não recomendo. Honestamente não recomendo. O conteúdo é super interessante, mas a diagramação não foi feita. A história se perde, inicia uma história no meio da outra e "do nada" a história retorna. A Amazon deveria excluir livros assim. Editora, não existe diagramação para kindle? Sério que vendem dessa forma? Foi muito triste.</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>Desculpem, mas achei deprimente e não me ensinou muita coisa. Não gosto de finais clichês, mas acho que faltou dar continuidade à história. Do jeito que acabou, foi apenas...triste.</t>
+          <t>Está em minhas mãos a Comédia publicada pela Clássicos Jackson em dois volumes, data de 1949. Fiquei feliz ao descobrir que a tradução de Xavier Pinheiro foi novamente editada. No entanto, ao observar os comentários e o número de páginas, descubro, para a minha surpresa, que a nova edição tem pouco mais de quinhentas páginas. Ora, os dois tomos de 1949 juntos somam quase oitocentas páginas, ou seja, os comentários foram deixados fora da nova edição? Cada canto tem, no mínimo, duas páginas de comentários, em letras bem pequenas. Caso fosse feita uma edição adequada, corrigindo o tamanho da letra, com gravuras inseridas na obra com tamanho adequado, espaçamento, penso que se chegariam a mil páginas. Não vou comprar essa nova edição, continuarei com a minha, de 1949, velha, mas com conteúdo integral.</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>A tradução é péssima! Contém erros crassos de português , e o enredo é romanceado demais, não vale a pena</t>
+          <t>O livro é escrito por um dos mais reacionários jornalistas brasileiros, com o objetivo claro de enaltecer todos os personagens históricos com posicionamento de direita e desmoralizar os personagens que possuem pensamento de esquerda. O livro tem um ótimo título e uma capa muito bem feita, o que nos leva a ler. Porém, a medida que foi prosseguindo a leitura, comecei a perceber o seu forte conteúdo ideológico desfaçado e procurei pesquisar quem era o autor, para entender o seu objetivo. O livro não é baseado em fontes confiáveis e apenas "pinça" fatos não comprovados para confirmar teses muito questionáveis. Não percam o seu tempo com este lixo!!!</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>Venderam um produto que não tinham para entrega. Me deu muita força de cabeça para fazer estorno no meu cartão de crédito</t>
+          <t>Ótimo livro, porém veio bem danificado. Páginas dobradas e disformes além da capa amassada. Péssima editora, deixa a desejar na qualidade dos livros.</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>Estava muito empolgada com 90% do livro. As coisas começaram a ficar absurdas a partir daí e em determinado momento eu chequei na internet para ver se determinada cena realmente existia no livro ou se eu tinha baixado o livro errado, uma fan fic ou algo assim (infelizmente o livro realmente contém a tal cena, totalmente desnecessária e sem sentido). As coisas ficam tão surreais que você deixa de ter medo e o que estava empolgante só deixa você com vontade de terminar logo, já que você já chegou até ali mesmo.</t>
+          <t>Nossa... mesmo pulando páginas e páginas o livro é cansativo. Estou tão cansada que não vou escrever mais nada, não recomendo!&amp;amp;</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>Lani Queiroz escreve bem, gosto muito da escrita dela, li todas as séries anteriores... mas este, apesar de bem escrito, enredo muito lento, chato, discorrendo os pensamentos dos personagens longamente a mesma coisa... para esta estória, não precisava o livro ter tantas páginas...li até o final porque já sou fã da autora, mas parei muito e pulei muitas partes... o sexo apesar de quente, também não tem muita variação... não entendo uma classificação tão boa se tem situações que facilmente poderiam ter sido um "copia e cola" de outros livros, citaria um de outra escritora com tranquilidade aqui... mas enfim, achei necessário escrever esta avaliação porque gosto da escritora, mas neste livro, infelizmente penso que se perdeu.</t>
+          <t>Um dos meus livros veio todo amassado.</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>Olá, Recebi uma notificação por email que não foi possível entregar meu pedido.  Solicitava também fazer alguma alteração no endereço.  O link não direcionava para o campo correto, tive que adivinhar o que fazer.  Eu a fiz.  Após isso, a Amazon esta retornando o pedido e me dará o crédito.  EU AINDA QUERO O LIVRO.  Adicionei 2 outros endereços onde poderiam me enviar.  Outro problema, não encontro onde posso fazer essa reclamação no site, ou quem pode me ajudar!!!!</t>
+          <t>Solicitei meu pagamento em 4 x e quando fui ver os detales da fatura do meu cartao para o proximo pagamento veio a surpresa desagradavel lançaram o valor total da compra ao inves da 1 parcela. Foi a primeira e a uktima vez que compro no site da Amazon decepcionada.</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>Sem conteúdo muito livro para pouco história.. E o do final da coleção deixa muito a desejar.. franco...</t>
+          <t>Edição de bolso, minuscula, sem orelhas folhas brancas. O conteúdo é o mesmo, mas por diferença de custo/benefício a edição de luxo compensa mais</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>O preço da versão digital deste livro é injustificável, pelo menos pra mim. Qual a vantagem de comprar este livro na versão digital, a um preço tão abusivo?</t>
+          <t>As ilustrações não corresponderam minhas espectativas descritas, tendo aparencia pequena em preto e branco no cantinho no inicio dos capitulos, achei horriveis, sinceramente comprei pelas ilustrações mas fiquei frustrada. Já tenho uma coleção Harry Potter em capa dura prefiro reler a coleção q já tenho.</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>O tema  parecia muito interessante e cheio de perspectivas.  No entanto, o desenrolar do livro é enfadonho.  É uma lástima comparar o livro com um thriller de Hitchcock.  Hitchcock não merece, é infinitas vezes melhor!  A compartimentação das trajetórias individuais dos personagens torna o livro chato, cansativo e desinteressante. O autor não consegue sequer traçar um perfil razoavelmente interessante de seus pretensos psicopatas bobocas.  Boa tradução.  Perda de tempo e dinheiro.</t>
+          <t>O livro é lindíssimo, perfeito, maravilhoso. Mas fiquei triste com a entrega. A jacket veio amassada na parte superior. São danos que não têm como reparar. Também há uma marca, uma linha vertical, como se alguma coisa pesada tivesse ficado em cima do meu livro, marcando a jacket e a capa dura. Não sei se o problema aconteceu na entrega, ou se o livro já estava assim quando embalaram. Fato é que os plásticos de proteção estavam apenas na parte superior da caixa, e não em volta dos livros que encomendei. Um outro livro também veio amassado, porém não liguei muito pois não é valioso como esta versão ilustrada de Pedra Filosofal. Sinceramente não sei se comparei a próxima edição ilustrada na Amazon. As vezes vale a pena pagar mais caro porém comprar na loja física, atestando as condições do produto.</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>Parece mais o trabalho de um garoto de escola primária querendo impressionar o professor. Fraco, mal elaborado, não informa nada, mostra-se a léguas da promessa do título.</t>
+          <t>Recebi o produto todo amassado, e com páginas dobradas e marcadas. Não valeu a pena. Foi de péssima qualidade o serviço.</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>Bobagem, 70% do livro são descrições de "trepadas". A estória em si é igual a milhares. A personagem feminina ainda existe, a masculina é um sonho de adolescente.</t>
+          <t>surreal este preço... depois reclamam que ebook não vende no Brasil. Ridículo! Ainda mais quando se compara com o preço dos EUA. Sem chance...</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>Veio com um problema na imagem da capa e vendo as outras críticas isso parece ocorrer com frequência. Não o recomendo para ninguém.</t>
+          <t>Partindo do fundamentalismo cristão e de ideias conservadoras, Olavo de Carvalho pinta um mundo repleto de conspirações globais que ameaçam desde os valores morais que ele acredita e prega até suas preferências sexuais. Incutir o medo é uma constante no pensamento completamente enviesado deste senhor que já foi astrólogo, jornalista e se considera um pensador de direita, embora nunca tenha frequentado o meio acadêmico ou ter tido sua obra reconhecida por outros intelectuais.  Uma grande perda de tempo se considerarmos tantas obras de real valor para diminuir o número de idiotas no mundo.</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>Quando comprei esse livro fui com uma grande expectativa e ela não foi atendida, muito menos superada! Até certa parte o livro é bacana, é quase como um tapa na cara, me identifiquei com algumas situações que o autor passou, mas depois a leitura vai ficando repetitiva e cansativa.</t>
+          <t>O livro é 10% infos úteis e 90% encheção de linguiça: traz algumas perspectivas interessantes acerca de métodos de prouditividade, mas é muita enrolação e repetição desnecessária, além de o texto apresentar qualidade bastante questionável.</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>Livro bastante repetitivo, onde o autor se promove o tempo todo. Não acrescenta muito, acredito que é possível aprender o conteúdo do livro através do site do autor, em menos de 1 hora, evitando o desperdício de tempo na leitura do livro. Não vale o preço.</t>
+          <t>Os fatos históricos relatados dão conhecimento de uma época do desenrolar de fatos mundiais que não vivi e o livro, embora romanceado (o que não deixa a leitura enfadonha) trouxe vasto conhecimento dos fatos. A forma relatada e seu conteúdo prendem a pessoa a leitura. O livro é importante e deveras interessante.</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>Trata de modo superficial o tema da velocidade na leitura. Serve apenas como um primeiro contato com a ideia de leitura dinâmica.</t>
+          <t>Não li os comentários antes de começar a ler o livro, pois já li outras história da nana e gostei bastante. Consegui chegar até o meio da história, mas o protagonista não é cativante e é extremamente abusivo, estúpido, grosseiro com a mocinha, a força a um sexo bruto e conta sua vontade, o que caracteriza claramente um estupro. Não se importa nem um pouco em como ela se sente, inclusive a trai sem nem achar que é traição, nada menos do que ele merece. E a avó dele criando um monstro, ridículo criar um ser humano prepotente assim, mas entendo que essa parte seja parte do enredo. Já os estupros romantizados não consegui engolir. A nana errou a mão, o triste é que eu estava interessada mesmo no segundo livro, mas acho que não tenho nem ânimo pra lê-lo</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>Muito cansativa a leitura. Muitas voltas para falar algo mais específico. Nao achei muito didático porque o autor fala muito de si e das próprias experiências. Não recomendo</t>
+          <t>O objetivo oculto do livro é atacar Donald Trump, mascarado de dissertação sobre como as "democracias podem morrer". A esquerda americana está louca por causa da eleição de Trump. Antes eles estavam acostumados com presidentes republicanos (o partido do Trump) centristas e em cima do muro, do tipo que faz o jogo da esquerda, como aqui o PSDB e MDB; agora que tem um que diz na cara as verdades, e não se mixa para o politicamente correto (pérola da esquerda), eles fazem de tudo para caluniá-lo e desacreditá-lo. Além disso, o autor Letvinsky já andou dizendo bobagens em entrevista, afirmando que Jair Bolsonaro é uma ameaça. AMEAÇA são os esquerdistas que fizeram o atentado à faca contra Bolsonaro, em que logo em seguida apareceram 4 advogados para defender o criminoso, ex-membro do PSOL (provavelmente tem gente muito grande por trás deste atentado, e o negão que enfiou a faca, é um marionete fanático de esquerda). Além disso, o livro defende que nas eleições americanas seja instituído o voto obrigatório (isto sim é anti-democrático e mata a democracia!!!). Que contradição!!! Notei também que o livro tem os ridículos vícios de aportuguesamento de palavras: Ganguêês ao invés de gangs; só que quando é gangsterismo eles não escrevem GANGUESTERISMO ---o português escrito tem decaído anos para cá. Portanto, caro leitor, não gaste seu dinheiro com este lixo.</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>Comprei esse livro (todo seu ) paguei a fatura e até hoje o livro não chegou😥quero meu livrooooo estou no aguarde a mais de sete meses</t>
+          <t>Incrível como um e-book que custa US$9,99 na amazon internacional, venha custando R$90,00+. Não entendo como conseguem vender com preços tão abusivos.</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>Particularmente não sou de livro de auto ajuda, porém de tanto ouvir falar nesse livro acabei comprando (ainda bem que foi numa promoção). O livro não tem nada de diferente, achei uma leitura chata e sempre o mais do mesmo. Tudo que sabemos mas que não praticamos na maioria das vezes. Dei duas estrelas pela capa, achei a melhor parte do livro.</t>
+          <t>As afirmações do autor, que é historiador, não têm bases científicas. São suposições baseadas em realidades que às vezes parecem existir apenas na mente do autor. Como por exemplo a afirmação de que a religião morreu. As atividades dos radicais islâmicos mostram o contrário (já ouviu falar do ISIS?). Outra afirmação, de que felicidade e tristeza são problemas técnicos e portanto serão solucionáveis via medicamentos e engenharia genética, não explica porque, com o passar do tempo e todo o avanço das biociências, os consultórios dos terapeutas têm ficado mais cheios (sem falar em todos os problemas com drogas). Para finalizar, o mote do livro é que a evolução humana, com todo o aparato técnico que teríamos, acabaria por nos transformar de humanos em deuses. A história lembra que todas as idéias desse tipo  sempre terminam com um grupo que tenta se sobrepor aos outros (lembra dos nazistas?). O melhor é que tenhamos avanço científico sim, mas os homens continuem a serem homens e as mulheres a serem mulheres.</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>Poemas curtos e muito rasos. Pensei que encontraria ideias mais profundas, com mais conteúdo. Alguns poucos poemas são belos e passam sentimentos</t>
+          <t>Comprei um Kindle e fiz a assinatura do Kindle Unlimited  justamente para ler a saga. Quando acabei de ler Cálice de fogo, estava muito empolgado para começar o quinto livro. Porém, não está disponível. Pelos comentários que há nas avaliações, já faz um bom tempo que não há como ler a Ordem da Fênix. Não vou esperar a boa vontade da Amazon de disponibilizar o título. Vou comprar a versão impressa em alguma livraria para não perder o fio da meada. Obviamente não comprarei na Amazon, pois me parece bem suspeito esse suposto erro na edição virtual. Me fez ter a impressão de que para além de pagar o Unlimited, se eu quiser continuar lendo terei que adquirir a versão impressa.</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>Leitura para adolescentes, pobre em detalhes, aborda tema seríssimo, que exige orientação e assessoria especializada de psiquiatra especializado, o que foi pobremente abordado. O autor é excelente em descrição de emoções momentâneas e a leitura é facil, mas achei o livro depressivo. Bom para reflexão.</t>
+          <t>Custa crer que um livro tão medíocre, embora minha avaliação se reduza às primeiras dezenas de páginas que resisti ler, tenha feito tanto sucesso! Cada vez mais parece que nossa civilização consumista se restringe a perceber as coisas e não refletir sobre elas. Em todo caso, um ponto positivo do livro: conhecidos meus que nunca leram um livro, desde os tempos de colégio, 'adoraram' os cinquenta tons, e quem sabe assim adquiram o hábito de ler. Com sorte vão ler alguma coisa realmente válida.</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>Achei ridículo! Eu realmente esperava uma historia que tivesse sequencia para os personagens. Achei que toda a historia ficou entre aspas. Sinceramente achei que "encheu linguiça" e não completou a historia.</t>
+          <t>Que história chata! Personagens chatos, diálogos infantis... Parece ter sido escrito por uma menina de 12 anos! Horrível!!!</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>As ideias são boas, mas, nem todas, algumas são muito filosoficas. Vale para quem é afixionado em filosofia. Outras ideias são realmente bem legais. So que isso não é um livro encadeado, e uma coletanea de textos desconexos um com o outro.... Eu parei de ler antes da metade.</t>
+          <t>Tão contraditório que parece ter sido escrito por um adolescente. Incrível como alguém com experiência em escrever não perceba a falta de coesão entre as ideias do livro. Começa se posicionando como uma espécie de anti auto ajuda e acaba sendo o auto ajuda mais pesado que eu já li. Pontos pelo estilo dinâmico da escrita e por em alguns momentos no meio do amontoado caótico de ideias conseguir fazer o leitor refletir. Vale a pena a leitura, só não deve ser uma prioridade de escolha e muito menos ser considerado ao pé da letra.</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>Esse livro é cheio de afirmacoes sem embasamento; se você acrrdita em mensagens do tipo "vai a luta", "deus ajuda a quem cedo madrugada"essas coisas, pode encarar o livro.  No meu caso, buscava algo mais cientifico.</t>
+          <t>George Orwell tem um texto em que ele diz que o livro que ele mais lia na infância era As viagens de Gulliver. Hoje os livros infantis são apenas e exclusivamente para entreter sem que isso proporcione o desenvolvimento da criança.</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>O pedido chegou atrasado 3 dias e quando recebi, a caixa veio rasgada nos dois lados. É um absurdo fazer uma compra cara para obter um produto danificado, o sentimento de frustração é grande. Apesar de terem resolvido comigo um valor de reembolso (baixíssimo) pelo dano, não repara o desagrado jamais! É uma pena que os produtos comprados não tenham o cuidado devido e nem uma fiscalização para perceber o dano antes de chegar nas mãos do cliente. Sem duvidas não recomendarei a compra online pela AMAZON para ninguém, principalmente se for coleccionador.</t>
+          <t>Pessoal, vocês vão me desculpar, mas a resenha parece a história daquele filme com a Julia Roberts e o Campbell Scott com a música do Kenny G, "Tudo por Amor".</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>O tema do livro é ótimo porém o autor é redundante e repetitivo no decorrer do texto.  Ele deveria aplicar o conceito que defendeu no livro e ser mais sucinto.</t>
+          <t>O livro é excelente porém chegou todo amassado as minhas mãos, visto que não fiquei satisfeita devido a ser um produto com preço relativamente caro, embora tenha valido a pena. Gostaria de saber a possibilidade de substituição do mesmo. Nunca tive problemas com as entregas de vocês.  Estou bem decepcionada. Grata. Carla Bruzetti</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>O livro é excelente no primeiro terço, porém, a partir desde ponto vai ficando cansativo. Creio que a parte evolutiva é bastante interessante, ao passo que a análise do hominídeo em sociedade é desnecessária.</t>
+          <t>O livro é de auto-ajuda e deveria ser vendido como tal!!! Não gostei! Alem de ser muito, mas muito repetitivo!!!!!!!!!!!</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>Simplesmente odiei com todas as minhas forças!</t>
+          <t>A história em si é boa, mas é bem cansativa. Tentei ler três vezes, e só com muito foco consegui terminar.</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>O mínimo que você precisa saber para não ser um idiota é saber que ler esse livro tem grandes chances de tornar você um idiota.</t>
+          <t>Estava tentando há dias continuar lendo sem que ficasse com um sono incontrolável. Não entendi muito no começo. Quando aparecem cenas dela tendo relações sexuais com um homem parei de ler, excluí e comprei outro livro. Não sei qual o perfil de pessoas que gostaria de ler esse livro.</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>Gostei muito do livro. Prende a nossa atenção desde o início até ao final. Trabalho de pesquisa fantástico. Recomendo e avalio com 5 ( cinco) estrelas. Parabéns.</t>
+          <t>Como uma criatura dessas consegue ser um”Influenciador”? Fútil, sem conteúdo, vazio... meu sobrinho de 9 anos o assistia mesmo sob nossos protestos, semana passada ele disse que não ia mais assistir porque parecia que o Felipe ensinava as pessoas a serem “burras”! Essa foi a conclusão dele! Imagine o livro...</t>
         </is>
       </c>
     </row>

--- a/dados_treino.xlsx
+++ b/dados_treino.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\theok\OneDrive\Área de Trabalho\Projeto 1 Cdados 2023-2\Proj1_LEOTHEO_CDADOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1DABC26-7EE2-4601-AB6A-3394983D71E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC4100D2-CBE4-4CBA-B4CE-40DA77194A30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="300">
   <si>
     <t>Mensagem</t>
   </si>
@@ -920,9 +920,6 @@
   </si>
   <si>
     <t xml:space="preserve">Target </t>
-  </si>
-  <si>
-    <t>0 - Neutro; 1 - Positivo; 2 - Negativo</t>
   </si>
 </sst>
 </file>
@@ -996,10 +993,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1308,7 +1305,7 @@
   <dimension ref="A1:P301"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P294" sqref="P294"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.6" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1325,9 +1322,6 @@
       <c r="B1" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="C1" t="s">
-        <v>300</v>
-      </c>
     </row>
     <row r="2" spans="1:3" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
@@ -1360,6 +1354,7 @@
       <c r="B5" s="2">
         <v>2</v>
       </c>
+      <c r="C5" s="5"/>
     </row>
     <row r="6" spans="1:3" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">

--- a/dados_treino.xlsx
+++ b/dados_treino.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\theok\OneDrive\Área de Trabalho\Projeto 1 Cdados 2023-2\Proj1_LEOTHEO_CDADOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC4100D2-CBE4-4CBA-B4CE-40DA77194A30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4746249-E9AD-442E-AB68-9A4B3E1236E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -989,7 +989,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1000,6 +1000,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1304,8 +1307,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P301"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A189" workbookViewId="0">
+      <selection activeCell="A204" sqref="A204"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.6" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1328,7 +1331,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -1336,7 +1339,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -1344,7 +1347,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -1361,7 +1364,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -1369,7 +1372,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -1377,7 +1380,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -1393,7 +1396,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -1401,7 +1404,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -1409,7 +1412,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -1417,7 +1420,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -1425,7 +1428,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -1449,7 +1452,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -1457,7 +1460,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -1473,7 +1476,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -1489,7 +1492,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -1497,7 +1500,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -1513,7 +1516,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -1521,7 +1524,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -1545,7 +1548,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -1561,7 +1564,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -1569,7 +1572,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -1577,7 +1580,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -1585,7 +1588,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -1593,7 +1596,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -1609,7 +1612,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -1617,7 +1620,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -1625,7 +1628,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -1633,7 +1636,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -1641,7 +1644,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -1649,7 +1652,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -1657,7 +1660,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -1665,7 +1668,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -1673,7 +1676,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -1681,7 +1684,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -1705,7 +1708,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -1713,7 +1716,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -1729,7 +1732,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -1737,7 +1740,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -1745,7 +1748,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -1753,7 +1756,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -1777,7 +1780,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -1785,7 +1788,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -1793,7 +1796,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -1801,7 +1804,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -1809,7 +1812,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -1817,7 +1820,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -1841,7 +1844,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -1857,7 +1860,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -1865,7 +1868,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -1873,7 +1876,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -1881,7 +1884,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -1889,7 +1892,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -1905,7 +1908,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -1913,7 +1916,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -1921,7 +1924,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -1929,7 +1932,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -1937,7 +1940,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -1945,7 +1948,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -1961,7 +1964,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -1985,7 +1988,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -1993,7 +1996,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -2001,7 +2004,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -2009,7 +2012,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -2041,7 +2044,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -2049,7 +2052,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -2057,7 +2060,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -2065,7 +2068,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -2073,7 +2076,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -2081,7 +2084,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -2089,7 +2092,7 @@
         <v>96</v>
       </c>
       <c r="B97" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -2097,7 +2100,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -2105,7 +2108,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -2113,7 +2116,7 @@
         <v>99</v>
       </c>
       <c r="B100" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -2121,7 +2124,7 @@
         <v>100</v>
       </c>
       <c r="B101" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -2145,7 +2148,7 @@
         <v>103</v>
       </c>
       <c r="B104" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -2153,7 +2156,7 @@
         <v>104</v>
       </c>
       <c r="B105" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -2169,7 +2172,7 @@
         <v>106</v>
       </c>
       <c r="B107" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -2177,7 +2180,7 @@
         <v>107</v>
       </c>
       <c r="B108" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -2185,7 +2188,7 @@
         <v>108</v>
       </c>
       <c r="B109" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -2193,7 +2196,7 @@
         <v>109</v>
       </c>
       <c r="B110" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -2201,7 +2204,7 @@
         <v>110</v>
       </c>
       <c r="B111" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -2209,7 +2212,7 @@
         <v>111</v>
       </c>
       <c r="B112" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -2217,7 +2220,7 @@
         <v>112</v>
       </c>
       <c r="B113" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -2233,7 +2236,7 @@
         <v>114</v>
       </c>
       <c r="B115" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -2241,7 +2244,7 @@
         <v>115</v>
       </c>
       <c r="B116" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -2257,7 +2260,7 @@
         <v>117</v>
       </c>
       <c r="B118" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -2265,7 +2268,7 @@
         <v>118</v>
       </c>
       <c r="B119" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -2273,7 +2276,7 @@
         <v>119</v>
       </c>
       <c r="B120" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -2289,7 +2292,7 @@
         <v>121</v>
       </c>
       <c r="B122" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -2305,7 +2308,7 @@
         <v>123</v>
       </c>
       <c r="B124" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -2321,7 +2324,7 @@
         <v>125</v>
       </c>
       <c r="B126" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -2329,7 +2332,7 @@
         <v>126</v>
       </c>
       <c r="B127" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -2337,7 +2340,7 @@
         <v>127</v>
       </c>
       <c r="B128" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -2345,7 +2348,7 @@
         <v>128</v>
       </c>
       <c r="B129" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -2353,7 +2356,7 @@
         <v>129</v>
       </c>
       <c r="B130" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -2361,7 +2364,7 @@
         <v>130</v>
       </c>
       <c r="B131" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -2369,7 +2372,7 @@
         <v>131</v>
       </c>
       <c r="B132" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -2385,7 +2388,7 @@
         <v>133</v>
       </c>
       <c r="B134" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -2401,7 +2404,7 @@
         <v>135</v>
       </c>
       <c r="B136" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -2409,7 +2412,7 @@
         <v>136</v>
       </c>
       <c r="B137" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -2417,7 +2420,7 @@
         <v>102</v>
       </c>
       <c r="B138" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -2425,7 +2428,7 @@
         <v>137</v>
       </c>
       <c r="B139" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -2433,7 +2436,7 @@
         <v>138</v>
       </c>
       <c r="B140" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -2441,7 +2444,7 @@
         <v>139</v>
       </c>
       <c r="B141" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -2449,7 +2452,7 @@
         <v>140</v>
       </c>
       <c r="B142" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -2457,7 +2460,7 @@
         <v>141</v>
       </c>
       <c r="B143" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -2465,7 +2468,7 @@
         <v>142</v>
       </c>
       <c r="B144" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -2473,7 +2476,7 @@
         <v>143</v>
       </c>
       <c r="B145" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -2489,7 +2492,7 @@
         <v>145</v>
       </c>
       <c r="B147" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -2497,7 +2500,7 @@
         <v>146</v>
       </c>
       <c r="B148" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -2505,7 +2508,7 @@
         <v>147</v>
       </c>
       <c r="B149" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -2513,7 +2516,7 @@
         <v>148</v>
       </c>
       <c r="B150" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -2521,7 +2524,7 @@
         <v>149</v>
       </c>
       <c r="B151" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -2537,7 +2540,7 @@
         <v>151</v>
       </c>
       <c r="B153" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -2545,7 +2548,7 @@
         <v>152</v>
       </c>
       <c r="B154" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -2553,7 +2556,7 @@
         <v>153</v>
       </c>
       <c r="B155" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -2561,7 +2564,7 @@
         <v>154</v>
       </c>
       <c r="B156" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -2569,7 +2572,7 @@
         <v>155</v>
       </c>
       <c r="B157" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -2577,7 +2580,7 @@
         <v>156</v>
       </c>
       <c r="B158" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -2585,7 +2588,7 @@
         <v>157</v>
       </c>
       <c r="B159" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -2593,7 +2596,7 @@
         <v>158</v>
       </c>
       <c r="B160" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -2609,7 +2612,7 @@
         <v>160</v>
       </c>
       <c r="B162" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -2625,7 +2628,7 @@
         <v>162</v>
       </c>
       <c r="B164" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -2633,7 +2636,7 @@
         <v>163</v>
       </c>
       <c r="B165" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -2641,7 +2644,7 @@
         <v>164</v>
       </c>
       <c r="B166" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -2649,7 +2652,7 @@
         <v>165</v>
       </c>
       <c r="B167" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -2657,7 +2660,7 @@
         <v>166</v>
       </c>
       <c r="B168" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -2673,7 +2676,7 @@
         <v>168</v>
       </c>
       <c r="B170" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -2681,7 +2684,7 @@
         <v>169</v>
       </c>
       <c r="B171" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -2689,7 +2692,7 @@
         <v>170</v>
       </c>
       <c r="B172" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -2697,7 +2700,7 @@
         <v>171</v>
       </c>
       <c r="B173" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -2705,7 +2708,7 @@
         <v>172</v>
       </c>
       <c r="B174" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -2721,7 +2724,7 @@
         <v>174</v>
       </c>
       <c r="B176" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -2729,7 +2732,7 @@
         <v>175</v>
       </c>
       <c r="B177" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -2753,7 +2756,7 @@
         <v>178</v>
       </c>
       <c r="B180" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -2769,7 +2772,7 @@
         <v>118</v>
       </c>
       <c r="B182" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -2777,7 +2780,7 @@
         <v>180</v>
       </c>
       <c r="B183" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -2785,7 +2788,7 @@
         <v>181</v>
       </c>
       <c r="B184" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -2793,7 +2796,7 @@
         <v>182</v>
       </c>
       <c r="B185" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -2801,7 +2804,7 @@
         <v>183</v>
       </c>
       <c r="B186" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -2817,7 +2820,7 @@
         <v>185</v>
       </c>
       <c r="B188" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="189" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -2825,7 +2828,7 @@
         <v>186</v>
       </c>
       <c r="B189" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="190" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -2833,7 +2836,7 @@
         <v>187</v>
       </c>
       <c r="B190" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -2841,7 +2844,7 @@
         <v>188</v>
       </c>
       <c r="B191" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -2849,7 +2852,7 @@
         <v>189</v>
       </c>
       <c r="B192" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="193" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -2873,7 +2876,7 @@
         <v>192</v>
       </c>
       <c r="B195" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -2897,7 +2900,7 @@
         <v>195</v>
       </c>
       <c r="B198" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -2913,7 +2916,7 @@
         <v>197</v>
       </c>
       <c r="B200" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -2921,7 +2924,7 @@
         <v>198</v>
       </c>
       <c r="B201" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -2929,7 +2932,7 @@
         <v>199</v>
       </c>
       <c r="B202" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="203" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -2941,11 +2944,11 @@
       </c>
     </row>
     <row r="204" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A204" s="4" t="s">
+      <c r="A204" s="6" t="s">
         <v>201</v>
       </c>
       <c r="B204" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="205" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -2953,7 +2956,7 @@
         <v>202</v>
       </c>
       <c r="B205" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="206" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">

--- a/dados_treino.xlsx
+++ b/dados_treino.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\theok\OneDrive\Área de Trabalho\Projeto 1 Cdados 2023-2\Proj1_LEOTHEO_CDADOS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://alinsperedu-my.sharepoint.com/personal/leonardoar2_al_insper_edu_br/Documents/Insper/3 SEM/CDADOS_2/Projetos/Projeto 1/Proj1_LEOTHEO_CDADOS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4746249-E9AD-442E-AB68-9A4B3E1236E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="71" documentId="13_ncr:1_{E4746249-E9AD-442E-AB68-9A4B3E1236E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{53A28333-5632-42CC-AB8B-A2DF5BC50945}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -919,7 +919,7 @@
     <t>Como uma criatura dessas consegue ser um”Influenciador”? Fútil, sem conteúdo, vazio... meu sobrinho de 9 anos o assistia mesmo sob nossos protestos, semana passada ele disse que não ia mais assistir porque parecia que o Felipe ensinava as pessoas a serem “burras”! Essa foi a conclusão dele! Imagine o livro...</t>
   </si>
   <si>
-    <t xml:space="preserve">Target </t>
+    <t>Target</t>
   </si>
 </sst>
 </file>
@@ -989,7 +989,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1000,9 +1000,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1307,8 +1304,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P301"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A189" workbookViewId="0">
-      <selection activeCell="A204" sqref="A204"/>
+    <sheetView tabSelected="1" zoomScale="67" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.6" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2944,7 +2941,7 @@
       </c>
     </row>
     <row r="204" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A204" s="6" t="s">
+      <c r="A204" s="4" t="s">
         <v>201</v>
       </c>
       <c r="B204" s="2">
@@ -2964,7 +2961,7 @@
         <v>203</v>
       </c>
       <c r="B206" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="207" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -2972,7 +2969,7 @@
         <v>204</v>
       </c>
       <c r="B207" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="208" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -2980,7 +2977,7 @@
         <v>205</v>
       </c>
       <c r="B208" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -2988,7 +2985,7 @@
         <v>206</v>
       </c>
       <c r="B209" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -2996,7 +2993,7 @@
         <v>207</v>
       </c>
       <c r="B210" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -3004,7 +3001,7 @@
         <v>208</v>
       </c>
       <c r="B211" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="212" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -3028,7 +3025,7 @@
         <v>211</v>
       </c>
       <c r="B214" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -3036,7 +3033,7 @@
         <v>212</v>
       </c>
       <c r="B215" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -3044,7 +3041,7 @@
         <v>213</v>
       </c>
       <c r="B216" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -3052,7 +3049,7 @@
         <v>214</v>
       </c>
       <c r="B217" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="218" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -3068,7 +3065,7 @@
         <v>216</v>
       </c>
       <c r="B219" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -3076,7 +3073,7 @@
         <v>217</v>
       </c>
       <c r="B220" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -3092,7 +3089,7 @@
         <v>219</v>
       </c>
       <c r="B222" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -3100,7 +3097,7 @@
         <v>220</v>
       </c>
       <c r="B223" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -3116,7 +3113,7 @@
         <v>222</v>
       </c>
       <c r="B225" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -3124,7 +3121,7 @@
         <v>223</v>
       </c>
       <c r="B226" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -3140,7 +3137,7 @@
         <v>225</v>
       </c>
       <c r="B228" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="229" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -3156,7 +3153,7 @@
         <v>227</v>
       </c>
       <c r="B230" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -3164,7 +3161,7 @@
         <v>228</v>
       </c>
       <c r="B231" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -3172,7 +3169,7 @@
         <v>229</v>
       </c>
       <c r="B232" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -3180,7 +3177,7 @@
         <v>230</v>
       </c>
       <c r="B233" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -3188,7 +3185,7 @@
         <v>231</v>
       </c>
       <c r="B234" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -3212,7 +3209,7 @@
         <v>234</v>
       </c>
       <c r="B237" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -3220,7 +3217,7 @@
         <v>235</v>
       </c>
       <c r="B238" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -3228,7 +3225,7 @@
         <v>236</v>
       </c>
       <c r="B239" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -3244,7 +3241,7 @@
         <v>238</v>
       </c>
       <c r="B241" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -3260,7 +3257,7 @@
         <v>240</v>
       </c>
       <c r="B243" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -3268,7 +3265,7 @@
         <v>241</v>
       </c>
       <c r="B244" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -3276,7 +3273,7 @@
         <v>242</v>
       </c>
       <c r="B245" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -3300,7 +3297,7 @@
         <v>245</v>
       </c>
       <c r="B248" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="249" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -3316,7 +3313,7 @@
         <v>247</v>
       </c>
       <c r="B250" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="251" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -3324,7 +3321,7 @@
         <v>248</v>
       </c>
       <c r="B251" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="252" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -3332,7 +3329,7 @@
         <v>249</v>
       </c>
       <c r="B252" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="253" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -3340,7 +3337,7 @@
         <v>250</v>
       </c>
       <c r="B253" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="254" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -3364,7 +3361,7 @@
         <v>253</v>
       </c>
       <c r="B256" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -3372,7 +3369,7 @@
         <v>254</v>
       </c>
       <c r="B257" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -3380,7 +3377,7 @@
         <v>255</v>
       </c>
       <c r="B258" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -3388,7 +3385,7 @@
         <v>256</v>
       </c>
       <c r="B259" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -3396,7 +3393,7 @@
         <v>257</v>
       </c>
       <c r="B260" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -3412,7 +3409,7 @@
         <v>259</v>
       </c>
       <c r="B262" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -3420,7 +3417,7 @@
         <v>260</v>
       </c>
       <c r="B263" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="264" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -3428,7 +3425,7 @@
         <v>261</v>
       </c>
       <c r="B264" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="265" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -3436,7 +3433,7 @@
         <v>262</v>
       </c>
       <c r="B265" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="266" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -3444,7 +3441,7 @@
         <v>263</v>
       </c>
       <c r="B266" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -3452,7 +3449,7 @@
         <v>264</v>
       </c>
       <c r="B267" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="268" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -3460,7 +3457,7 @@
         <v>265</v>
       </c>
       <c r="B268" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -3468,7 +3465,7 @@
         <v>266</v>
       </c>
       <c r="B269" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="270" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -3476,7 +3473,7 @@
         <v>267</v>
       </c>
       <c r="B270" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -3484,7 +3481,7 @@
         <v>268</v>
       </c>
       <c r="B271" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -3492,7 +3489,7 @@
         <v>269</v>
       </c>
       <c r="B272" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -3508,7 +3505,7 @@
         <v>271</v>
       </c>
       <c r="B274" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="275" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -3516,7 +3513,7 @@
         <v>272</v>
       </c>
       <c r="B275" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="276" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -3524,7 +3521,7 @@
         <v>273</v>
       </c>
       <c r="B276" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -3540,7 +3537,7 @@
         <v>275</v>
       </c>
       <c r="B278" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="279" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -3564,7 +3561,7 @@
         <v>278</v>
       </c>
       <c r="B281" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="282" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -3588,7 +3585,7 @@
         <v>281</v>
       </c>
       <c r="B284" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="285" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -3596,7 +3593,7 @@
         <v>282</v>
       </c>
       <c r="B285" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -3604,7 +3601,7 @@
         <v>283</v>
       </c>
       <c r="B286" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -3612,7 +3609,7 @@
         <v>284</v>
       </c>
       <c r="B287" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -3636,7 +3633,7 @@
         <v>287</v>
       </c>
       <c r="B290" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="291" spans="1:16" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -3644,7 +3641,7 @@
         <v>288</v>
       </c>
       <c r="B291" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292" spans="1:16" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -3652,7 +3649,7 @@
         <v>289</v>
       </c>
       <c r="B292" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293" spans="1:16" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -3660,7 +3657,7 @@
         <v>290</v>
       </c>
       <c r="B293" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294" spans="1:16" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -3668,7 +3665,7 @@
         <v>291</v>
       </c>
       <c r="B294" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P294" s="5"/>
     </row>
@@ -3677,7 +3674,7 @@
         <v>292</v>
       </c>
       <c r="B295" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="296" spans="1:16" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -3693,7 +3690,7 @@
         <v>294</v>
       </c>
       <c r="B297" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="298" spans="1:16" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -3701,7 +3698,7 @@
         <v>295</v>
       </c>
       <c r="B298" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299" spans="1:16" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -3717,7 +3714,7 @@
         <v>297</v>
       </c>
       <c r="B300" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301" spans="1:16" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -3725,7 +3722,7 @@
         <v>298</v>
       </c>
       <c r="B301" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
